--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5496941</v>
+        <v>6135233</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,10 +3571,10 @@
         <v>44959.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3586,31 +3586,31 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
+        <v>0.425</v>
+      </c>
+      <c r="AA35">
         <v>-0.5</v>
-      </c>
-      <c r="AA35">
-        <v>0.3625</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6135233</v>
+        <v>5496941</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>44959.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,31 +3675,31 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
         <v>3.4</v>
       </c>
       <c r="M36">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0.3625</v>
       </c>
       <c r="AB36">
         <v>-0.5</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6250009</v>
+        <v>5496954</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,49 +5529,49 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>1.85</v>
@@ -5580,19 +5580,19 @@
         <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z57">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB57">
         <v>0.8500000000000001</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5496954</v>
+        <v>6250009</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,49 +5618,49 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N58">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>1.85</v>
@@ -5669,19 +5669,19 @@
         <v>1.95</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
         <v>0.8500000000000001</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6849109</v>
+        <v>6843489</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,49 +15052,49 @@
         <v>45110.375</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N164">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
         <v>1.925</v>
       </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U164">
         <v>1.975</v>
@@ -15103,25 +15103,25 @@
         <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6843489</v>
+        <v>6849109</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,49 +15141,49 @@
         <v>45110.375</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
         <v>1.875</v>
       </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
         <v>1.975</v>
@@ -15192,25 +15192,25 @@
         <v>1.825</v>
       </c>
       <c r="W165">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45116.375</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>47</v>
+      </c>
+      <c r="K173">
+        <v>1.285</v>
+      </c>
+      <c r="L173">
+        <v>5.25</v>
+      </c>
+      <c r="M173">
+        <v>7</v>
+      </c>
+      <c r="N173">
+        <v>1.65</v>
+      </c>
+      <c r="O173">
+        <v>4.2</v>
+      </c>
+      <c r="P173">
+        <v>3.8</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>2.075</v>
+      </c>
+      <c r="S173">
+        <v>1.725</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.925</v>
+      </c>
+      <c r="V173">
+        <v>1.875</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>2.8</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB173">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" t="s">
-        <v>48</v>
-      </c>
-      <c r="K173">
-        <v>3.25</v>
-      </c>
-      <c r="L173">
-        <v>3.25</v>
-      </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>4</v>
-      </c>
-      <c r="O173">
-        <v>3.4</v>
-      </c>
-      <c r="P173">
-        <v>1.727</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.75</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.4</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.75</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45116.375</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L174">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M174">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N174">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA174">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6843509</v>
+        <v>6843510</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M184">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N184">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O184">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
         <v>1.95</v>
       </c>
       <c r="W184">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB184">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6843510</v>
+        <v>6843509</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N185">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P185">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V185">
         <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>-0</v>
+      </c>
+      <c r="AB185">
+        <v>0.375</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AA185">
-        <v>0.4875</v>
-      </c>
-      <c r="AB185">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC185">
-        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45128.375</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
         <v>3</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N186">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O186">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.925</v>
       </c>
-      <c r="T186">
-        <v>3</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45128.375</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>3</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>1.75</v>
+      </c>
+      <c r="Q187">
+        <v>0.75</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
         <v>3</v>
       </c>
-      <c r="P187">
-        <v>2.625</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6843519</v>
+        <v>6843518</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,55 +17633,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N193">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O193">
         <v>3.4</v>
       </c>
       <c r="P193">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17693,16 +17693,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6843518</v>
+        <v>6843519</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,55 +17722,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>48</v>
       </c>
       <c r="K194">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="O194">
         <v>3.4</v>
       </c>
       <c r="P194">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
         <v>1.825</v>
-      </c>
-      <c r="S194">
-        <v>1.975</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
-      <c r="U194">
-        <v>1.9</v>
-      </c>
-      <c r="V194">
-        <v>1.9</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17782,16 +17782,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,40 +18701,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N205">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R205">
         <v>1.925</v>
@@ -18746,31 +18746,31 @@
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>0.875</v>
+      </c>
+      <c r="AB205">
+        <v>0.4375</v>
+      </c>
+      <c r="AC205">
         <v>-0.5</v>
-      </c>
-      <c r="AA205">
-        <v>0.4375</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
-      <c r="AC205">
-        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,40 +18790,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N206">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
         <v>1.925</v>
@@ -18835,31 +18835,31 @@
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB206">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6843533</v>
+        <v>6843532</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45142.375</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207" t="s">
+        <v>47</v>
+      </c>
+      <c r="K207">
+        <v>3.4</v>
+      </c>
+      <c r="L207">
+        <v>3.4</v>
+      </c>
+      <c r="M207">
+        <v>1.909</v>
+      </c>
+      <c r="N207">
+        <v>2.875</v>
+      </c>
+      <c r="O207">
+        <v>3.25</v>
+      </c>
+      <c r="P207">
+        <v>2.2</v>
+      </c>
+      <c r="Q207">
+        <v>0.25</v>
+      </c>
+      <c r="R207">
+        <v>1.775</v>
+      </c>
+      <c r="S207">
+        <v>2.025</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
+        <v>1.8</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>1.2</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>1.025</v>
+      </c>
+      <c r="AB207">
         <v>1</v>
       </c>
-      <c r="J207" t="s">
-        <v>48</v>
-      </c>
-      <c r="K207">
-        <v>1.3</v>
-      </c>
-      <c r="L207">
-        <v>4.75</v>
-      </c>
-      <c r="M207">
-        <v>7.5</v>
-      </c>
-      <c r="N207">
-        <v>1.5</v>
-      </c>
-      <c r="O207">
-        <v>4.2</v>
-      </c>
-      <c r="P207">
-        <v>5</v>
-      </c>
-      <c r="Q207">
-        <v>-1.25</v>
-      </c>
-      <c r="R207">
-        <v>1.95</v>
-      </c>
-      <c r="S207">
-        <v>1.75</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.925</v>
-      </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
-      <c r="W207">
-        <v>-1</v>
-      </c>
-      <c r="X207">
-        <v>3.2</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
-      <c r="Z207">
-        <v>-1</v>
-      </c>
-      <c r="AA207">
-        <v>0.75</v>
-      </c>
-      <c r="AB207">
-        <v>-1</v>
-      </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6843532</v>
+        <v>6843533</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45142.375</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>48</v>
+      </c>
+      <c r="K208">
+        <v>1.3</v>
+      </c>
+      <c r="L208">
+        <v>4.75</v>
+      </c>
+      <c r="M208">
+        <v>7.5</v>
+      </c>
+      <c r="N208">
+        <v>1.5</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>5</v>
+      </c>
+      <c r="Q208">
+        <v>-1.25</v>
+      </c>
+      <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
+        <v>1.75</v>
+      </c>
+      <c r="T208">
         <v>3</v>
       </c>
-      <c r="J208" t="s">
-        <v>47</v>
-      </c>
-      <c r="K208">
-        <v>3.4</v>
-      </c>
-      <c r="L208">
-        <v>3.4</v>
-      </c>
-      <c r="M208">
-        <v>1.909</v>
-      </c>
-      <c r="N208">
-        <v>2.875</v>
-      </c>
-      <c r="O208">
-        <v>3.25</v>
-      </c>
-      <c r="P208">
-        <v>2.2</v>
-      </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.775</v>
-      </c>
-      <c r="S208">
-        <v>2.025</v>
-      </c>
-      <c r="T208">
-        <v>2.5</v>
-      </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y208">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6843538</v>
+        <v>7030759</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,16 +19413,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>47</v>
@@ -19437,10 +19437,10 @@
         <v>2.9</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
         <v>2.75</v>
@@ -19449,19 +19449,19 @@
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19476,13 +19476,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB213">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7030759</v>
+        <v>6843538</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,16 +19502,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>47</v>
@@ -19526,10 +19526,10 @@
         <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
         <v>2.75</v>
@@ -19538,19 +19538,19 @@
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19565,13 +19565,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45147.375</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
         <v>3.25</v>
       </c>
       <c r="M218">
+        <v>2.6</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
         <v>3.25</v>
       </c>
-      <c r="N218">
-        <v>1.833</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45147.375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L219">
         <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,73 +25643,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G283" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H283">
         <v>2</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L283">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M283">
+        <v>2.4</v>
+      </c>
+      <c r="N283">
+        <v>3.6</v>
+      </c>
+      <c r="O283">
+        <v>3.4</v>
+      </c>
+      <c r="P283">
+        <v>1.85</v>
+      </c>
+      <c r="Q283">
+        <v>0.5</v>
+      </c>
+      <c r="R283">
+        <v>1.925</v>
+      </c>
+      <c r="S283">
+        <v>1.875</v>
+      </c>
+      <c r="T283">
         <v>2.75</v>
       </c>
-      <c r="N283">
-        <v>2.9</v>
-      </c>
-      <c r="O283">
-        <v>3.1</v>
-      </c>
-      <c r="P283">
-        <v>2.375</v>
-      </c>
-      <c r="Q283">
-        <v>0.25</v>
-      </c>
-      <c r="R283">
-        <v>1.75</v>
-      </c>
-      <c r="S283">
-        <v>2.05</v>
-      </c>
-      <c r="T283">
-        <v>2.25</v>
-      </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W283">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25720,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25732,73 +25732,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G284" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K284">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L284">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M284">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N284">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O284">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P284">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q284">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
+        <v>1.75</v>
+      </c>
+      <c r="S284">
+        <v>2.05</v>
+      </c>
+      <c r="T284">
+        <v>2.25</v>
+      </c>
+      <c r="U284">
+        <v>1.875</v>
+      </c>
+      <c r="V284">
         <v>1.925</v>
       </c>
-      <c r="S284">
-        <v>1.875</v>
-      </c>
-      <c r="T284">
-        <v>2.75</v>
-      </c>
-      <c r="U284">
-        <v>1.825</v>
-      </c>
-      <c r="V284">
-        <v>1.975</v>
-      </c>
       <c r="W284">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X284">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA284">
         <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,55 +26622,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
         <v>48</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L294">
         <v>3.4</v>
       </c>
       <c r="M294">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O294">
         <v>3.4</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -26682,16 +26682,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26711,55 +26711,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>48</v>
       </c>
       <c r="K295">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L295">
         <v>3.4</v>
       </c>
       <c r="M295">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O295">
         <v>3.4</v>
       </c>
       <c r="P295">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26771,16 +26771,16 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA295">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC295">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
         <v>1</v>
       </c>
-      <c r="I297">
-        <v>4</v>
-      </c>
       <c r="J297" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K297">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L297">
+        <v>3.5</v>
+      </c>
+      <c r="M297">
+        <v>2.625</v>
+      </c>
+      <c r="N297">
+        <v>2.5</v>
+      </c>
+      <c r="O297">
         <v>3.6</v>
       </c>
-      <c r="M297">
-        <v>4.2</v>
-      </c>
-      <c r="N297">
-        <v>1.6</v>
-      </c>
-      <c r="O297">
-        <v>3.75</v>
-      </c>
       <c r="P297">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q297">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297">
+        <v>1.8</v>
+      </c>
+      <c r="T297">
+        <v>2.75</v>
+      </c>
+      <c r="U297">
+        <v>1.975</v>
+      </c>
+      <c r="V297">
         <v>1.825</v>
       </c>
-      <c r="S297">
-        <v>1.975</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
-      </c>
-      <c r="U297">
-        <v>1.825</v>
-      </c>
-      <c r="V297">
-        <v>1.975</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,76 +26978,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K298">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M298">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N298">
+        <v>1.6</v>
+      </c>
+      <c r="O298">
+        <v>3.75</v>
+      </c>
+      <c r="P298">
+        <v>4.333</v>
+      </c>
+      <c r="Q298">
+        <v>-0.75</v>
+      </c>
+      <c r="R298">
+        <v>1.825</v>
+      </c>
+      <c r="S298">
+        <v>1.975</v>
+      </c>
+      <c r="T298">
         <v>2.5</v>
       </c>
-      <c r="O298">
-        <v>3.6</v>
-      </c>
-      <c r="P298">
-        <v>2.3</v>
-      </c>
-      <c r="Q298">
-        <v>0</v>
-      </c>
-      <c r="R298">
-        <v>2</v>
-      </c>
-      <c r="S298">
-        <v>1.8</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
       <c r="U298">
+        <v>1.825</v>
+      </c>
+      <c r="V298">
         <v>1.975</v>
       </c>
-      <c r="V298">
-        <v>1.825</v>
-      </c>
       <c r="W298">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z298">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB298">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28123,7 +28123,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28135,76 +28135,76 @@
         <v>45232.375</v>
       </c>
       <c r="F311" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K311">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L311">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N311">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O311">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P311">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q311">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R311">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S311">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T311">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V311">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W311">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28212,7 +28212,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28224,76 +28224,76 @@
         <v>45232.375</v>
       </c>
       <c r="F312" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G312" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K312">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L312">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M312">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N312">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O312">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P312">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q312">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R312">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S312">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T312">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V312">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X312">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA312">
         <v>-1</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC312">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,73 +28669,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K317">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L317">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M317">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N317">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O317">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P317">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R317">
+        <v>1.8</v>
+      </c>
+      <c r="S317">
+        <v>2</v>
+      </c>
+      <c r="T317">
+        <v>3</v>
+      </c>
+      <c r="U317">
+        <v>1.825</v>
+      </c>
+      <c r="V317">
         <v>1.975</v>
       </c>
-      <c r="S317">
-        <v>1.825</v>
-      </c>
-      <c r="T317">
-        <v>2.75</v>
-      </c>
-      <c r="U317">
-        <v>1.9</v>
-      </c>
-      <c r="V317">
-        <v>1.9</v>
-      </c>
       <c r="W317">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB317">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -28746,7 +28746,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28758,73 +28758,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G318" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K318">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L318">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M318">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N318">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O318">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P318">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q318">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R318">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T318">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U318">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V318">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X318">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA318">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC318">
         <v>-1</v>
@@ -28924,7 +28924,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6953270</v>
+        <v>6953269</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28936,13 +28936,13 @@
         <v>45239.20833333334</v>
       </c>
       <c r="F320" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G320" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H320">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -28951,43 +28951,43 @@
         <v>49</v>
       </c>
       <c r="K320">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L320">
+        <v>3</v>
+      </c>
+      <c r="M320">
         <v>3.5</v>
       </c>
-      <c r="M320">
+      <c r="N320">
+        <v>1.75</v>
+      </c>
+      <c r="O320">
+        <v>3.1</v>
+      </c>
+      <c r="P320">
         <v>4.333</v>
       </c>
-      <c r="N320">
-        <v>1.5</v>
-      </c>
-      <c r="O320">
-        <v>4.2</v>
-      </c>
-      <c r="P320">
-        <v>5</v>
-      </c>
       <c r="Q320">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S320">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T320">
         <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W320">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -28996,16 +28996,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA320">
         <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29013,7 +29013,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6953269</v>
+        <v>6953270</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29025,13 +29025,13 @@
         <v>45239.20833333334</v>
       </c>
       <c r="F321" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G321" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -29040,43 +29040,43 @@
         <v>49</v>
       </c>
       <c r="K321">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L321">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M321">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N321">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O321">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P321">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S321">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T321">
         <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X321">
         <v>-1</v>
@@ -29085,16 +29085,16 @@
         <v>-1</v>
       </c>
       <c r="Z321">
+        <v>0.825</v>
+      </c>
+      <c r="AA321">
+        <v>-1</v>
+      </c>
+      <c r="AB321">
         <v>0.925</v>
       </c>
-      <c r="AA321">
-        <v>-1</v>
-      </c>
-      <c r="AB321">
-        <v>-1</v>
-      </c>
       <c r="AC321">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -30971,7 +30971,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30983,76 +30983,76 @@
         <v>45268.375</v>
       </c>
       <c r="F343" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K343">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M343">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N343">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P343">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q343">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R343">
+        <v>1.825</v>
+      </c>
+      <c r="S343">
+        <v>1.975</v>
+      </c>
+      <c r="T343">
+        <v>2.75</v>
+      </c>
+      <c r="U343">
+        <v>1.85</v>
+      </c>
+      <c r="V343">
         <v>1.95</v>
       </c>
-      <c r="S343">
-        <v>1.85</v>
-      </c>
-      <c r="T343">
-        <v>2.25</v>
-      </c>
-      <c r="U343">
-        <v>1.825</v>
-      </c>
-      <c r="V343">
-        <v>1.975</v>
-      </c>
       <c r="W343">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
+        <v>-1</v>
+      </c>
+      <c r="AA343">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
         <v>0.95</v>
-      </c>
-      <c r="AA343">
-        <v>-1</v>
-      </c>
-      <c r="AB343">
-        <v>-1</v>
-      </c>
-      <c r="AC343">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31060,7 +31060,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31072,76 +31072,76 @@
         <v>45268.375</v>
       </c>
       <c r="F344" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K344">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L344">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N344">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O344">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q344">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R344">
+        <v>1.95</v>
+      </c>
+      <c r="S344">
+        <v>1.85</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
         <v>1.825</v>
       </c>
-      <c r="S344">
+      <c r="V344">
         <v>1.975</v>
       </c>
-      <c r="T344">
-        <v>2.75</v>
-      </c>
-      <c r="U344">
-        <v>1.85</v>
-      </c>
-      <c r="V344">
-        <v>1.95</v>
-      </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X344">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
+        <v>-1</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+      <c r="AC344">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB344">
-        <v>-1</v>
-      </c>
-      <c r="AC344">
-        <v>0.95</v>
       </c>
     </row>
     <row r="345" spans="1:29">

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6135233</v>
+        <v>5496941</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,10 +3571,10 @@
         <v>44959.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3586,31 +3586,31 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.3625</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5496941</v>
+        <v>6135233</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>44959.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,31 +3675,31 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
         <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
+        <v>0.425</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
-      </c>
-      <c r="AA36">
-        <v>0.3625</v>
       </c>
       <c r="AB36">
         <v>-0.5</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5496954</v>
+        <v>6250009</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,49 +5529,49 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N57">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>1.85</v>
@@ -5580,19 +5580,19 @@
         <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>0.8500000000000001</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6250009</v>
+        <v>5496954</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,49 +5618,49 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>1.85</v>
@@ -5669,19 +5669,19 @@
         <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB58">
         <v>0.8500000000000001</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6437045</v>
+        <v>6420435</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45009.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11151,43 +11151,43 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
         <v>3.5</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6420435</v>
+        <v>6437045</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45009.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,43 +11329,43 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
         <v>3.6</v>
       </c>
-      <c r="M122">
-        <v>3.8</v>
-      </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6843489</v>
+        <v>6849109</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,49 +15052,49 @@
         <v>45110.375</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.925</v>
+      </c>
+      <c r="S164">
         <v>1.875</v>
       </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
         <v>1.975</v>
@@ -15103,25 +15103,25 @@
         <v>1.825</v>
       </c>
       <c r="W164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6849109</v>
+        <v>6843489</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,49 +15141,49 @@
         <v>45110.375</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M165">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
         <v>1.925</v>
       </c>
-      <c r="S165">
-        <v>1.875</v>
-      </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U165">
         <v>1.975</v>
@@ -15192,25 +15192,25 @@
         <v>1.825</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X165">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA165">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC165">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45122.375</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16491,43 +16491,43 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L180">
         <v>3.5</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O180">
         <v>3.5</v>
       </c>
       <c r="P180">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16536,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,10 +16565,10 @@
         <v>45122.375</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16580,61 +16580,61 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L181">
         <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N181">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O181">
         <v>3.5</v>
       </c>
       <c r="P181">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
+        <v>1.8</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.875</v>
-      </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45128.375</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
         <v>3</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L186">
         <v>3</v>
       </c>
       <c r="M186">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>1.75</v>
+      </c>
+      <c r="Q186">
+        <v>0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.925</v>
+      </c>
+      <c r="T186">
         <v>3</v>
       </c>
-      <c r="P186">
-        <v>2.625</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45128.375</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q187">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.925</v>
       </c>
-      <c r="T187">
-        <v>3</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45129.375</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L189">
+        <v>3.25</v>
+      </c>
+      <c r="M189">
         <v>3.75</v>
       </c>
-      <c r="M189">
-        <v>4.25</v>
-      </c>
       <c r="N189">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,73 +17366,73 @@
         <v>45129.375</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
+        <v>1.65</v>
+      </c>
+      <c r="L190">
+        <v>3.75</v>
+      </c>
+      <c r="M190">
+        <v>4.25</v>
+      </c>
+      <c r="N190">
+        <v>1.444</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
+        <v>6</v>
+      </c>
+      <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
         <v>1.85</v>
-      </c>
-      <c r="L190">
-        <v>3.25</v>
-      </c>
-      <c r="M190">
-        <v>3.75</v>
-      </c>
-      <c r="N190">
-        <v>2.15</v>
-      </c>
-      <c r="O190">
-        <v>3.1</v>
-      </c>
-      <c r="P190">
-        <v>3.1</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
-      <c r="S190">
-        <v>1.9</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6990973</v>
+        <v>6843524</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N198">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P198">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6843524</v>
+        <v>6990973</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P199">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,40 +18701,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
         <v>1.925</v>
@@ -18746,31 +18746,31 @@
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB205">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,40 +18790,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P206">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
         <v>1.925</v>
@@ -18835,31 +18835,31 @@
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.875</v>
+      </c>
+      <c r="AB206">
+        <v>0.4375</v>
+      </c>
+      <c r="AC206">
         <v>-0.5</v>
-      </c>
-      <c r="AA206">
-        <v>0.4375</v>
-      </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
-      <c r="AC206">
-        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6843604</v>
+        <v>6843602</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O276">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P276">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
+        <v>1.85</v>
+      </c>
+      <c r="V276">
         <v>1.95</v>
       </c>
-      <c r="V276">
-        <v>1.85</v>
-      </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X276">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
+        <v>0.4375</v>
+      </c>
+      <c r="AA276">
         <v>-0.5</v>
       </c>
-      <c r="AA276">
-        <v>0.4</v>
-      </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25097,7 +25097,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6843605</v>
+        <v>6843604</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25109,28 +25109,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K277">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L277">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M277">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N277">
         <v>2.2</v>
@@ -25139,46 +25139,46 @@
         <v>3.2</v>
       </c>
       <c r="P277">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V277">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W277">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB277">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6843602</v>
+        <v>6843605</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,10 +25198,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25213,58 +25213,58 @@
         <v>49</v>
       </c>
       <c r="K278">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L278">
+        <v>3.3</v>
+      </c>
+      <c r="M278">
+        <v>2.55</v>
+      </c>
+      <c r="N278">
+        <v>2.2</v>
+      </c>
+      <c r="O278">
         <v>3.2</v>
       </c>
-      <c r="M278">
-        <v>3.1</v>
-      </c>
-      <c r="N278">
-        <v>1.8</v>
-      </c>
-      <c r="O278">
-        <v>3.3</v>
-      </c>
       <c r="P278">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W278">
+        <v>1.2</v>
+      </c>
+      <c r="X278">
+        <v>-1</v>
+      </c>
+      <c r="Y278">
+        <v>-1</v>
+      </c>
+      <c r="Z278">
+        <v>1.025</v>
+      </c>
+      <c r="AA278">
+        <v>-1</v>
+      </c>
+      <c r="AB278">
         <v>0.8</v>
-      </c>
-      <c r="X278">
-        <v>-1</v>
-      </c>
-      <c r="Y278">
-        <v>-1</v>
-      </c>
-      <c r="Z278">
-        <v>0.4375</v>
-      </c>
-      <c r="AA278">
-        <v>-0.5</v>
-      </c>
-      <c r="AB278">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,73 +25643,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H283">
         <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M283">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N283">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P283">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q283">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
+        <v>1.75</v>
+      </c>
+      <c r="S283">
+        <v>2.05</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
+        <v>1.875</v>
+      </c>
+      <c r="V283">
         <v>1.925</v>
       </c>
-      <c r="S283">
-        <v>1.875</v>
-      </c>
-      <c r="T283">
-        <v>2.75</v>
-      </c>
-      <c r="U283">
-        <v>1.825</v>
-      </c>
-      <c r="V283">
-        <v>1.975</v>
-      </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X283">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25720,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25732,73 +25732,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G284" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L284">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M284">
+        <v>2.4</v>
+      </c>
+      <c r="N284">
+        <v>3.6</v>
+      </c>
+      <c r="O284">
+        <v>3.4</v>
+      </c>
+      <c r="P284">
+        <v>1.85</v>
+      </c>
+      <c r="Q284">
+        <v>0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.925</v>
+      </c>
+      <c r="S284">
+        <v>1.875</v>
+      </c>
+      <c r="T284">
         <v>2.75</v>
       </c>
-      <c r="N284">
-        <v>2.9</v>
-      </c>
-      <c r="O284">
-        <v>3.1</v>
-      </c>
-      <c r="P284">
-        <v>2.375</v>
-      </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
-      <c r="R284">
-        <v>1.75</v>
-      </c>
-      <c r="S284">
-        <v>2.05</v>
-      </c>
-      <c r="T284">
-        <v>2.25</v>
-      </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W284">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA284">
         <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,73 +28669,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K317">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L317">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O317">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P317">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S317">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X317">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA317">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -28746,7 +28746,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28758,73 +28758,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K318">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L318">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M318">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N318">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O318">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P318">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q318">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R318">
+        <v>1.8</v>
+      </c>
+      <c r="S318">
+        <v>2</v>
+      </c>
+      <c r="T318">
+        <v>3</v>
+      </c>
+      <c r="U318">
+        <v>1.825</v>
+      </c>
+      <c r="V318">
         <v>1.975</v>
       </c>
-      <c r="S318">
-        <v>1.825</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
-      <c r="U318">
-        <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.9</v>
-      </c>
       <c r="W318">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB318">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC318">
         <v>-1</v>
@@ -29547,7 +29547,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29559,58 +29559,58 @@
         <v>45253.375</v>
       </c>
       <c r="F327" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H327">
         <v>3</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="s">
         <v>49</v>
       </c>
       <c r="K327">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L327">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M327">
+        <v>6</v>
+      </c>
+      <c r="N327">
+        <v>1.444</v>
+      </c>
+      <c r="O327">
+        <v>4.5</v>
+      </c>
+      <c r="P327">
+        <v>5.75</v>
+      </c>
+      <c r="Q327">
+        <v>-1.25</v>
+      </c>
+      <c r="R327">
+        <v>1.875</v>
+      </c>
+      <c r="S327">
+        <v>1.925</v>
+      </c>
+      <c r="T327">
         <v>3</v>
       </c>
-      <c r="N327">
-        <v>2.6</v>
-      </c>
-      <c r="O327">
-        <v>3.2</v>
-      </c>
-      <c r="P327">
-        <v>2.5</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
-        <v>2.025</v>
-      </c>
-      <c r="S327">
-        <v>1.775</v>
-      </c>
-      <c r="T327">
-        <v>2.75</v>
-      </c>
       <c r="U327">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V327">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W327">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29619,16 +29619,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC327">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29636,7 +29636,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29648,58 +29648,58 @@
         <v>45253.375</v>
       </c>
       <c r="F328" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H328">
         <v>3</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>49</v>
       </c>
       <c r="K328">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L328">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M328">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N328">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O328">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S328">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T328">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29708,16 +29708,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -30259,7 +30259,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6953281</v>
+        <v>6954164</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30271,10 +30271,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G335" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30286,61 +30286,61 @@
         <v>48</v>
       </c>
       <c r="K335">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L335">
         <v>3.3</v>
       </c>
       <c r="M335">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N335">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O335">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P335">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R335">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S335">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T335">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U335">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V335">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30348,7 +30348,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6954164</v>
+        <v>6953281</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30360,10 +30360,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -30375,61 +30375,61 @@
         <v>48</v>
       </c>
       <c r="K336">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L336">
         <v>3.3</v>
       </c>
       <c r="M336">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N336">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O336">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P336">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q336">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R336">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S336">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T336">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U336">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V336">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA336">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30971,7 +30971,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30983,76 +30983,76 @@
         <v>45268.375</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G343" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K343">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L343">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M343">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N343">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O343">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P343">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q343">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R343">
+        <v>1.95</v>
+      </c>
+      <c r="S343">
+        <v>1.85</v>
+      </c>
+      <c r="T343">
+        <v>2.25</v>
+      </c>
+      <c r="U343">
         <v>1.825</v>
       </c>
-      <c r="S343">
+      <c r="V343">
         <v>1.975</v>
       </c>
-      <c r="T343">
-        <v>2.75</v>
-      </c>
-      <c r="U343">
-        <v>1.85</v>
-      </c>
-      <c r="V343">
-        <v>1.95</v>
-      </c>
       <c r="W343">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X343">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA343">
+        <v>-1</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB343">
-        <v>-1</v>
-      </c>
-      <c r="AC343">
-        <v>0.95</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31060,7 +31060,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31072,76 +31072,76 @@
         <v>45268.375</v>
       </c>
       <c r="F344" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G344" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K344">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L344">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M344">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N344">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P344">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q344">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R344">
+        <v>1.825</v>
+      </c>
+      <c r="S344">
+        <v>1.975</v>
+      </c>
+      <c r="T344">
+        <v>2.75</v>
+      </c>
+      <c r="U344">
+        <v>1.85</v>
+      </c>
+      <c r="V344">
         <v>1.95</v>
       </c>
-      <c r="S344">
-        <v>1.85</v>
-      </c>
-      <c r="T344">
-        <v>2.25</v>
-      </c>
-      <c r="U344">
-        <v>1.825</v>
-      </c>
-      <c r="V344">
-        <v>1.975</v>
-      </c>
       <c r="W344">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
+        <v>-1</v>
+      </c>
+      <c r="AA344">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+      <c r="AC344">
         <v>0.95</v>
-      </c>
-      <c r="AA344">
-        <v>-1</v>
-      </c>
-      <c r="AB344">
-        <v>-1</v>
-      </c>
-      <c r="AC344">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31505,7 +31505,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6954177</v>
+        <v>6953287</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31517,76 +31517,76 @@
         <v>45270.375</v>
       </c>
       <c r="F349" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G349" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L349">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
         <v>4.5</v>
       </c>
       <c r="N349">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P349">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q349">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S349">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T349">
         <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V349">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA349">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC349">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31594,7 +31594,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6953287</v>
+        <v>6954177</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31606,76 +31606,76 @@
         <v>45270.375</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G350" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K350">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L350">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M350">
         <v>4.5</v>
       </c>
       <c r="N350">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O350">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P350">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q350">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R350">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S350">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V350">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W350">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z350">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB350">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -32217,7 +32217,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32229,13 +32229,13 @@
         <v>45277.375</v>
       </c>
       <c r="F357" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>0</v>
@@ -32244,43 +32244,43 @@
         <v>49</v>
       </c>
       <c r="K357">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L357">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M357">
+        <v>4.333</v>
+      </c>
+      <c r="N357">
+        <v>1.727</v>
+      </c>
+      <c r="O357">
+        <v>3.6</v>
+      </c>
+      <c r="P357">
+        <v>4</v>
+      </c>
+      <c r="Q357">
+        <v>-0.75</v>
+      </c>
+      <c r="R357">
+        <v>1.975</v>
+      </c>
+      <c r="S357">
+        <v>1.825</v>
+      </c>
+      <c r="T357">
         <v>2.75</v>
       </c>
-      <c r="N357">
-        <v>2.1</v>
-      </c>
-      <c r="O357">
-        <v>3.4</v>
-      </c>
-      <c r="P357">
-        <v>2.875</v>
-      </c>
-      <c r="Q357">
-        <v>-0.25</v>
-      </c>
-      <c r="R357">
-        <v>1.925</v>
-      </c>
-      <c r="S357">
-        <v>1.875</v>
-      </c>
-      <c r="T357">
-        <v>2.5</v>
-      </c>
       <c r="U357">
+        <v>1.975</v>
+      </c>
+      <c r="V357">
         <v>1.825</v>
       </c>
-      <c r="V357">
-        <v>1.975</v>
-      </c>
       <c r="W357">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X357">
         <v>-1</v>
@@ -32289,16 +32289,16 @@
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB357">
+        <v>-1</v>
+      </c>
+      <c r="AC357">
         <v>0.825</v>
-      </c>
-      <c r="AC357">
-        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32306,7 +32306,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32318,13 +32318,13 @@
         <v>45277.375</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G358" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32333,43 +32333,43 @@
         <v>49</v>
       </c>
       <c r="K358">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L358">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N358">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O358">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P358">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q358">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R358">
+        <v>1.925</v>
+      </c>
+      <c r="S358">
+        <v>1.875</v>
+      </c>
+      <c r="T358">
+        <v>2.5</v>
+      </c>
+      <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
         <v>1.975</v>
       </c>
-      <c r="S358">
-        <v>1.825</v>
-      </c>
-      <c r="T358">
-        <v>2.75</v>
-      </c>
-      <c r="U358">
-        <v>1.975</v>
-      </c>
-      <c r="V358">
-        <v>1.825</v>
-      </c>
       <c r="W358">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32378,16 +32378,16 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC358">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32751,7 +32751,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7782795</v>
+        <v>6953295</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32763,76 +32763,76 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G363" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K363">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L363">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N363">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O363">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P363">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q363">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T363">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V363">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W363">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X363">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA363">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32840,7 +32840,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6953296</v>
+        <v>7782795</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32852,49 +32852,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G364" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K364">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M364">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N364">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O364">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P364">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R364">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S364">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T364">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
         <v>1.85</v>
@@ -32903,19 +32903,19 @@
         <v>1.95</v>
       </c>
       <c r="W364">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB364">
         <v>0.8500000000000001</v>
@@ -32929,7 +32929,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6953295</v>
+        <v>6953296</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32941,13 +32941,13 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G365" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -32956,43 +32956,43 @@
         <v>49</v>
       </c>
       <c r="K365">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L365">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M365">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N365">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O365">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P365">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q365">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R365">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S365">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T365">
         <v>2.5</v>
       </c>
       <c r="U365">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V365">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W365">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33001,16 +33001,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA365">
+        <v>-1</v>
+      </c>
+      <c r="AB365">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA365">
-        <v>-1</v>
-      </c>
-      <c r="AB365">
-        <v>-1</v>
-      </c>
       <c r="AC365">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6125950</v>
+        <v>6125951</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,73 +901,73 @@
         <v>44940.20833333334</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6125951</v>
+        <v>6125950</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,73 +990,73 @@
         <v>44940.20833333334</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>5.75</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>1.95</v>
-      </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
-      <c r="P6">
-        <v>1.95</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5496960</v>
+        <v>5496961</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,76 +6419,76 @@
         <v>44976.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L67">
+        <v>4.2</v>
+      </c>
+      <c r="M67">
+        <v>1.444</v>
+      </c>
+      <c r="N67">
         <v>4.75</v>
-      </c>
-      <c r="M67">
-        <v>7.5</v>
-      </c>
-      <c r="N67">
-        <v>1.571</v>
       </c>
       <c r="O67">
         <v>4.2</v>
       </c>
       <c r="P67">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W67">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5496961</v>
+        <v>5496960</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44976.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M68">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N68">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
         <v>4.2</v>
       </c>
       <c r="P68">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6306755</v>
+        <v>5496965</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>44979.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>0.7</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5496965</v>
+        <v>6306755</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>44979.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
+        <v>4.2</v>
+      </c>
+      <c r="P73">
+        <v>4.5</v>
+      </c>
+      <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="P73">
-        <v>2.7</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>2.1</v>
-      </c>
-      <c r="S73">
-        <v>1.7</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5496702</v>
+        <v>5496969</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,46 +7042,46 @@
         <v>44980.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
         <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>49</v>
       </c>
       <c r="K74">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>2.7</v>
+      </c>
+      <c r="N74">
+        <v>1.909</v>
+      </c>
+      <c r="O74">
         <v>3.6</v>
       </c>
-      <c r="M74">
-        <v>4.75</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>3.8</v>
-      </c>
       <c r="P74">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7093,7 +7093,7 @@
         <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7102,16 +7102,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5496969</v>
+        <v>5496702</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,46 +7131,46 @@
         <v>44980.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7182,7 +7182,7 @@
         <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7191,16 +7191,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6304060</v>
+        <v>5496997</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,28 +9890,28 @@
         <v>44998.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N106">
         <v>2.625</v>
@@ -9920,7 +9920,7 @@
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -9932,13 +9932,13 @@
         <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9956,10 +9956,10 @@
         <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5496997</v>
+        <v>6304060</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,28 +9979,28 @@
         <v>44998.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N107">
         <v>2.625</v>
@@ -10009,7 +10009,7 @@
         <v>3.4</v>
       </c>
       <c r="P107">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -10021,13 +10021,13 @@
         <v>1.8</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10045,10 +10045,10 @@
         <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6437044</v>
+        <v>6437045</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45009.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X120">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6437045</v>
+        <v>6437044</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45009.4375</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>48</v>
+      </c>
+      <c r="K121">
+        <v>2.5</v>
+      </c>
+      <c r="L121">
         <v>3</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>49</v>
-      </c>
-      <c r="K121">
-        <v>1.833</v>
-      </c>
-      <c r="L121">
-        <v>3.4</v>
-      </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N121">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
+        <v>1.95</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
         <v>2.25</v>
       </c>
-      <c r="U121">
-        <v>1.975</v>
-      </c>
-      <c r="V121">
-        <v>1.825</v>
-      </c>
-      <c r="W121">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5497016</v>
+        <v>5497014</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45015.4375</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H128">
+        <v>5</v>
+      </c>
+      <c r="I128">
         <v>1</v>
       </c>
-      <c r="I128">
-        <v>3</v>
-      </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>2.55</v>
+        <v>9.5</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5497014</v>
+        <v>5497016</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45015.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N129">
-        <v>1.2</v>
+        <v>2.55</v>
       </c>
       <c r="O129">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>9.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q129">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5497013</v>
+        <v>6465113</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,40 +12115,40 @@
         <v>45016.4375</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
         <v>1.95</v>
@@ -12157,16 +12157,16 @@
         <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12181,10 +12181,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6465113</v>
+        <v>5497013</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,40 +12204,40 @@
         <v>45016.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
         <v>1.95</v>
@@ -12246,16 +12246,16 @@
         <v>1.85</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12270,10 +12270,10 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5497024</v>
+        <v>5497019</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45025.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>4</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="L144">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="N144">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="O144">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>12</v>
+        <v>1.615</v>
       </c>
       <c r="Q144">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
         <v>1.875</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.925</v>
       </c>
-      <c r="T144">
-        <v>4</v>
-      </c>
-      <c r="U144">
-        <v>1.95</v>
-      </c>
-      <c r="V144">
-        <v>1.85</v>
-      </c>
       <c r="W144">
-        <v>0.1419999999999999</v>
+        <v>3</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,13 +13332,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5497019</v>
+        <v>5497024</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,58 +13361,58 @@
         <v>45025.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>4</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M145">
+        <v>8.5</v>
+      </c>
+      <c r="N145">
+        <v>1.142</v>
+      </c>
+      <c r="O145">
+        <v>8</v>
+      </c>
+      <c r="P145">
+        <v>12</v>
+      </c>
+      <c r="Q145">
+        <v>-2.5</v>
+      </c>
+      <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.925</v>
+      </c>
+      <c r="T145">
+        <v>4</v>
+      </c>
+      <c r="U145">
+        <v>1.95</v>
+      </c>
+      <c r="V145">
         <v>1.85</v>
       </c>
-      <c r="N145">
-        <v>4</v>
-      </c>
-      <c r="O145">
-        <v>4</v>
-      </c>
-      <c r="P145">
-        <v>1.615</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145">
-        <v>1.775</v>
-      </c>
-      <c r="S145">
-        <v>2.025</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
       <c r="W145">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13421,13 +13421,13 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6506294</v>
+        <v>6502656</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45031.4375</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O153">
         <v>4.5</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R153">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6509836</v>
+        <v>6506294</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14162,73 @@
         <v>45031.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154">
+        <v>1.25</v>
+      </c>
+      <c r="L154">
+        <v>5.5</v>
+      </c>
+      <c r="M154">
+        <v>7</v>
+      </c>
+      <c r="N154">
+        <v>1.444</v>
+      </c>
+      <c r="O154">
+        <v>4.5</v>
+      </c>
+      <c r="P154">
         <v>5</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" t="s">
-        <v>49</v>
-      </c>
-      <c r="K154">
-        <v>1.363</v>
-      </c>
-      <c r="L154">
-        <v>4.5</v>
-      </c>
-      <c r="M154">
-        <v>6.5</v>
-      </c>
-      <c r="N154">
-        <v>1.2</v>
-      </c>
-      <c r="O154">
-        <v>5.75</v>
-      </c>
-      <c r="P154">
-        <v>9.5</v>
-      </c>
       <c r="Q154">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB154">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6502656</v>
+        <v>6509836</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,13 +14251,13 @@
         <v>45031.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14266,43 +14266,43 @@
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N155">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O155">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P155">
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,16 +14311,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6849109</v>
+        <v>6843489</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,49 +15052,49 @@
         <v>45110.375</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N164">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
         <v>1.925</v>
       </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U164">
         <v>1.975</v>
@@ -15103,25 +15103,25 @@
         <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6843489</v>
+        <v>6849109</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,49 +15141,49 @@
         <v>45110.375</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
         <v>1.875</v>
       </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
         <v>1.975</v>
@@ -15192,25 +15192,25 @@
         <v>1.825</v>
       </c>
       <c r="W165">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,40 +15586,40 @@
         <v>45115.375</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
         <v>1.975</v>
@@ -15631,13 +15631,13 @@
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15652,10 +15652,10 @@
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,40 +15675,40 @@
         <v>45115.375</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>49</v>
       </c>
       <c r="K171">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
         <v>1.975</v>
@@ -15720,13 +15720,13 @@
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,10 +15741,10 @@
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45116.375</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L173">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N173">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S173">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y173">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA173">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45116.375</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>47</v>
+      </c>
+      <c r="K174">
+        <v>1.285</v>
+      </c>
+      <c r="L174">
+        <v>5.25</v>
+      </c>
+      <c r="M174">
+        <v>7</v>
+      </c>
+      <c r="N174">
+        <v>1.65</v>
+      </c>
+      <c r="O174">
+        <v>4.2</v>
+      </c>
+      <c r="P174">
+        <v>3.8</v>
+      </c>
+      <c r="Q174">
+        <v>-1</v>
+      </c>
+      <c r="R174">
+        <v>2.075</v>
+      </c>
+      <c r="S174">
+        <v>1.725</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
+        <v>1.925</v>
+      </c>
+      <c r="V174">
+        <v>1.875</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>2.8</v>
+      </c>
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" t="s">
-        <v>48</v>
-      </c>
-      <c r="K174">
-        <v>3.25</v>
-      </c>
-      <c r="L174">
-        <v>3.25</v>
-      </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>4</v>
-      </c>
-      <c r="O174">
-        <v>3.4</v>
-      </c>
-      <c r="P174">
-        <v>1.727</v>
-      </c>
-      <c r="Q174">
-        <v>0.75</v>
-      </c>
-      <c r="R174">
-        <v>1.75</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.9</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>2.4</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.75</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45122.375</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16491,61 +16491,61 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L180">
         <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O180">
         <v>3.5</v>
       </c>
       <c r="P180">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
+        <v>1.8</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.875</v>
-      </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,10 +16565,10 @@
         <v>45122.375</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16580,43 +16580,43 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L181">
         <v>3.5</v>
       </c>
       <c r="M181">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O181">
         <v>3.5</v>
       </c>
       <c r="P181">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16625,16 +16625,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6990973</v>
+        <v>6843524</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N198">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P198">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6843524</v>
+        <v>6990973</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P199">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6843526</v>
+        <v>6990972</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45137.375</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N200">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P200">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
         <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA200">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6990972</v>
+        <v>6843526</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45137.375</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N201">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z201">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.8</v>
+      </c>
+      <c r="AB201">
+        <v>0.4</v>
+      </c>
+      <c r="AC201">
         <v>-0.5</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45141.375</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K203">
         <v>1.909</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N203">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O203">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R203">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45141.375</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>1.909</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y204">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,40 +18701,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
         <v>1.925</v>
@@ -18746,31 +18746,31 @@
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB205">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,40 +18790,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P206">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
         <v>1.925</v>
@@ -18835,31 +18835,31 @@
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.875</v>
+      </c>
+      <c r="AB206">
+        <v>0.4375</v>
+      </c>
+      <c r="AC206">
         <v>-0.5</v>
-      </c>
-      <c r="AA206">
-        <v>0.4375</v>
-      </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
-      <c r="AC206">
-        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7030759</v>
+        <v>6843538</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,16 +19413,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>47</v>
@@ -19437,10 +19437,10 @@
         <v>2.9</v>
       </c>
       <c r="N213">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
         <v>2.75</v>
@@ -19449,19 +19449,19 @@
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19476,13 +19476,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6843538</v>
+        <v>7030759</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,16 +19502,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>47</v>
@@ -19526,10 +19526,10 @@
         <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
         <v>2.75</v>
@@ -19538,19 +19538,19 @@
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19565,13 +19565,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB214">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45147.375</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K218">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L218">
         <v>3.25</v>
       </c>
       <c r="M218">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N218">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O218">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45147.375</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I219">
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L219">
         <v>3.25</v>
       </c>
       <c r="M219">
+        <v>2.6</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219">
         <v>3.25</v>
       </c>
-      <c r="N219">
-        <v>1.833</v>
-      </c>
-      <c r="O219">
-        <v>3.4</v>
-      </c>
       <c r="P219">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X219">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6843549</v>
+        <v>6843548</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,49 +20303,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
         <v>1.8</v>
@@ -20354,25 +20354,25 @@
         <v>2</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X223">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
         <v>0.8</v>
       </c>
-      <c r="AB223">
-        <v>-1</v>
-      </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6843548</v>
+        <v>6843549</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,49 +20392,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224">
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K224">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P224">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
         <v>1.8</v>
@@ -20443,25 +20443,25 @@
         <v>2</v>
       </c>
       <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>3.2</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.8</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>1</v>
-      </c>
-      <c r="X224">
-        <v>-1</v>
-      </c>
-      <c r="Y224">
-        <v>-1</v>
-      </c>
-      <c r="Z224">
-        <v>0.825</v>
-      </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
-      <c r="AB224">
-        <v>0.8</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,55 +20926,55 @@
         <v>45156.375</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N230">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O230">
         <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q230">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20983,19 +20983,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,55 +21015,55 @@
         <v>45156.375</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N231">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O231">
         <v>3.4</v>
       </c>
       <c r="P231">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21072,19 +21072,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6843557</v>
+        <v>6843558</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,76 +21104,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>1.975</v>
       </c>
-      <c r="V232">
-        <v>1.825</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6843558</v>
+        <v>6843557</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>0</v>
       </c>
       <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>48</v>
+      </c>
+      <c r="K233">
+        <v>2.05</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>3.2</v>
+      </c>
+      <c r="N233">
+        <v>2.2</v>
+      </c>
+      <c r="O233">
+        <v>3.4</v>
+      </c>
+      <c r="P233">
         <v>3</v>
       </c>
-      <c r="J233" t="s">
-        <v>47</v>
-      </c>
-      <c r="K233">
-        <v>3</v>
-      </c>
-      <c r="L233">
-        <v>3.3</v>
-      </c>
-      <c r="M233">
-        <v>2.2</v>
-      </c>
-      <c r="N233">
-        <v>3</v>
-      </c>
-      <c r="O233">
-        <v>3.25</v>
-      </c>
-      <c r="P233">
-        <v>2.25</v>
-      </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
         <v>1.825</v>
       </c>
-      <c r="V233">
-        <v>1.975</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y233">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.825</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6843564</v>
+        <v>6843563</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,61 +21638,61 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>48</v>
       </c>
       <c r="K238">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
+        <v>1.6</v>
+      </c>
+      <c r="O238">
+        <v>4</v>
+      </c>
+      <c r="P238">
+        <v>5</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>1.95</v>
+      </c>
+      <c r="S238">
+        <v>1.85</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="O238">
-        <v>3.75</v>
-      </c>
-      <c r="P238">
-        <v>4</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.85</v>
-      </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -21701,13 +21701,13 @@
         <v>-1</v>
       </c>
       <c r="AA238">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>1</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
-      <c r="AC238">
-        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6843563</v>
+        <v>6843564</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,62 +21727,62 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>48</v>
       </c>
       <c r="K239">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L239">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N239">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
+        <v>3.75</v>
+      </c>
+      <c r="P239">
         <v>4</v>
       </c>
-      <c r="P239">
-        <v>5</v>
-      </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.85</v>
+      </c>
+      <c r="V239">
         <v>1.95</v>
       </c>
-      <c r="S239">
-        <v>1.85</v>
-      </c>
-      <c r="T239">
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
         <v>2.75</v>
       </c>
-      <c r="U239">
-        <v>1.8</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>3</v>
-      </c>
       <c r="Y239">
         <v>-1</v>
       </c>
@@ -21790,13 +21790,13 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6843575</v>
+        <v>6843576</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,40 +22617,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K249">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L249">
         <v>3.4</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N249">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O249">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R249">
         <v>1.85</v>
@@ -22662,31 +22662,31 @@
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X249">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22694,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6843576</v>
+        <v>6843575</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22706,40 +22706,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K250">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L250">
         <v>3.4</v>
       </c>
       <c r="M250">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N250">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
         <v>1.85</v>
@@ -22751,31 +22751,31 @@
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6843572</v>
+        <v>6843578</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K252">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L252">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
+        <v>2.6</v>
+      </c>
+      <c r="N252">
         <v>2.3</v>
-      </c>
-      <c r="N252">
-        <v>3.4</v>
       </c>
       <c r="O252">
         <v>3.4</v>
       </c>
       <c r="P252">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q252">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X252">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22961,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6843578</v>
+        <v>6843572</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,76 +22973,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G253" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K253">
+        <v>2.7</v>
+      </c>
+      <c r="L253">
+        <v>3.25</v>
+      </c>
+      <c r="M253">
         <v>2.3</v>
       </c>
-      <c r="L253">
+      <c r="N253">
         <v>3.4</v>
-      </c>
-      <c r="M253">
-        <v>2.6</v>
-      </c>
-      <c r="N253">
-        <v>2.3</v>
       </c>
       <c r="O253">
         <v>3.4</v>
       </c>
       <c r="P253">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6843583</v>
+        <v>6843582</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,28 +23329,28 @@
         <v>45184.375</v>
       </c>
       <c r="F257" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257">
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K257">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M257">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N257">
         <v>1.727</v>
@@ -23359,7 +23359,7 @@
         <v>3.75</v>
       </c>
       <c r="P257">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q257">
         <v>-0.75</v>
@@ -23371,7 +23371,7 @@
         <v>1.875</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
         <v>1.925</v>
@@ -23383,10 +23383,10 @@
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y257">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
         <v>-1</v>
@@ -23395,10 +23395,10 @@
         <v>0.875</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC257">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23406,7 +23406,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6843582</v>
+        <v>6843583</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23418,28 +23418,28 @@
         <v>45184.375</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G258" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258">
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K258">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L258">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M258">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
         <v>1.727</v>
@@ -23448,7 +23448,7 @@
         <v>3.75</v>
       </c>
       <c r="P258">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q258">
         <v>-0.75</v>
@@ -23460,7 +23460,7 @@
         <v>1.875</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U258">
         <v>1.925</v>
@@ -23472,10 +23472,10 @@
         <v>-1</v>
       </c>
       <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
         <v>2.75</v>
-      </c>
-      <c r="Y258">
-        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
@@ -23484,10 +23484,10 @@
         <v>0.875</v>
       </c>
       <c r="AB258">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23495,7 +23495,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23507,76 +23507,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K259">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M259">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N259">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O259">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P259">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q259">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V259">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W259">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23584,7 +23584,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23596,76 +23596,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G260" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K260">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N260">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O260">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V260">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X260">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA260">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -25097,7 +25097,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6843602</v>
+        <v>6843605</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25109,10 +25109,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H277">
         <v>2</v>
@@ -25124,58 +25124,58 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L277">
+        <v>3.3</v>
+      </c>
+      <c r="M277">
+        <v>2.55</v>
+      </c>
+      <c r="N277">
+        <v>2.2</v>
+      </c>
+      <c r="O277">
         <v>3.2</v>
       </c>
-      <c r="M277">
-        <v>3.1</v>
-      </c>
-      <c r="N277">
-        <v>1.8</v>
-      </c>
-      <c r="O277">
-        <v>3.3</v>
-      </c>
       <c r="P277">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q277">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T277">
         <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V277">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W277">
+        <v>1.2</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
+        <v>1.025</v>
+      </c>
+      <c r="AA277">
+        <v>-1</v>
+      </c>
+      <c r="AB277">
         <v>0.8</v>
-      </c>
-      <c r="X277">
-        <v>-1</v>
-      </c>
-      <c r="Y277">
-        <v>-1</v>
-      </c>
-      <c r="Z277">
-        <v>0.4375</v>
-      </c>
-      <c r="AA277">
-        <v>-0.5</v>
-      </c>
-      <c r="AB277">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6843605</v>
+        <v>6843602</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,10 +25198,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25213,43 +25213,43 @@
         <v>49</v>
       </c>
       <c r="K278">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L278">
+        <v>3.2</v>
+      </c>
+      <c r="M278">
+        <v>3.1</v>
+      </c>
+      <c r="N278">
+        <v>1.8</v>
+      </c>
+      <c r="O278">
         <v>3.3</v>
       </c>
-      <c r="M278">
-        <v>2.55</v>
-      </c>
-      <c r="N278">
-        <v>2.2</v>
-      </c>
-      <c r="O278">
-        <v>3.2</v>
-      </c>
       <c r="P278">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W278">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X278">
         <v>-1</v>
@@ -25258,13 +25258,13 @@
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB278">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6843607</v>
+        <v>6843606</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,76 +25287,76 @@
         <v>45199.375</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H279">
         <v>2</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K279">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L279">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N279">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O279">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P279">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q279">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
+        <v>1.775</v>
+      </c>
+      <c r="V279">
         <v>1.925</v>
       </c>
-      <c r="V279">
-        <v>1.875</v>
-      </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X279">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
+        <v>-1</v>
+      </c>
+      <c r="AC279">
         <v>0.925</v>
-      </c>
-      <c r="AC279">
-        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25364,7 +25364,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6843606</v>
+        <v>6843607</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25376,76 +25376,76 @@
         <v>45199.375</v>
       </c>
       <c r="F280" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H280">
         <v>2</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K280">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M280">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N280">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q280">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R280">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T280">
         <v>2.5</v>
       </c>
       <c r="U280">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V280">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC280">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,73 +25643,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H283">
         <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M283">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N283">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P283">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q283">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
+        <v>1.75</v>
+      </c>
+      <c r="S283">
+        <v>2.05</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
+        <v>1.875</v>
+      </c>
+      <c r="V283">
         <v>1.925</v>
       </c>
-      <c r="S283">
-        <v>1.875</v>
-      </c>
-      <c r="T283">
-        <v>2.75</v>
-      </c>
-      <c r="U283">
-        <v>1.825</v>
-      </c>
-      <c r="V283">
-        <v>1.975</v>
-      </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X283">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25720,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25732,73 +25732,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G284" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L284">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M284">
+        <v>2.4</v>
+      </c>
+      <c r="N284">
+        <v>3.6</v>
+      </c>
+      <c r="O284">
+        <v>3.4</v>
+      </c>
+      <c r="P284">
+        <v>1.85</v>
+      </c>
+      <c r="Q284">
+        <v>0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.925</v>
+      </c>
+      <c r="S284">
+        <v>1.875</v>
+      </c>
+      <c r="T284">
         <v>2.75</v>
       </c>
-      <c r="N284">
-        <v>2.9</v>
-      </c>
-      <c r="O284">
-        <v>3.1</v>
-      </c>
-      <c r="P284">
-        <v>2.375</v>
-      </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
-      <c r="R284">
-        <v>1.75</v>
-      </c>
-      <c r="S284">
-        <v>2.05</v>
-      </c>
-      <c r="T284">
-        <v>2.25</v>
-      </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W284">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA284">
         <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -25809,7 +25809,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6843610</v>
+        <v>6843611</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25821,76 +25821,76 @@
         <v>45205.375</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G285" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I285">
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K285">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L285">
         <v>3.5</v>
       </c>
       <c r="M285">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N285">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O285">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P285">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q285">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R285">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S285">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T285">
         <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V285">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA285">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC285">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25898,7 +25898,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6843611</v>
+        <v>6843610</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25910,76 +25910,76 @@
         <v>45205.375</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G286" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K286">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L286">
         <v>3.5</v>
       </c>
       <c r="M286">
+        <v>1.727</v>
+      </c>
+      <c r="N286">
         <v>3.75</v>
       </c>
-      <c r="N286">
-        <v>1.55</v>
-      </c>
       <c r="O286">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P286">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q286">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R286">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S286">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T286">
         <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W286">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z286">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB286">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,55 +26622,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
         <v>48</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L294">
         <v>3.4</v>
       </c>
       <c r="M294">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O294">
         <v>3.4</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -26682,16 +26682,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26711,55 +26711,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>48</v>
       </c>
       <c r="K295">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L295">
         <v>3.4</v>
       </c>
       <c r="M295">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O295">
         <v>3.4</v>
       </c>
       <c r="P295">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26771,16 +26771,16 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA295">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC295">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K297">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L297">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M297">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N297">
+        <v>1.6</v>
+      </c>
+      <c r="O297">
+        <v>3.75</v>
+      </c>
+      <c r="P297">
+        <v>4.333</v>
+      </c>
+      <c r="Q297">
+        <v>-0.75</v>
+      </c>
+      <c r="R297">
+        <v>1.825</v>
+      </c>
+      <c r="S297">
+        <v>1.975</v>
+      </c>
+      <c r="T297">
         <v>2.5</v>
       </c>
-      <c r="O297">
-        <v>3.6</v>
-      </c>
-      <c r="P297">
-        <v>2.3</v>
-      </c>
-      <c r="Q297">
-        <v>0</v>
-      </c>
-      <c r="R297">
-        <v>2</v>
-      </c>
-      <c r="S297">
-        <v>1.8</v>
-      </c>
-      <c r="T297">
-        <v>2.75</v>
-      </c>
       <c r="U297">
+        <v>1.825</v>
+      </c>
+      <c r="V297">
         <v>1.975</v>
       </c>
-      <c r="V297">
-        <v>1.825</v>
-      </c>
       <c r="W297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z297">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,76 +26978,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G298" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H298">
+        <v>2</v>
+      </c>
+      <c r="I298">
         <v>1</v>
       </c>
-      <c r="I298">
-        <v>4</v>
-      </c>
       <c r="J298" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K298">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L298">
+        <v>3.5</v>
+      </c>
+      <c r="M298">
+        <v>2.625</v>
+      </c>
+      <c r="N298">
+        <v>2.5</v>
+      </c>
+      <c r="O298">
         <v>3.6</v>
       </c>
-      <c r="M298">
-        <v>4.2</v>
-      </c>
-      <c r="N298">
-        <v>1.6</v>
-      </c>
-      <c r="O298">
-        <v>3.75</v>
-      </c>
       <c r="P298">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q298">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R298">
+        <v>2</v>
+      </c>
+      <c r="S298">
+        <v>1.8</v>
+      </c>
+      <c r="T298">
+        <v>2.75</v>
+      </c>
+      <c r="U298">
+        <v>1.975</v>
+      </c>
+      <c r="V298">
         <v>1.825</v>
       </c>
-      <c r="S298">
-        <v>1.975</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
-      </c>
-      <c r="U298">
-        <v>1.825</v>
-      </c>
-      <c r="V298">
-        <v>1.975</v>
-      </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA298">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -29102,7 +29102,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29114,76 +29114,76 @@
         <v>45239.375</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K322">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>5</v>
+      </c>
+      <c r="N322">
+        <v>1.444</v>
+      </c>
+      <c r="O322">
+        <v>4.2</v>
+      </c>
+      <c r="P322">
+        <v>5.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
+        <v>1.825</v>
+      </c>
+      <c r="T322">
         <v>3.25</v>
       </c>
-      <c r="M322">
-        <v>3.75</v>
-      </c>
-      <c r="N322">
-        <v>1.909</v>
-      </c>
-      <c r="O322">
-        <v>3.25</v>
-      </c>
-      <c r="P322">
-        <v>3.75</v>
-      </c>
-      <c r="Q322">
-        <v>-0.5</v>
-      </c>
-      <c r="R322">
-        <v>1.925</v>
-      </c>
-      <c r="S322">
-        <v>1.875</v>
-      </c>
-      <c r="T322">
-        <v>2.75</v>
-      </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X322">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA322">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC322">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29191,7 +29191,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29203,76 +29203,76 @@
         <v>45239.375</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K323">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M323">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N323">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O323">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P323">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q323">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T323">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V323">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W323">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB323">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29547,7 +29547,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29559,58 +29559,58 @@
         <v>45253.375</v>
       </c>
       <c r="F327" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G327" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H327">
         <v>3</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>49</v>
       </c>
       <c r="K327">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L327">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M327">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N327">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O327">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P327">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q327">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R327">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S327">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T327">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U327">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V327">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29619,16 +29619,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29636,7 +29636,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29648,58 +29648,58 @@
         <v>45253.375</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H328">
         <v>3</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>49</v>
       </c>
       <c r="K328">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L328">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M328">
+        <v>6</v>
+      </c>
+      <c r="N328">
+        <v>1.444</v>
+      </c>
+      <c r="O328">
+        <v>4.5</v>
+      </c>
+      <c r="P328">
+        <v>5.75</v>
+      </c>
+      <c r="Q328">
+        <v>-1.25</v>
+      </c>
+      <c r="R328">
+        <v>1.875</v>
+      </c>
+      <c r="S328">
+        <v>1.925</v>
+      </c>
+      <c r="T328">
         <v>3</v>
       </c>
-      <c r="N328">
-        <v>2.6</v>
-      </c>
-      <c r="O328">
-        <v>3.2</v>
-      </c>
-      <c r="P328">
-        <v>2.5</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>2.025</v>
-      </c>
-      <c r="S328">
-        <v>1.775</v>
-      </c>
-      <c r="T328">
-        <v>2.75</v>
-      </c>
       <c r="U328">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29708,16 +29708,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC328">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7523339</v>
+        <v>6953277</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>45257.375</v>
       </c>
       <c r="F332" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G332" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K332">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M332">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N332">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O332">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q332">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T332">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA332">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC332">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6953277</v>
+        <v>7523339</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>45257.375</v>
       </c>
       <c r="F333" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L333">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M333">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N333">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P333">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q333">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R333">
+        <v>2</v>
+      </c>
+      <c r="S333">
+        <v>1.8</v>
+      </c>
+      <c r="T333">
+        <v>3</v>
+      </c>
+      <c r="U333">
         <v>1.85</v>
       </c>
-      <c r="S333">
+      <c r="V333">
         <v>1.95</v>
       </c>
-      <c r="T333">
-        <v>2.75</v>
-      </c>
-      <c r="U333">
-        <v>1.875</v>
-      </c>
-      <c r="V333">
-        <v>1.925</v>
-      </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X333">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB333">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30259,7 +30259,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6954164</v>
+        <v>6953281</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30271,10 +30271,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G335" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30286,61 +30286,61 @@
         <v>48</v>
       </c>
       <c r="K335">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L335">
         <v>3.3</v>
       </c>
       <c r="M335">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N335">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O335">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P335">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q335">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R335">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T335">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V335">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA335">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30348,7 +30348,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6953281</v>
+        <v>6954164</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30360,10 +30360,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G336" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -30375,61 +30375,61 @@
         <v>48</v>
       </c>
       <c r="K336">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L336">
         <v>3.3</v>
       </c>
       <c r="M336">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N336">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O336">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P336">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q336">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R336">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S336">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U336">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V336">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6954172</v>
+        <v>6954173</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30449,40 +30449,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G337" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337">
+        <v>2</v>
+      </c>
+      <c r="J337" t="s">
+        <v>48</v>
+      </c>
+      <c r="K337">
+        <v>2.3</v>
+      </c>
+      <c r="L337">
+        <v>3.4</v>
+      </c>
+      <c r="M337">
+        <v>2.6</v>
+      </c>
+      <c r="N337">
+        <v>2.55</v>
+      </c>
+      <c r="O337">
+        <v>3.5</v>
+      </c>
+      <c r="P337">
+        <v>2.3</v>
+      </c>
+      <c r="Q337">
         <v>0</v>
-      </c>
-      <c r="J337" t="s">
-        <v>49</v>
-      </c>
-      <c r="K337">
-        <v>1.444</v>
-      </c>
-      <c r="L337">
-        <v>4</v>
-      </c>
-      <c r="M337">
-        <v>6</v>
-      </c>
-      <c r="N337">
-        <v>1.363</v>
-      </c>
-      <c r="O337">
-        <v>4.75</v>
-      </c>
-      <c r="P337">
-        <v>6.5</v>
-      </c>
-      <c r="Q337">
-        <v>-1.5</v>
       </c>
       <c r="R337">
         <v>1.975</v>
@@ -30491,34 +30491,34 @@
         <v>1.825</v>
       </c>
       <c r="T337">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W337">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA337">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC337">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30526,7 +30526,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6954173</v>
+        <v>6954172</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30538,40 +30538,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F338" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G338" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K338">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L338">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N338">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O338">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P338">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q338">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R338">
         <v>1.975</v>
@@ -30580,34 +30580,34 @@
         <v>1.825</v>
       </c>
       <c r="T338">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U338">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V338">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X338">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB338">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -31238,7 +31238,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6953286</v>
+        <v>6953285</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31250,58 +31250,58 @@
         <v>45269.375</v>
       </c>
       <c r="F346" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G346" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
         <v>49</v>
       </c>
       <c r="K346">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L346">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M346">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N346">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O346">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P346">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q346">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S346">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T346">
         <v>2.5</v>
       </c>
       <c r="U346">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W346">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X346">
         <v>-1</v>
@@ -31310,16 +31310,16 @@
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC346">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6953285</v>
+        <v>6953286</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31339,58 +31339,58 @@
         <v>45269.375</v>
       </c>
       <c r="F347" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G347" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>49</v>
       </c>
       <c r="K347">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L347">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M347">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N347">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O347">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P347">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q347">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R347">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S347">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
         <v>2.5</v>
       </c>
       <c r="U347">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V347">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
-        <v>1.7</v>
+        <v>0.571</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31399,16 +31399,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA347">
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31505,7 +31505,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6953287</v>
+        <v>6954177</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31517,76 +31517,76 @@
         <v>45270.375</v>
       </c>
       <c r="F349" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G349" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K349">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M349">
         <v>4.5</v>
       </c>
       <c r="N349">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O349">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P349">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q349">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R349">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S349">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T349">
         <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V349">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W349">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z349">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB349">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31594,7 +31594,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6954177</v>
+        <v>6953287</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31606,76 +31606,76 @@
         <v>45270.375</v>
       </c>
       <c r="F350" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G350" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L350">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M350">
         <v>4.5</v>
       </c>
       <c r="N350">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O350">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P350">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q350">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R350">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S350">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V350">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA350">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC350">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31772,7 +31772,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31784,76 +31784,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F352" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G352" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K352">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M352">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N352">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P352">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R352">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S352">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T352">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V352">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31861,7 +31861,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31873,76 +31873,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G353" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J353" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K353">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L353">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M353">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N353">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O353">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P353">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q353">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S353">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y353">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC353">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32751,7 +32751,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7782795</v>
+        <v>6953295</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32763,76 +32763,76 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G363" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K363">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L363">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N363">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O363">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P363">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q363">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T363">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V363">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W363">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X363">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA363">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32929,7 +32929,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6953295</v>
+        <v>7782795</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32941,76 +32941,76 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G365" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J365" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K365">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L365">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M365">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N365">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O365">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P365">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q365">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R365">
+        <v>1.975</v>
+      </c>
+      <c r="S365">
+        <v>1.825</v>
+      </c>
+      <c r="T365">
+        <v>2.75</v>
+      </c>
+      <c r="U365">
         <v>1.85</v>
       </c>
-      <c r="S365">
+      <c r="V365">
         <v>1.95</v>
       </c>
-      <c r="T365">
-        <v>2.5</v>
-      </c>
-      <c r="U365">
-        <v>1.9</v>
-      </c>
-      <c r="V365">
-        <v>1.9</v>
-      </c>
       <c r="W365">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y365">
         <v>-1</v>
       </c>
       <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
+        <v>0.825</v>
+      </c>
+      <c r="AB365">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA365">
-        <v>-1</v>
-      </c>
-      <c r="AB365">
-        <v>-1</v>
-      </c>
       <c r="AC365">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33285,7 +33285,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6953298</v>
+        <v>6953311</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33297,10 +33297,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G369" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -33312,58 +33312,58 @@
         <v>48</v>
       </c>
       <c r="K369">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L369">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M369">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N369">
+        <v>1.95</v>
+      </c>
+      <c r="O369">
+        <v>3.4</v>
+      </c>
+      <c r="P369">
+        <v>3.3</v>
+      </c>
+      <c r="Q369">
+        <v>-0.25</v>
+      </c>
+      <c r="R369">
         <v>1.75</v>
       </c>
-      <c r="O369">
-        <v>3.6</v>
-      </c>
-      <c r="P369">
-        <v>3.75</v>
-      </c>
-      <c r="Q369">
+      <c r="S369">
+        <v>1.95</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>1.825</v>
+      </c>
+      <c r="V369">
+        <v>1.975</v>
+      </c>
+      <c r="W369">
+        <v>-1</v>
+      </c>
+      <c r="X369">
+        <v>2.4</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
         <v>-0.5</v>
       </c>
-      <c r="R369">
-        <v>1.8</v>
-      </c>
-      <c r="S369">
-        <v>2</v>
-      </c>
-      <c r="T369">
-        <v>2.75</v>
-      </c>
-      <c r="U369">
-        <v>1.95</v>
-      </c>
-      <c r="V369">
-        <v>1.85</v>
-      </c>
-      <c r="W369">
-        <v>-1</v>
-      </c>
-      <c r="X369">
-        <v>2.6</v>
-      </c>
-      <c r="Y369">
-        <v>-1</v>
-      </c>
-      <c r="Z369">
-        <v>-1</v>
-      </c>
       <c r="AA369">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB369">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33374,7 +33374,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6953311</v>
+        <v>6953298</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33386,10 +33386,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G370" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H370">
         <v>2</v>
@@ -33401,58 +33401,58 @@
         <v>48</v>
       </c>
       <c r="K370">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L370">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M370">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N370">
+        <v>1.75</v>
+      </c>
+      <c r="O370">
+        <v>3.6</v>
+      </c>
+      <c r="P370">
+        <v>3.75</v>
+      </c>
+      <c r="Q370">
+        <v>-0.5</v>
+      </c>
+      <c r="R370">
+        <v>1.8</v>
+      </c>
+      <c r="S370">
+        <v>2</v>
+      </c>
+      <c r="T370">
+        <v>2.75</v>
+      </c>
+      <c r="U370">
         <v>1.95</v>
       </c>
-      <c r="O370">
-        <v>3.4</v>
-      </c>
-      <c r="P370">
-        <v>3.3</v>
-      </c>
-      <c r="Q370">
-        <v>-0.25</v>
-      </c>
-      <c r="R370">
-        <v>1.75</v>
-      </c>
-      <c r="S370">
-        <v>1.95</v>
-      </c>
-      <c r="T370">
-        <v>2.5</v>
-      </c>
-      <c r="U370">
-        <v>1.825</v>
-      </c>
       <c r="V370">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB370">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC370">
         <v>-1</v>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6125951</v>
+        <v>6125950</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,73 +901,73 @@
         <v>44940.20833333334</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>3.75</v>
+      </c>
+      <c r="P5">
+        <v>5.75</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="N5">
-        <v>3.5</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>1.95</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6125950</v>
+        <v>6125951</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,73 +990,73 @@
         <v>44940.20833333334</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5496699</v>
+        <v>5496942</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,46 +4550,46 @@
         <v>44965.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P46">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -4601,25 +4601,25 @@
         <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5496942</v>
+        <v>5496699</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,46 +4639,46 @@
         <v>44965.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>1.95</v>
+      </c>
+      <c r="N47">
         <v>3.4</v>
       </c>
-      <c r="L47">
-        <v>3.2</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
         <v>2.5</v>
@@ -4690,25 +4690,25 @@
         <v>1.875</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5496951</v>
+        <v>5496954</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>1.909</v>
+      </c>
+      <c r="L57">
+        <v>3.3</v>
+      </c>
+      <c r="M57">
+        <v>3.5</v>
+      </c>
+      <c r="N57">
+        <v>2.375</v>
+      </c>
+      <c r="O57">
+        <v>3.2</v>
+      </c>
+      <c r="P57">
+        <v>2.7</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.8</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
+        <v>1.85</v>
+      </c>
+      <c r="V57">
+        <v>1.95</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>1.7</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>1</v>
       </c>
-      <c r="J57" t="s">
-        <v>48</v>
-      </c>
-      <c r="K57">
-        <v>3.6</v>
-      </c>
-      <c r="L57">
-        <v>3.1</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>4.75</v>
-      </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
-      <c r="P57">
-        <v>1.571</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="V57">
-        <v>1.8</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>2.75</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
+      <c r="AB57">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6250009</v>
+        <v>5496951</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4.75</v>
+      </c>
+      <c r="O58">
+        <v>3.75</v>
+      </c>
+      <c r="P58">
+        <v>1.571</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>1.95</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="M58">
-        <v>3.25</v>
-      </c>
-      <c r="N58">
-        <v>1.5</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
-      <c r="P58">
-        <v>5.75</v>
-      </c>
-      <c r="Q58">
-        <v>-1</v>
-      </c>
-      <c r="R58">
-        <v>1.775</v>
-      </c>
-      <c r="S58">
-        <v>2.025</v>
-      </c>
-      <c r="T58">
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>1.8</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
         <v>2.75</v>
       </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
-      <c r="W58">
-        <v>0.5</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5496954</v>
+        <v>6250009</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,49 +5707,49 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N59">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
         <v>1.85</v>
@@ -5758,19 +5758,19 @@
         <v>1.95</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>0.8500000000000001</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5496969</v>
+        <v>5496702</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,46 +7042,46 @@
         <v>44980.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>49</v>
       </c>
       <c r="K74">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7093,7 +7093,7 @@
         <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7102,16 +7102,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5496702</v>
+        <v>5496969</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,46 +7131,46 @@
         <v>44980.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2.7</v>
+      </c>
+      <c r="N75">
+        <v>1.909</v>
+      </c>
+      <c r="O75">
         <v>3.6</v>
       </c>
-      <c r="M75">
-        <v>4.75</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>3.8</v>
-      </c>
       <c r="P75">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7182,7 +7182,7 @@
         <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7191,16 +7191,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5497007</v>
+        <v>5497521</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45003.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
+        <v>3.5</v>
+      </c>
+      <c r="L114">
+        <v>3.75</v>
+      </c>
+      <c r="M114">
+        <v>1.8</v>
+      </c>
+      <c r="N114">
+        <v>4.333</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>1.6</v>
+      </c>
+      <c r="Q114">
+        <v>0.75</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.8</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.85</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="L114">
-        <v>3.4</v>
-      </c>
-      <c r="M114">
-        <v>3.4</v>
-      </c>
-      <c r="N114">
-        <v>1.8</v>
-      </c>
-      <c r="O114">
-        <v>3.4</v>
-      </c>
-      <c r="P114">
-        <v>4</v>
-      </c>
-      <c r="Q114">
+      <c r="W114">
+        <v>3.333</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>1</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>0.425</v>
+      </c>
+      <c r="AC114">
         <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.825</v>
-      </c>
-      <c r="S114">
-        <v>1.975</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>1.9</v>
-      </c>
-      <c r="V114">
-        <v>1.9</v>
-      </c>
-      <c r="W114">
-        <v>0.8</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.825</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5497521</v>
+        <v>5497007</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,58 +10691,58 @@
         <v>45003.20833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>49</v>
       </c>
       <c r="K115">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
+        <v>3.4</v>
+      </c>
+      <c r="N115">
         <v>1.8</v>
       </c>
-      <c r="N115">
-        <v>4.333</v>
-      </c>
       <c r="O115">
+        <v>3.4</v>
+      </c>
+      <c r="P115">
         <v>4</v>
       </c>
-      <c r="P115">
-        <v>1.6</v>
-      </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10751,16 +10751,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6437045</v>
+        <v>6420435</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45009.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11151,43 +11151,43 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
         <v>3.5</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6420435</v>
+        <v>6437045</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45009.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,43 +11329,43 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
         <v>3.6</v>
       </c>
-      <c r="M122">
-        <v>3.8</v>
-      </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5497011</v>
+        <v>6465113</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45016.4375</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N130">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
         <v>3.4</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.85</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>1.825</v>
+      </c>
+      <c r="V130">
         <v>1.975</v>
       </c>
-      <c r="S130">
-        <v>1.825</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6465113</v>
+        <v>5497013</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,40 +12115,40 @@
         <v>45016.4375</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
         <v>1.95</v>
@@ -12157,16 +12157,16 @@
         <v>1.85</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12181,10 +12181,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5497013</v>
+        <v>5497011</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,19 +12204,19 @@
         <v>45016.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.55</v>
@@ -12225,28 +12225,28 @@
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12255,19 +12255,19 @@
         <v>1.95</v>
       </c>
       <c r="W132">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
         <v>0.8500000000000001</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5496709</v>
+        <v>5497021</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45023.4375</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O140">
         <v>3.8</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
         <v>1.975</v>
@@ -12958,34 +12958,34 @@
         <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X140">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5497021</v>
+        <v>5496709</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,40 +13094,40 @@
         <v>45023.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
         <v>3.8</v>
       </c>
       <c r="P142">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
         <v>1.975</v>
@@ -13136,34 +13136,34 @@
         <v>1.825</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>2.8</v>
       </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5497019</v>
+        <v>5497024</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45025.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>4</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M144">
+        <v>8.5</v>
+      </c>
+      <c r="N144">
+        <v>1.142</v>
+      </c>
+      <c r="O144">
+        <v>8</v>
+      </c>
+      <c r="P144">
+        <v>12</v>
+      </c>
+      <c r="Q144">
+        <v>-2.5</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.925</v>
+      </c>
+      <c r="T144">
+        <v>4</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.85</v>
       </c>
-      <c r="N144">
-        <v>4</v>
-      </c>
-      <c r="O144">
-        <v>4</v>
-      </c>
-      <c r="P144">
-        <v>1.615</v>
-      </c>
-      <c r="Q144">
-        <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1.775</v>
-      </c>
-      <c r="S144">
-        <v>2.025</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
       <c r="W144">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,13 +13332,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5497024</v>
+        <v>5497019</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,58 +13361,58 @@
         <v>45025.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>4</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="N145">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P145">
-        <v>12</v>
+        <v>1.615</v>
       </c>
       <c r="Q145">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R145">
+        <v>1.775</v>
+      </c>
+      <c r="S145">
+        <v>2.025</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
         <v>1.875</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>1.925</v>
       </c>
-      <c r="T145">
-        <v>4</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>1.85</v>
-      </c>
       <c r="W145">
-        <v>0.1419999999999999</v>
+        <v>3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13421,13 +13421,13 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6502656</v>
+        <v>6509836</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,13 +14073,13 @@
         <v>45031.4375</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14088,43 +14088,43 @@
         <v>49</v>
       </c>
       <c r="K153">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N153">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O153">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P153">
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="Q153">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6509836</v>
+        <v>6502656</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,13 +14251,13 @@
         <v>45031.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14266,43 +14266,43 @@
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>3.3</v>
+      </c>
+      <c r="N155">
+        <v>1.4</v>
+      </c>
+      <c r="O155">
         <v>4.5</v>
       </c>
-      <c r="M155">
-        <v>6.5</v>
-      </c>
-      <c r="N155">
-        <v>1.2</v>
-      </c>
-      <c r="O155">
+      <c r="P155">
         <v>5.75</v>
       </c>
-      <c r="P155">
-        <v>9.5</v>
-      </c>
       <c r="Q155">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R155">
+        <v>1.875</v>
+      </c>
+      <c r="S155">
+        <v>1.925</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
         <v>1.8</v>
       </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.775</v>
-      </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,16 +14311,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6843484</v>
+        <v>6843483</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45109.20833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N159">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
         <v>4</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X159">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6843483</v>
+        <v>6843484</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45109.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M160">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N160">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6843488</v>
+        <v>6843487</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,76 +14874,76 @@
         <v>45110.20833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M162">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O162">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q162">
         <v>0</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6843487</v>
+        <v>6843488</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45110.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L163">
+        <v>3.5</v>
+      </c>
+      <c r="M163">
+        <v>1.909</v>
+      </c>
+      <c r="N163">
+        <v>2.5</v>
+      </c>
+      <c r="O163">
         <v>3.25</v>
       </c>
-      <c r="M163">
-        <v>2.4</v>
-      </c>
-      <c r="N163">
-        <v>2.7</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
       <c r="P163">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q163">
         <v>0</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6843492</v>
+        <v>6843493</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
+        <v>3.75</v>
+      </c>
+      <c r="P168">
         <v>4.333</v>
       </c>
-      <c r="P168">
-        <v>5.25</v>
-      </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6843493</v>
+        <v>6843492</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M169">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N169">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P169">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,40 +15586,40 @@
         <v>45115.375</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
         <v>1.975</v>
@@ -15631,13 +15631,13 @@
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15652,10 +15652,10 @@
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,40 +15675,40 @@
         <v>45115.375</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>49</v>
       </c>
       <c r="K171">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O171">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
         <v>1.975</v>
@@ -15720,13 +15720,13 @@
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,10 +15741,10 @@
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,40 +16298,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K178">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L178">
         <v>3.3</v>
       </c>
       <c r="M178">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N178">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
         <v>1.775</v>
@@ -16340,34 +16340,34 @@
         <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,40 +16387,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L179">
         <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N179">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P179">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
         <v>1.775</v>
@@ -16429,34 +16429,34 @@
         <v>2.025</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA179">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45122.375</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16491,43 +16491,43 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L180">
         <v>3.5</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O180">
         <v>3.5</v>
       </c>
       <c r="P180">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16536,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,10 +16565,10 @@
         <v>45122.375</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16580,61 +16580,61 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L181">
         <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N181">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O181">
         <v>3.5</v>
       </c>
       <c r="P181">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
+        <v>1.8</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.875</v>
-      </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6843509</v>
+        <v>6843510</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M184">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N184">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O184">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
         <v>1.95</v>
       </c>
       <c r="W184">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB184">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6843510</v>
+        <v>6843509</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N185">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P185">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V185">
         <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>-0</v>
+      </c>
+      <c r="AB185">
+        <v>0.375</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AA185">
-        <v>0.4875</v>
-      </c>
-      <c r="AB185">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC185">
-        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45128.375</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
         <v>3</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N186">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O186">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.925</v>
       </c>
-      <c r="T186">
-        <v>3</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45128.375</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>3</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>1.75</v>
+      </c>
+      <c r="Q187">
+        <v>0.75</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
         <v>3</v>
       </c>
-      <c r="P187">
-        <v>2.625</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6843524</v>
+        <v>6990973</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N198">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O198">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6990973</v>
+        <v>6843524</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N199">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45141.375</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>1.909</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N203">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q203">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y203">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45141.375</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>1.909</v>
       </c>
       <c r="L204">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N204">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45147.375</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
         <v>3.25</v>
       </c>
       <c r="M218">
+        <v>2.6</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
         <v>3.25</v>
       </c>
-      <c r="N218">
-        <v>1.833</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45147.375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L219">
         <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6843548</v>
+        <v>6843549</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,49 +20303,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P223">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
         <v>1.8</v>
@@ -20354,25 +20354,25 @@
         <v>2</v>
       </c>
       <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>3.2</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>0.8</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
         <v>1</v>
-      </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
-      <c r="Y223">
-        <v>-1</v>
-      </c>
-      <c r="Z223">
-        <v>0.825</v>
-      </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
-      <c r="AB223">
-        <v>0.8</v>
-      </c>
-      <c r="AC223">
-        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6843549</v>
+        <v>6843548</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,49 +20392,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K224">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N224">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
         <v>1.8</v>
@@ -20443,25 +20443,25 @@
         <v>2</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X224">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA224">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
         <v>0.8</v>
       </c>
-      <c r="AB224">
-        <v>-1</v>
-      </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7055699</v>
+        <v>6843550</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,58 +20481,58 @@
         <v>45151.375</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>49</v>
       </c>
       <c r="K225">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N225">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P225">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q225">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20541,16 +20541,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA225">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6843550</v>
+        <v>7055699</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,58 +20570,58 @@
         <v>45151.375</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>49</v>
       </c>
       <c r="K226">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20630,16 +20630,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6843559</v>
+        <v>6843560</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,58 +21282,58 @@
         <v>45157.375</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>49</v>
       </c>
       <c r="K234">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N234">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21342,16 +21342,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6843560</v>
+        <v>6843559</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,58 +21371,58 @@
         <v>45157.375</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>49</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N235">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21431,16 +21431,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,58 +21816,58 @@
         <v>45163.375</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>49</v>
       </c>
       <c r="K240">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N240">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21876,16 +21876,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,58 +21905,58 @@
         <v>45163.375</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>49</v>
       </c>
       <c r="K241">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21965,16 +21965,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6843578</v>
+        <v>6843572</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K252">
+        <v>2.7</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
         <v>2.3</v>
       </c>
-      <c r="L252">
+      <c r="N252">
         <v>3.4</v>
-      </c>
-      <c r="M252">
-        <v>2.6</v>
-      </c>
-      <c r="N252">
-        <v>2.3</v>
       </c>
       <c r="O252">
         <v>3.4</v>
       </c>
       <c r="P252">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22961,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6843572</v>
+        <v>6843578</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,76 +22973,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K253">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L253">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M253">
+        <v>2.6</v>
+      </c>
+      <c r="N253">
         <v>2.3</v>
-      </c>
-      <c r="N253">
-        <v>3.4</v>
       </c>
       <c r="O253">
         <v>3.4</v>
       </c>
       <c r="P253">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q253">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X253">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6843592</v>
+        <v>6843591</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,10 +24130,10 @@
         <v>45191.375</v>
       </c>
       <c r="F266" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24145,43 +24145,43 @@
         <v>49</v>
       </c>
       <c r="K266">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
+        <v>3.25</v>
+      </c>
+      <c r="M266">
+        <v>3</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266">
         <v>3.3</v>
       </c>
-      <c r="M266">
-        <v>2.8</v>
-      </c>
-      <c r="N266">
-        <v>1.909</v>
-      </c>
-      <c r="O266">
-        <v>3.4</v>
-      </c>
       <c r="P266">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q266">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S266">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T266">
         <v>2.5</v>
       </c>
       <c r="U266">
+        <v>1.925</v>
+      </c>
+      <c r="V266">
         <v>1.875</v>
       </c>
-      <c r="V266">
-        <v>1.925</v>
-      </c>
       <c r="W266">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24190,7 +24190,7 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA266">
         <v>-1</v>
@@ -24199,7 +24199,7 @@
         <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24207,7 +24207,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6843591</v>
+        <v>6843592</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24219,10 +24219,10 @@
         <v>45191.375</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -24234,43 +24234,43 @@
         <v>49</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L267">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N267">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O267">
+        <v>3.4</v>
+      </c>
+      <c r="P267">
         <v>3.3</v>
       </c>
-      <c r="P267">
-        <v>3.2</v>
-      </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
+        <v>1.875</v>
+      </c>
+      <c r="V267">
         <v>1.925</v>
       </c>
-      <c r="V267">
-        <v>1.875</v>
-      </c>
       <c r="W267">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24279,7 +24279,7 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA267">
         <v>-1</v>
@@ -24288,7 +24288,7 @@
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24296,7 +24296,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6843594</v>
+        <v>6843593</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24308,73 +24308,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K268">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M268">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N268">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P268">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T268">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6843593</v>
+        <v>6843594</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,73 +24397,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H269">
+        <v>2</v>
+      </c>
+      <c r="I269">
         <v>3</v>
       </c>
-      <c r="I269">
+      <c r="J269" t="s">
+        <v>47</v>
+      </c>
+      <c r="K269">
+        <v>2.6</v>
+      </c>
+      <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>2.45</v>
+      </c>
+      <c r="N269">
+        <v>2.4</v>
+      </c>
+      <c r="O269">
+        <v>3.1</v>
+      </c>
+      <c r="P269">
+        <v>2.7</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>1.8</v>
+      </c>
+      <c r="S269">
+        <v>2</v>
+      </c>
+      <c r="T269">
+        <v>2.5</v>
+      </c>
+      <c r="U269">
+        <v>1.9</v>
+      </c>
+      <c r="V269">
+        <v>1.9</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
+        <v>1.7</v>
+      </c>
+      <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
         <v>1</v>
       </c>
-      <c r="J269" t="s">
-        <v>49</v>
-      </c>
-      <c r="K269">
-        <v>1.65</v>
-      </c>
-      <c r="L269">
-        <v>3.8</v>
-      </c>
-      <c r="M269">
-        <v>4.2</v>
-      </c>
-      <c r="N269">
-        <v>1.571</v>
-      </c>
-      <c r="O269">
-        <v>4</v>
-      </c>
-      <c r="P269">
-        <v>4.5</v>
-      </c>
-      <c r="Q269">
-        <v>-1</v>
-      </c>
-      <c r="R269">
-        <v>1.95</v>
-      </c>
-      <c r="S269">
-        <v>1.85</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.95</v>
-      </c>
-      <c r="V269">
-        <v>1.85</v>
-      </c>
-      <c r="W269">
-        <v>0.571</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
-      <c r="Y269">
-        <v>-1</v>
-      </c>
-      <c r="Z269">
-        <v>0.95</v>
-      </c>
-      <c r="AA269">
-        <v>-1</v>
-      </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC269">
         <v>-1</v>
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6843604</v>
+        <v>6843605</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,28 +25020,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L276">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M276">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N276">
         <v>2.2</v>
@@ -25050,46 +25050,46 @@
         <v>3.2</v>
       </c>
       <c r="P276">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q276">
         <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
+        <v>1.775</v>
+      </c>
+      <c r="T276">
+        <v>2.25</v>
+      </c>
+      <c r="U276">
         <v>1.8</v>
       </c>
-      <c r="T276">
-        <v>2.5</v>
-      </c>
-      <c r="U276">
-        <v>1.95</v>
-      </c>
       <c r="V276">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X276">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA276">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25097,7 +25097,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6843605</v>
+        <v>6843604</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25109,28 +25109,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K277">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L277">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M277">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N277">
         <v>2.2</v>
@@ -25139,46 +25139,46 @@
         <v>3.2</v>
       </c>
       <c r="P277">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V277">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W277">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB277">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
         <v>1</v>
       </c>
-      <c r="I297">
-        <v>4</v>
-      </c>
       <c r="J297" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K297">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L297">
+        <v>3.5</v>
+      </c>
+      <c r="M297">
+        <v>2.625</v>
+      </c>
+      <c r="N297">
+        <v>2.5</v>
+      </c>
+      <c r="O297">
         <v>3.6</v>
       </c>
-      <c r="M297">
-        <v>4.2</v>
-      </c>
-      <c r="N297">
-        <v>1.6</v>
-      </c>
-      <c r="O297">
-        <v>3.75</v>
-      </c>
       <c r="P297">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q297">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297">
+        <v>1.8</v>
+      </c>
+      <c r="T297">
+        <v>2.75</v>
+      </c>
+      <c r="U297">
+        <v>1.975</v>
+      </c>
+      <c r="V297">
         <v>1.825</v>
       </c>
-      <c r="S297">
-        <v>1.975</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
-      </c>
-      <c r="U297">
-        <v>1.825</v>
-      </c>
-      <c r="V297">
-        <v>1.975</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,76 +26978,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K298">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M298">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N298">
+        <v>1.6</v>
+      </c>
+      <c r="O298">
+        <v>3.75</v>
+      </c>
+      <c r="P298">
+        <v>4.333</v>
+      </c>
+      <c r="Q298">
+        <v>-0.75</v>
+      </c>
+      <c r="R298">
+        <v>1.825</v>
+      </c>
+      <c r="S298">
+        <v>1.975</v>
+      </c>
+      <c r="T298">
         <v>2.5</v>
       </c>
-      <c r="O298">
-        <v>3.6</v>
-      </c>
-      <c r="P298">
-        <v>2.3</v>
-      </c>
-      <c r="Q298">
-        <v>0</v>
-      </c>
-      <c r="R298">
-        <v>2</v>
-      </c>
-      <c r="S298">
-        <v>1.8</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
       <c r="U298">
+        <v>1.825</v>
+      </c>
+      <c r="V298">
         <v>1.975</v>
       </c>
-      <c r="V298">
-        <v>1.825</v>
-      </c>
       <c r="W298">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z298">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB298">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -29547,7 +29547,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29559,58 +29559,58 @@
         <v>45253.375</v>
       </c>
       <c r="F327" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H327">
         <v>3</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="s">
         <v>49</v>
       </c>
       <c r="K327">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L327">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M327">
+        <v>6</v>
+      </c>
+      <c r="N327">
+        <v>1.444</v>
+      </c>
+      <c r="O327">
+        <v>4.5</v>
+      </c>
+      <c r="P327">
+        <v>5.75</v>
+      </c>
+      <c r="Q327">
+        <v>-1.25</v>
+      </c>
+      <c r="R327">
+        <v>1.875</v>
+      </c>
+      <c r="S327">
+        <v>1.925</v>
+      </c>
+      <c r="T327">
         <v>3</v>
       </c>
-      <c r="N327">
-        <v>2.6</v>
-      </c>
-      <c r="O327">
-        <v>3.2</v>
-      </c>
-      <c r="P327">
-        <v>2.5</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
-        <v>2.025</v>
-      </c>
-      <c r="S327">
-        <v>1.775</v>
-      </c>
-      <c r="T327">
-        <v>2.75</v>
-      </c>
       <c r="U327">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V327">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W327">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29619,16 +29619,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC327">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29636,7 +29636,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29648,58 +29648,58 @@
         <v>45253.375</v>
       </c>
       <c r="F328" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H328">
         <v>3</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>49</v>
       </c>
       <c r="K328">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L328">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M328">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N328">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O328">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S328">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T328">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29708,16 +29708,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6953277</v>
+        <v>7523339</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>45257.375</v>
       </c>
       <c r="F332" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G332" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K332">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L332">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M332">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N332">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O332">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P332">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q332">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R332">
+        <v>2</v>
+      </c>
+      <c r="S332">
+        <v>1.8</v>
+      </c>
+      <c r="T332">
+        <v>3</v>
+      </c>
+      <c r="U332">
         <v>1.85</v>
       </c>
-      <c r="S332">
+      <c r="V332">
         <v>1.95</v>
       </c>
-      <c r="T332">
-        <v>2.75</v>
-      </c>
-      <c r="U332">
-        <v>1.875</v>
-      </c>
-      <c r="V332">
-        <v>1.925</v>
-      </c>
       <c r="W332">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X332">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB332">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7523339</v>
+        <v>6953277</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>45257.375</v>
       </c>
       <c r="F333" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G333" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K333">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M333">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N333">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O333">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P333">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q333">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V333">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA333">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC333">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -31505,7 +31505,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6954177</v>
+        <v>6953287</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31517,76 +31517,76 @@
         <v>45270.375</v>
       </c>
       <c r="F349" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G349" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L349">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
         <v>4.5</v>
       </c>
       <c r="N349">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P349">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q349">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S349">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T349">
         <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V349">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA349">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC349">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31594,7 +31594,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6953287</v>
+        <v>6954177</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31606,76 +31606,76 @@
         <v>45270.375</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G350" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K350">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L350">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M350">
         <v>4.5</v>
       </c>
       <c r="N350">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O350">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P350">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q350">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R350">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S350">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V350">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W350">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z350">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB350">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31772,7 +31772,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31784,76 +31784,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F352" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G352" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K352">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L352">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M352">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N352">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O352">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P352">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S352">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y352">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC352">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31861,7 +31861,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31873,76 +31873,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G353" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K353">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L353">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M353">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N353">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O353">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P353">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R353">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S353">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T353">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U353">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB353">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32039,7 +32039,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6953289</v>
+        <v>6953293</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32051,46 +32051,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G355" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H355">
         <v>1</v>
       </c>
       <c r="I355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K355">
+        <v>2.875</v>
+      </c>
+      <c r="L355">
+        <v>3.5</v>
+      </c>
+      <c r="M355">
         <v>2.1</v>
       </c>
-      <c r="L355">
-        <v>3.2</v>
-      </c>
-      <c r="M355">
-        <v>3.1</v>
-      </c>
       <c r="N355">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O355">
         <v>3.5</v>
       </c>
       <c r="P355">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R355">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S355">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T355">
         <v>2.75</v>
@@ -32105,22 +32105,22 @@
         <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y355">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA355">
+        <v>-0.5</v>
+      </c>
+      <c r="AB355">
+        <v>-1</v>
+      </c>
+      <c r="AC355">
         <v>0.825</v>
-      </c>
-      <c r="AB355">
-        <v>0.4875</v>
-      </c>
-      <c r="AC355">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32128,7 +32128,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6953293</v>
+        <v>6953289</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32140,46 +32140,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G356" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H356">
         <v>1</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J356" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K356">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L356">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N356">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O356">
         <v>3.5</v>
       </c>
       <c r="P356">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q356">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S356">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T356">
         <v>2.75</v>
@@ -32194,22 +32194,22 @@
         <v>-1</v>
       </c>
       <c r="X356">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z356">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
+        <v>0.825</v>
+      </c>
+      <c r="AB356">
+        <v>0.4875</v>
+      </c>
+      <c r="AC356">
         <v>-0.5</v>
-      </c>
-      <c r="AB356">
-        <v>-1</v>
-      </c>
-      <c r="AC356">
-        <v>0.825</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32217,7 +32217,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32229,13 +32229,13 @@
         <v>45277.375</v>
       </c>
       <c r="F357" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>0</v>
@@ -32244,43 +32244,43 @@
         <v>49</v>
       </c>
       <c r="K357">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L357">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M357">
+        <v>4.333</v>
+      </c>
+      <c r="N357">
+        <v>1.727</v>
+      </c>
+      <c r="O357">
+        <v>3.6</v>
+      </c>
+      <c r="P357">
+        <v>4</v>
+      </c>
+      <c r="Q357">
+        <v>-0.75</v>
+      </c>
+      <c r="R357">
+        <v>1.975</v>
+      </c>
+      <c r="S357">
+        <v>1.825</v>
+      </c>
+      <c r="T357">
         <v>2.75</v>
       </c>
-      <c r="N357">
-        <v>2.1</v>
-      </c>
-      <c r="O357">
-        <v>3.4</v>
-      </c>
-      <c r="P357">
-        <v>2.875</v>
-      </c>
-      <c r="Q357">
-        <v>-0.25</v>
-      </c>
-      <c r="R357">
-        <v>1.925</v>
-      </c>
-      <c r="S357">
-        <v>1.875</v>
-      </c>
-      <c r="T357">
-        <v>2.5</v>
-      </c>
       <c r="U357">
+        <v>1.975</v>
+      </c>
+      <c r="V357">
         <v>1.825</v>
       </c>
-      <c r="V357">
-        <v>1.975</v>
-      </c>
       <c r="W357">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X357">
         <v>-1</v>
@@ -32289,16 +32289,16 @@
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB357">
+        <v>-1</v>
+      </c>
+      <c r="AC357">
         <v>0.825</v>
-      </c>
-      <c r="AC357">
-        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32306,7 +32306,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32318,13 +32318,13 @@
         <v>45277.375</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G358" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32333,43 +32333,43 @@
         <v>49</v>
       </c>
       <c r="K358">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L358">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N358">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O358">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P358">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q358">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R358">
+        <v>1.925</v>
+      </c>
+      <c r="S358">
+        <v>1.875</v>
+      </c>
+      <c r="T358">
+        <v>2.5</v>
+      </c>
+      <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
         <v>1.975</v>
       </c>
-      <c r="S358">
-        <v>1.825</v>
-      </c>
-      <c r="T358">
-        <v>2.75</v>
-      </c>
-      <c r="U358">
-        <v>1.975</v>
-      </c>
-      <c r="V358">
-        <v>1.825</v>
-      </c>
       <c r="W358">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32378,16 +32378,16 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC358">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC380"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6135233</v>
+        <v>5496941</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,10 +3571,10 @@
         <v>44959.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3586,31 +3586,31 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.3625</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5496941</v>
+        <v>6135233</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>44959.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,31 +3675,31 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
         <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
+        <v>0.425</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
-      </c>
-      <c r="AA36">
-        <v>0.3625</v>
       </c>
       <c r="AB36">
         <v>-0.5</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5496942</v>
+        <v>5496699</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,46 +4550,46 @@
         <v>44965.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K46">
+        <v>3.5</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
+        <v>1.95</v>
+      </c>
+      <c r="N46">
         <v>3.4</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>2.15</v>
-      </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -4601,25 +4601,25 @@
         <v>1.875</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5496699</v>
+        <v>5496942</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,46 +4639,46 @@
         <v>44965.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.5</v>
@@ -4690,25 +4690,25 @@
         <v>1.875</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5496961</v>
+        <v>5496960</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,76 +6419,76 @@
         <v>44976.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M67">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N67">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O67">
         <v>4.2</v>
       </c>
       <c r="P67">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5496960</v>
+        <v>5496961</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44976.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L68">
+        <v>4.2</v>
+      </c>
+      <c r="M68">
+        <v>1.444</v>
+      </c>
+      <c r="N68">
         <v>4.75</v>
-      </c>
-      <c r="M68">
-        <v>7.5</v>
-      </c>
-      <c r="N68">
-        <v>1.571</v>
       </c>
       <c r="O68">
         <v>4.2</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5496997</v>
+        <v>6304060</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,28 +9890,28 @@
         <v>44998.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
       </c>
       <c r="K106">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N106">
         <v>2.625</v>
@@ -9920,7 +9920,7 @@
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -9932,13 +9932,13 @@
         <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9956,10 +9956,10 @@
         <v>-0</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6304060</v>
+        <v>5496997</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,28 +9979,28 @@
         <v>44998.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M107">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N107">
         <v>2.625</v>
@@ -10009,7 +10009,7 @@
         <v>3.4</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -10021,13 +10021,13 @@
         <v>1.8</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10045,10 +10045,10 @@
         <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6437045</v>
+        <v>6437044</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45009.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>48</v>
+      </c>
+      <c r="K120">
+        <v>2.5</v>
+      </c>
+      <c r="L120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>49</v>
-      </c>
-      <c r="K120">
-        <v>1.833</v>
-      </c>
-      <c r="L120">
-        <v>3.4</v>
-      </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
+        <v>1.95</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
         <v>2.25</v>
       </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
-      <c r="W120">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6437044</v>
+        <v>6437045</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45009.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X122">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5497011</v>
+        <v>5497013</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,19 +12026,19 @@
         <v>45016.4375</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
         <v>1</v>
       </c>
-      <c r="I130">
-        <v>3</v>
-      </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>2.55</v>
@@ -12047,28 +12047,28 @@
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N130">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U130">
         <v>1.85</v>
@@ -12077,19 +12077,19 @@
         <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>0.8500000000000001</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5497013</v>
+        <v>6465113</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,40 +12115,40 @@
         <v>45016.4375</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
         <v>1.95</v>
@@ -12157,16 +12157,16 @@
         <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12181,10 +12181,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6465113</v>
+        <v>5497011</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45016.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O132">
         <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
+        <v>1.825</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="S132">
-        <v>1.85</v>
-      </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.825</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
-      </c>
       <c r="W132">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5497463</v>
+        <v>5497022</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45021.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
         <v>3</v>
       </c>
-      <c r="M137">
-        <v>2.8</v>
-      </c>
       <c r="N137">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y137">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5497022</v>
+        <v>5497463</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45021.4375</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>2.8</v>
+      </c>
+      <c r="N138">
+        <v>3.1</v>
+      </c>
+      <c r="O138">
         <v>3.25</v>
       </c>
-      <c r="M138">
+      <c r="P138">
+        <v>2.15</v>
+      </c>
+      <c r="Q138">
+        <v>0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
         <v>3</v>
       </c>
-      <c r="N138">
-        <v>1.5</v>
-      </c>
-      <c r="O138">
-        <v>4.333</v>
-      </c>
-      <c r="P138">
-        <v>5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.25</v>
-      </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.95</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.85</v>
       </c>
-      <c r="T138">
-        <v>3.75</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.775</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5497021</v>
+        <v>5496709</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45023.4375</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
         <v>3.8</v>
       </c>
       <c r="P140">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
         <v>1.975</v>
@@ -12958,34 +12958,34 @@
         <v>1.825</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.8</v>
       </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5496709</v>
+        <v>5497020</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45023.4375</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.675</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>2.15</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5497020</v>
+        <v>5497021</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,10 +13094,10 @@
         <v>45023.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13109,43 +13109,43 @@
         <v>49</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.675</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>2.8</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13154,7 +13154,7 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -13163,7 +13163,7 @@
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5497019</v>
+        <v>5497024</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45025.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>4</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M144">
+        <v>8.5</v>
+      </c>
+      <c r="N144">
+        <v>1.142</v>
+      </c>
+      <c r="O144">
+        <v>8</v>
+      </c>
+      <c r="P144">
+        <v>12</v>
+      </c>
+      <c r="Q144">
+        <v>-2.5</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.925</v>
+      </c>
+      <c r="T144">
+        <v>4</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.85</v>
       </c>
-      <c r="N144">
-        <v>4</v>
-      </c>
-      <c r="O144">
-        <v>4</v>
-      </c>
-      <c r="P144">
-        <v>1.615</v>
-      </c>
-      <c r="Q144">
-        <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1.775</v>
-      </c>
-      <c r="S144">
-        <v>2.025</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
       <c r="W144">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,13 +13332,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5497024</v>
+        <v>5497019</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,58 +13361,58 @@
         <v>45025.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>4</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="N145">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P145">
-        <v>12</v>
+        <v>1.615</v>
       </c>
       <c r="Q145">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R145">
+        <v>1.775</v>
+      </c>
+      <c r="S145">
+        <v>2.025</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
         <v>1.875</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>1.925</v>
       </c>
-      <c r="T145">
-        <v>4</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>1.85</v>
-      </c>
       <c r="W145">
-        <v>0.1419999999999999</v>
+        <v>3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13421,13 +13421,13 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6506290</v>
+        <v>6502655</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45029.4375</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N149">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="V149">
-        <v>1.95</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6502655</v>
+        <v>6506290</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45029.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N150">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
         <v>3.25</v>
       </c>
       <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
       <c r="W150">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6506293</v>
+        <v>6513547</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,19 +13895,19 @@
         <v>45030.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>1.727</v>
@@ -13919,52 +13919,52 @@
         <v>3.75</v>
       </c>
       <c r="N151">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB151">
         <v>0</v>
       </c>
-      <c r="AA151">
+      <c r="AC151">
         <v>-0</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
-      <c r="AC151">
-        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6513547</v>
+        <v>6506293</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,19 +13984,19 @@
         <v>45030.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>3</v>
-      </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14008,52 +14008,52 @@
         <v>3.75</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="Q152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6506294</v>
+        <v>6502656</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45031.4375</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O153">
         <v>4.5</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R153">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6502656</v>
+        <v>6506294</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45031.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M154">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N154">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O154">
         <v>4.5</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q154">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R154">
+        <v>1.7</v>
+      </c>
+      <c r="S154">
+        <v>2.1</v>
+      </c>
+      <c r="T154">
+        <v>3.25</v>
+      </c>
+      <c r="U154">
+        <v>1.925</v>
+      </c>
+      <c r="V154">
         <v>1.875</v>
       </c>
-      <c r="S154">
-        <v>1.925</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>1.8</v>
-      </c>
-      <c r="V154">
-        <v>2</v>
-      </c>
       <c r="W154">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,40 +15586,40 @@
         <v>45115.375</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
         <v>1.975</v>
@@ -15631,13 +15631,13 @@
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15652,10 +15652,10 @@
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,40 +15675,40 @@
         <v>45115.375</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>49</v>
       </c>
       <c r="K171">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O171">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
         <v>1.975</v>
@@ -15720,13 +15720,13 @@
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,10 +15741,10 @@
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45116.375</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>47</v>
+      </c>
+      <c r="K173">
+        <v>1.285</v>
+      </c>
+      <c r="L173">
+        <v>5.25</v>
+      </c>
+      <c r="M173">
+        <v>7</v>
+      </c>
+      <c r="N173">
+        <v>1.65</v>
+      </c>
+      <c r="O173">
+        <v>4.2</v>
+      </c>
+      <c r="P173">
+        <v>3.8</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>2.075</v>
+      </c>
+      <c r="S173">
+        <v>1.725</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.925</v>
+      </c>
+      <c r="V173">
+        <v>1.875</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>2.8</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB173">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" t="s">
-        <v>48</v>
-      </c>
-      <c r="K173">
-        <v>3.25</v>
-      </c>
-      <c r="L173">
-        <v>3.25</v>
-      </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>4</v>
-      </c>
-      <c r="O173">
-        <v>3.4</v>
-      </c>
-      <c r="P173">
-        <v>1.727</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.75</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.4</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.75</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45116.375</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L174">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M174">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N174">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA174">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45129.375</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L189">
+        <v>3.25</v>
+      </c>
+      <c r="M189">
         <v>3.75</v>
       </c>
-      <c r="M189">
-        <v>4.25</v>
-      </c>
       <c r="N189">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,73 +17366,73 @@
         <v>45129.375</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
+        <v>1.65</v>
+      </c>
+      <c r="L190">
+        <v>3.75</v>
+      </c>
+      <c r="M190">
+        <v>4.25</v>
+      </c>
+      <c r="N190">
+        <v>1.444</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
+        <v>6</v>
+      </c>
+      <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
         <v>1.85</v>
-      </c>
-      <c r="L190">
-        <v>3.25</v>
-      </c>
-      <c r="M190">
-        <v>3.75</v>
-      </c>
-      <c r="N190">
-        <v>2.15</v>
-      </c>
-      <c r="O190">
-        <v>3.1</v>
-      </c>
-      <c r="P190">
-        <v>3.1</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
-      <c r="S190">
-        <v>1.9</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6843519</v>
+        <v>6843518</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,55 +17633,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N193">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O193">
         <v>3.4</v>
       </c>
       <c r="P193">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17693,16 +17693,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6843518</v>
+        <v>6843519</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,55 +17722,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>48</v>
       </c>
       <c r="K194">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="O194">
         <v>3.4</v>
       </c>
       <c r="P194">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
         <v>1.825</v>
-      </c>
-      <c r="S194">
-        <v>1.975</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
-      <c r="U194">
-        <v>1.9</v>
-      </c>
-      <c r="V194">
-        <v>1.9</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17782,16 +17782,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7030759</v>
+        <v>6843538</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,16 +19413,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>47</v>
@@ -19437,10 +19437,10 @@
         <v>2.9</v>
       </c>
       <c r="N213">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
         <v>2.75</v>
@@ -19449,19 +19449,19 @@
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19476,13 +19476,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6843538</v>
+        <v>7030759</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,16 +19502,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>47</v>
@@ -19526,10 +19526,10 @@
         <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
         <v>2.75</v>
@@ -19538,19 +19538,19 @@
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19565,13 +19565,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB214">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45147.375</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
         <v>3.25</v>
       </c>
       <c r="M218">
+        <v>2.6</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
         <v>3.25</v>
       </c>
-      <c r="N218">
-        <v>1.833</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45147.375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L219">
         <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,55 +20926,55 @@
         <v>45156.375</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N230">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O230">
         <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q230">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20983,19 +20983,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,55 +21015,55 @@
         <v>45156.375</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N231">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O231">
         <v>3.4</v>
       </c>
       <c r="P231">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21072,19 +21072,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6843558</v>
+        <v>6843557</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,76 +21104,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
       <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>48</v>
+      </c>
+      <c r="K232">
+        <v>2.05</v>
+      </c>
+      <c r="L232">
+        <v>3.4</v>
+      </c>
+      <c r="M232">
+        <v>3.2</v>
+      </c>
+      <c r="N232">
+        <v>2.2</v>
+      </c>
+      <c r="O232">
+        <v>3.4</v>
+      </c>
+      <c r="P232">
         <v>3</v>
       </c>
-      <c r="J232" t="s">
-        <v>47</v>
-      </c>
-      <c r="K232">
-        <v>3</v>
-      </c>
-      <c r="L232">
-        <v>3.3</v>
-      </c>
-      <c r="M232">
-        <v>2.2</v>
-      </c>
-      <c r="N232">
-        <v>3</v>
-      </c>
-      <c r="O232">
-        <v>3.25</v>
-      </c>
-      <c r="P232">
-        <v>2.25</v>
-      </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
         <v>1.825</v>
       </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y232">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.825</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6843557</v>
+        <v>6843558</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H233">
         <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N233">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
+        <v>1.825</v>
+      </c>
+      <c r="V233">
         <v>1.975</v>
       </c>
-      <c r="V233">
-        <v>1.825</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC233">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6843559</v>
+        <v>6843560</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,58 +21282,58 @@
         <v>45157.375</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>49</v>
       </c>
       <c r="K234">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N234">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21342,16 +21342,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6843560</v>
+        <v>6843559</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,58 +21371,58 @@
         <v>45157.375</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>49</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N235">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21431,16 +21431,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6843564</v>
+        <v>6843563</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,61 +21638,61 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>48</v>
       </c>
       <c r="K238">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
+        <v>1.6</v>
+      </c>
+      <c r="O238">
+        <v>4</v>
+      </c>
+      <c r="P238">
+        <v>5</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>1.95</v>
+      </c>
+      <c r="S238">
+        <v>1.85</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="O238">
-        <v>3.75</v>
-      </c>
-      <c r="P238">
-        <v>4</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.85</v>
-      </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -21701,13 +21701,13 @@
         <v>-1</v>
       </c>
       <c r="AA238">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>1</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
-      <c r="AC238">
-        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6843563</v>
+        <v>6843564</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,62 +21727,62 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>48</v>
       </c>
       <c r="K239">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L239">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N239">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
+        <v>3.75</v>
+      </c>
+      <c r="P239">
         <v>4</v>
       </c>
-      <c r="P239">
-        <v>5</v>
-      </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.85</v>
+      </c>
+      <c r="V239">
         <v>1.95</v>
       </c>
-      <c r="S239">
-        <v>1.85</v>
-      </c>
-      <c r="T239">
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
         <v>2.75</v>
       </c>
-      <c r="U239">
-        <v>1.8</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>3</v>
-      </c>
       <c r="Y239">
         <v>-1</v>
       </c>
@@ -21790,13 +21790,13 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,58 +21816,58 @@
         <v>45163.375</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>49</v>
       </c>
       <c r="K240">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N240">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21876,16 +21876,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,58 +21905,58 @@
         <v>45163.375</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>49</v>
       </c>
       <c r="K241">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21965,16 +21965,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6843579</v>
+        <v>6843580</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,76 +23062,76 @@
         <v>45172.375</v>
       </c>
       <c r="F254" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>48</v>
+      </c>
+      <c r="K254">
+        <v>3</v>
+      </c>
+      <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>2.05</v>
+      </c>
+      <c r="N254">
+        <v>2.625</v>
+      </c>
+      <c r="O254">
+        <v>3.2</v>
+      </c>
+      <c r="P254">
+        <v>2.375</v>
+      </c>
+      <c r="Q254">
         <v>0</v>
       </c>
-      <c r="J254" t="s">
-        <v>49</v>
-      </c>
-      <c r="K254">
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
         <v>1.8</v>
       </c>
-      <c r="L254">
-        <v>3.6</v>
-      </c>
-      <c r="M254">
-        <v>3.6</v>
-      </c>
-      <c r="N254">
-        <v>1.75</v>
-      </c>
-      <c r="O254">
-        <v>3.6</v>
-      </c>
-      <c r="P254">
-        <v>3.8</v>
-      </c>
-      <c r="Q254">
-        <v>-0.75</v>
-      </c>
-      <c r="R254">
-        <v>1.75</v>
-      </c>
-      <c r="S254">
-        <v>2.05</v>
-      </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC254">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6843580</v>
+        <v>6843579</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,76 +23151,76 @@
         <v>45172.375</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
+        <v>3.6</v>
+      </c>
+      <c r="N255">
+        <v>1.75</v>
+      </c>
+      <c r="O255">
+        <v>3.6</v>
+      </c>
+      <c r="P255">
+        <v>3.8</v>
+      </c>
+      <c r="Q255">
+        <v>-0.75</v>
+      </c>
+      <c r="R255">
+        <v>1.75</v>
+      </c>
+      <c r="S255">
         <v>2.05</v>
       </c>
-      <c r="N255">
-        <v>2.625</v>
-      </c>
-      <c r="O255">
-        <v>3.2</v>
-      </c>
-      <c r="P255">
-        <v>2.375</v>
-      </c>
-      <c r="Q255">
-        <v>0</v>
-      </c>
-      <c r="R255">
-        <v>2</v>
-      </c>
-      <c r="S255">
-        <v>1.8</v>
-      </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X255">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23495,7 +23495,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23507,76 +23507,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K259">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M259">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N259">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O259">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P259">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q259">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V259">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W259">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23584,7 +23584,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23596,76 +23596,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G260" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K260">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N260">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O260">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V260">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X260">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA260">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6843588</v>
+        <v>6843589</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45186.375</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H263">
         <v>1</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L263">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M263">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N263">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O263">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q263">
+        <v>-1</v>
+      </c>
+      <c r="R263">
+        <v>1.85</v>
+      </c>
+      <c r="S263">
+        <v>1.95</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>1.825</v>
+      </c>
+      <c r="V263">
+        <v>1.975</v>
+      </c>
+      <c r="W263">
+        <v>0.5</v>
+      </c>
+      <c r="X263">
+        <v>-1</v>
+      </c>
+      <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
         <v>0</v>
       </c>
-      <c r="R263">
-        <v>2.075</v>
-      </c>
-      <c r="S263">
-        <v>1.725</v>
-      </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
-      <c r="U263">
-        <v>1.9</v>
-      </c>
-      <c r="V263">
-        <v>1.9</v>
-      </c>
-      <c r="W263">
-        <v>-1</v>
-      </c>
-      <c r="X263">
-        <v>-1</v>
-      </c>
-      <c r="Y263">
-        <v>1.25</v>
-      </c>
-      <c r="Z263">
-        <v>-1</v>
-      </c>
       <c r="AA263">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB263">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6843589</v>
+        <v>6843588</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45186.375</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>47</v>
+      </c>
+      <c r="K264">
+        <v>2.4</v>
+      </c>
+      <c r="L264">
+        <v>3.4</v>
+      </c>
+      <c r="M264">
+        <v>2.5</v>
+      </c>
+      <c r="N264">
+        <v>2.7</v>
+      </c>
+      <c r="O264">
+        <v>3.25</v>
+      </c>
+      <c r="P264">
+        <v>2.25</v>
+      </c>
+      <c r="Q264">
         <v>0</v>
       </c>
-      <c r="J264" t="s">
-        <v>49</v>
-      </c>
-      <c r="K264">
-        <v>1.444</v>
-      </c>
-      <c r="L264">
-        <v>4.2</v>
-      </c>
-      <c r="M264">
-        <v>5.5</v>
-      </c>
-      <c r="N264">
-        <v>1.5</v>
-      </c>
-      <c r="O264">
-        <v>4.2</v>
-      </c>
-      <c r="P264">
-        <v>5</v>
-      </c>
-      <c r="Q264">
-        <v>-1</v>
-      </c>
       <c r="R264">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC264">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6843591</v>
+        <v>6843592</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,10 +24130,10 @@
         <v>45191.375</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24145,43 +24145,43 @@
         <v>49</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L266">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N266">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O266">
+        <v>3.4</v>
+      </c>
+      <c r="P266">
         <v>3.3</v>
       </c>
-      <c r="P266">
-        <v>3.2</v>
-      </c>
       <c r="Q266">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S266">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T266">
         <v>2.5</v>
       </c>
       <c r="U266">
+        <v>1.875</v>
+      </c>
+      <c r="V266">
         <v>1.925</v>
       </c>
-      <c r="V266">
-        <v>1.875</v>
-      </c>
       <c r="W266">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24190,7 +24190,7 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA266">
         <v>-1</v>
@@ -24199,7 +24199,7 @@
         <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24207,7 +24207,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6843592</v>
+        <v>6843591</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24219,10 +24219,10 @@
         <v>45191.375</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -24234,43 +24234,43 @@
         <v>49</v>
       </c>
       <c r="K267">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L267">
+        <v>3.25</v>
+      </c>
+      <c r="M267">
+        <v>3</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="O267">
         <v>3.3</v>
       </c>
-      <c r="M267">
-        <v>2.8</v>
-      </c>
-      <c r="N267">
-        <v>1.909</v>
-      </c>
-      <c r="O267">
-        <v>3.4</v>
-      </c>
       <c r="P267">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
+        <v>1.925</v>
+      </c>
+      <c r="V267">
         <v>1.875</v>
       </c>
-      <c r="V267">
-        <v>1.925</v>
-      </c>
       <c r="W267">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24279,7 +24279,7 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA267">
         <v>-1</v>
@@ -24288,7 +24288,7 @@
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24296,7 +24296,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6843594</v>
+        <v>6843593</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24308,73 +24308,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K268">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M268">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N268">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P268">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T268">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6843593</v>
+        <v>6843594</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,73 +24397,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H269">
+        <v>2</v>
+      </c>
+      <c r="I269">
         <v>3</v>
       </c>
-      <c r="I269">
+      <c r="J269" t="s">
+        <v>47</v>
+      </c>
+      <c r="K269">
+        <v>2.6</v>
+      </c>
+      <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>2.45</v>
+      </c>
+      <c r="N269">
+        <v>2.4</v>
+      </c>
+      <c r="O269">
+        <v>3.1</v>
+      </c>
+      <c r="P269">
+        <v>2.7</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>1.8</v>
+      </c>
+      <c r="S269">
+        <v>2</v>
+      </c>
+      <c r="T269">
+        <v>2.5</v>
+      </c>
+      <c r="U269">
+        <v>1.9</v>
+      </c>
+      <c r="V269">
+        <v>1.9</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
+        <v>1.7</v>
+      </c>
+      <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
         <v>1</v>
       </c>
-      <c r="J269" t="s">
-        <v>49</v>
-      </c>
-      <c r="K269">
-        <v>1.65</v>
-      </c>
-      <c r="L269">
-        <v>3.8</v>
-      </c>
-      <c r="M269">
-        <v>4.2</v>
-      </c>
-      <c r="N269">
-        <v>1.571</v>
-      </c>
-      <c r="O269">
-        <v>4</v>
-      </c>
-      <c r="P269">
-        <v>4.5</v>
-      </c>
-      <c r="Q269">
-        <v>-1</v>
-      </c>
-      <c r="R269">
-        <v>1.95</v>
-      </c>
-      <c r="S269">
-        <v>1.85</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.95</v>
-      </c>
-      <c r="V269">
-        <v>1.85</v>
-      </c>
-      <c r="W269">
-        <v>0.571</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
-      <c r="Y269">
-        <v>-1</v>
-      </c>
-      <c r="Z269">
-        <v>0.95</v>
-      </c>
-      <c r="AA269">
-        <v>-1</v>
-      </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC269">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6843606</v>
+        <v>6843607</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,76 +25287,76 @@
         <v>45199.375</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H279">
         <v>2</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K279">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L279">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M279">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N279">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O279">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q279">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R279">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S279">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V279">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC279">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25364,7 +25364,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6843607</v>
+        <v>6843606</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25376,76 +25376,76 @@
         <v>45199.375</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H280">
         <v>2</v>
       </c>
       <c r="I280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K280">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L280">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N280">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P280">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q280">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R280">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S280">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T280">
         <v>2.5</v>
       </c>
       <c r="U280">
+        <v>1.775</v>
+      </c>
+      <c r="V280">
         <v>1.925</v>
       </c>
-      <c r="V280">
-        <v>1.875</v>
-      </c>
       <c r="W280">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X280">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
         <v>0.925</v>
-      </c>
-      <c r="AC280">
-        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,55 +26622,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
         <v>48</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L294">
         <v>3.4</v>
       </c>
       <c r="M294">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O294">
         <v>3.4</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -26682,16 +26682,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26711,55 +26711,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>48</v>
       </c>
       <c r="K295">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L295">
         <v>3.4</v>
       </c>
       <c r="M295">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O295">
         <v>3.4</v>
       </c>
       <c r="P295">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26771,16 +26771,16 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA295">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC295">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,73 +28669,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K317">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L317">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O317">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P317">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S317">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X317">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA317">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -28746,7 +28746,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28758,73 +28758,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K318">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L318">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M318">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N318">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O318">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P318">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q318">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R318">
+        <v>1.8</v>
+      </c>
+      <c r="S318">
+        <v>2</v>
+      </c>
+      <c r="T318">
+        <v>3</v>
+      </c>
+      <c r="U318">
+        <v>1.825</v>
+      </c>
+      <c r="V318">
         <v>1.975</v>
       </c>
-      <c r="S318">
-        <v>1.825</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
-      <c r="U318">
-        <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.9</v>
-      </c>
       <c r="W318">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB318">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC318">
         <v>-1</v>
@@ -29102,7 +29102,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29114,76 +29114,76 @@
         <v>45239.375</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K322">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>5</v>
+      </c>
+      <c r="N322">
+        <v>1.444</v>
+      </c>
+      <c r="O322">
+        <v>4.2</v>
+      </c>
+      <c r="P322">
+        <v>5.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
+        <v>1.825</v>
+      </c>
+      <c r="T322">
         <v>3.25</v>
       </c>
-      <c r="M322">
-        <v>3.75</v>
-      </c>
-      <c r="N322">
-        <v>1.909</v>
-      </c>
-      <c r="O322">
-        <v>3.25</v>
-      </c>
-      <c r="P322">
-        <v>3.75</v>
-      </c>
-      <c r="Q322">
-        <v>-0.5</v>
-      </c>
-      <c r="R322">
-        <v>1.925</v>
-      </c>
-      <c r="S322">
-        <v>1.875</v>
-      </c>
-      <c r="T322">
-        <v>2.75</v>
-      </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X322">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA322">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC322">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29191,7 +29191,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29203,76 +29203,76 @@
         <v>45239.375</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K323">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M323">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N323">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O323">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P323">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q323">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T323">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V323">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W323">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB323">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7523339</v>
+        <v>6953277</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>45257.375</v>
       </c>
       <c r="F332" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G332" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K332">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M332">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N332">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O332">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q332">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T332">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA332">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC332">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6953277</v>
+        <v>7523339</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>45257.375</v>
       </c>
       <c r="F333" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L333">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M333">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N333">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P333">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q333">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R333">
+        <v>2</v>
+      </c>
+      <c r="S333">
+        <v>1.8</v>
+      </c>
+      <c r="T333">
+        <v>3</v>
+      </c>
+      <c r="U333">
         <v>1.85</v>
       </c>
-      <c r="S333">
+      <c r="V333">
         <v>1.95</v>
       </c>
-      <c r="T333">
-        <v>2.75</v>
-      </c>
-      <c r="U333">
-        <v>1.875</v>
-      </c>
-      <c r="V333">
-        <v>1.925</v>
-      </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X333">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB333">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6954172</v>
+        <v>6954173</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30449,40 +30449,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G337" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337">
+        <v>2</v>
+      </c>
+      <c r="J337" t="s">
+        <v>48</v>
+      </c>
+      <c r="K337">
+        <v>2.3</v>
+      </c>
+      <c r="L337">
+        <v>3.4</v>
+      </c>
+      <c r="M337">
+        <v>2.6</v>
+      </c>
+      <c r="N337">
+        <v>2.55</v>
+      </c>
+      <c r="O337">
+        <v>3.5</v>
+      </c>
+      <c r="P337">
+        <v>2.3</v>
+      </c>
+      <c r="Q337">
         <v>0</v>
-      </c>
-      <c r="J337" t="s">
-        <v>49</v>
-      </c>
-      <c r="K337">
-        <v>1.444</v>
-      </c>
-      <c r="L337">
-        <v>4</v>
-      </c>
-      <c r="M337">
-        <v>6</v>
-      </c>
-      <c r="N337">
-        <v>1.363</v>
-      </c>
-      <c r="O337">
-        <v>4.75</v>
-      </c>
-      <c r="P337">
-        <v>6.5</v>
-      </c>
-      <c r="Q337">
-        <v>-1.5</v>
       </c>
       <c r="R337">
         <v>1.975</v>
@@ -30491,34 +30491,34 @@
         <v>1.825</v>
       </c>
       <c r="T337">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W337">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA337">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC337">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30526,7 +30526,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6954173</v>
+        <v>6954172</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30538,40 +30538,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F338" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G338" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K338">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L338">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N338">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O338">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P338">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q338">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R338">
         <v>1.975</v>
@@ -30580,34 +30580,34 @@
         <v>1.825</v>
       </c>
       <c r="T338">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U338">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V338">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X338">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB338">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -33285,7 +33285,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6953298</v>
+        <v>6953311</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33297,10 +33297,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G369" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -33312,58 +33312,58 @@
         <v>48</v>
       </c>
       <c r="K369">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L369">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M369">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N369">
+        <v>1.95</v>
+      </c>
+      <c r="O369">
+        <v>3.4</v>
+      </c>
+      <c r="P369">
+        <v>3.3</v>
+      </c>
+      <c r="Q369">
+        <v>-0.25</v>
+      </c>
+      <c r="R369">
         <v>1.75</v>
       </c>
-      <c r="O369">
-        <v>3.6</v>
-      </c>
-      <c r="P369">
-        <v>3.75</v>
-      </c>
-      <c r="Q369">
+      <c r="S369">
+        <v>1.95</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>1.825</v>
+      </c>
+      <c r="V369">
+        <v>1.975</v>
+      </c>
+      <c r="W369">
+        <v>-1</v>
+      </c>
+      <c r="X369">
+        <v>2.4</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
         <v>-0.5</v>
       </c>
-      <c r="R369">
-        <v>1.8</v>
-      </c>
-      <c r="S369">
-        <v>2</v>
-      </c>
-      <c r="T369">
-        <v>2.75</v>
-      </c>
-      <c r="U369">
-        <v>1.95</v>
-      </c>
-      <c r="V369">
-        <v>1.85</v>
-      </c>
-      <c r="W369">
-        <v>-1</v>
-      </c>
-      <c r="X369">
-        <v>2.6</v>
-      </c>
-      <c r="Y369">
-        <v>-1</v>
-      </c>
-      <c r="Z369">
-        <v>-1</v>
-      </c>
       <c r="AA369">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB369">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33374,7 +33374,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6953311</v>
+        <v>6953298</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33386,10 +33386,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G370" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H370">
         <v>2</v>
@@ -33401,58 +33401,58 @@
         <v>48</v>
       </c>
       <c r="K370">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L370">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M370">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N370">
+        <v>1.75</v>
+      </c>
+      <c r="O370">
+        <v>3.6</v>
+      </c>
+      <c r="P370">
+        <v>3.75</v>
+      </c>
+      <c r="Q370">
+        <v>-0.5</v>
+      </c>
+      <c r="R370">
+        <v>1.8</v>
+      </c>
+      <c r="S370">
+        <v>2</v>
+      </c>
+      <c r="T370">
+        <v>2.75</v>
+      </c>
+      <c r="U370">
         <v>1.95</v>
       </c>
-      <c r="O370">
-        <v>3.4</v>
-      </c>
-      <c r="P370">
-        <v>3.3</v>
-      </c>
-      <c r="Q370">
-        <v>-0.25</v>
-      </c>
-      <c r="R370">
-        <v>1.75</v>
-      </c>
-      <c r="S370">
-        <v>1.95</v>
-      </c>
-      <c r="T370">
-        <v>2.5</v>
-      </c>
-      <c r="U370">
-        <v>1.825</v>
-      </c>
       <c r="V370">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB370">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC370">
         <v>-1</v>
@@ -33569,6 +33569,15 @@
       <c r="G372" t="s">
         <v>42</v>
       </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>4</v>
+      </c>
+      <c r="J372" t="s">
+        <v>47</v>
+      </c>
       <c r="K372">
         <v>1.909</v>
       </c>
@@ -33579,46 +33588,52 @@
         <v>3.25</v>
       </c>
       <c r="N372">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O372">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P372">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q372">
         <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S372">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T372">
         <v>2.75</v>
       </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V372">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB372">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC372">
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33643,6 +33658,15 @@
       <c r="G373" t="s">
         <v>43</v>
       </c>
+      <c r="H373">
+        <v>2</v>
+      </c>
+      <c r="I373">
+        <v>3</v>
+      </c>
+      <c r="J373" t="s">
+        <v>47</v>
+      </c>
       <c r="K373">
         <v>5.5</v>
       </c>
@@ -33653,46 +33677,52 @@
         <v>1.5</v>
       </c>
       <c r="N373">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O373">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P373">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="Q373">
         <v>0.75</v>
       </c>
       <c r="R373">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S373">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T373">
         <v>2.75</v>
       </c>
       <c r="U373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V373">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="Z373">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA373">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB373">
+        <v>0.95</v>
+      </c>
+      <c r="AC373">
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33717,6 +33747,15 @@
       <c r="G374" t="s">
         <v>46</v>
       </c>
+      <c r="H374">
+        <v>2</v>
+      </c>
+      <c r="I374">
+        <v>3</v>
+      </c>
+      <c r="J374" t="s">
+        <v>47</v>
+      </c>
       <c r="K374">
         <v>1.909</v>
       </c>
@@ -33727,46 +33766,52 @@
         <v>3.25</v>
       </c>
       <c r="N374">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O374">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P374">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q374">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T374">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V374">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB374">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC374">
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33791,6 +33836,15 @@
       <c r="G375" t="s">
         <v>41</v>
       </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375" t="s">
+        <v>47</v>
+      </c>
       <c r="K375">
         <v>1.909</v>
       </c>
@@ -33801,46 +33855,52 @@
         <v>3.25</v>
       </c>
       <c r="N375">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O375">
         <v>3.6</v>
       </c>
       <c r="P375">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q375">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S375">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T375">
         <v>2.75</v>
       </c>
       <c r="U375">
+        <v>1.75</v>
+      </c>
+      <c r="V375">
         <v>1.95</v>
       </c>
-      <c r="V375">
-        <v>1.85</v>
-      </c>
       <c r="W375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB375">
+        <v>-1</v>
+      </c>
+      <c r="AC375">
+        <v>0.95</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33848,7 +33908,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6953303</v>
+        <v>6953312</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33857,49 +33917,49 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45345.20833333334</v>
+        <v>45345.375</v>
       </c>
       <c r="F376" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G376" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K376">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L376">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M376">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N376">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O376">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P376">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R376">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S376">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T376">
         <v>2.5</v>
       </c>
       <c r="U376">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V376">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33922,7 +33982,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6954166</v>
+        <v>6953304</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -33931,31 +33991,31 @@
         <v>28</v>
       </c>
       <c r="E377" s="2">
-        <v>45345.20833333334</v>
+        <v>45346.20833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G377" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K377">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L377">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M377">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N377">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O377">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P377">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q377">
         <v>-0.5</v>
@@ -33967,13 +34027,13 @@
         <v>1.8</v>
       </c>
       <c r="T377">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V377">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -33996,7 +34056,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6953312</v>
+        <v>7046045</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34005,49 +34065,49 @@
         <v>28</v>
       </c>
       <c r="E378" s="2">
-        <v>45345.375</v>
+        <v>45346.375</v>
       </c>
       <c r="F378" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G378" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K378">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L378">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M378">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N378">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="O378">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P378">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q378">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S378">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T378">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V378">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34062,154 +34122,6 @@
         <v>0</v>
       </c>
       <c r="AA378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>6953304</v>
-      </c>
-      <c r="C379" t="s">
-        <v>28</v>
-      </c>
-      <c r="D379" t="s">
-        <v>28</v>
-      </c>
-      <c r="E379" s="2">
-        <v>45346.20833333334</v>
-      </c>
-      <c r="F379" t="s">
-        <v>39</v>
-      </c>
-      <c r="G379" t="s">
-        <v>45</v>
-      </c>
-      <c r="K379">
-        <v>2.15</v>
-      </c>
-      <c r="L379">
-        <v>3.25</v>
-      </c>
-      <c r="M379">
-        <v>2.9</v>
-      </c>
-      <c r="N379">
-        <v>2.15</v>
-      </c>
-      <c r="O379">
-        <v>3.25</v>
-      </c>
-      <c r="P379">
-        <v>2.9</v>
-      </c>
-      <c r="Q379">
-        <v>-0.25</v>
-      </c>
-      <c r="R379">
-        <v>1.95</v>
-      </c>
-      <c r="S379">
-        <v>1.85</v>
-      </c>
-      <c r="T379">
-        <v>2.5</v>
-      </c>
-      <c r="U379">
-        <v>1.9</v>
-      </c>
-      <c r="V379">
-        <v>1.9</v>
-      </c>
-      <c r="W379">
-        <v>0</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>0</v>
-      </c>
-      <c r="Z379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:29">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380">
-        <v>7046045</v>
-      </c>
-      <c r="C380" t="s">
-        <v>28</v>
-      </c>
-      <c r="D380" t="s">
-        <v>28</v>
-      </c>
-      <c r="E380" s="2">
-        <v>45346.375</v>
-      </c>
-      <c r="F380" t="s">
-        <v>32</v>
-      </c>
-      <c r="G380" t="s">
-        <v>40</v>
-      </c>
-      <c r="K380">
-        <v>2.2</v>
-      </c>
-      <c r="L380">
-        <v>3.25</v>
-      </c>
-      <c r="M380">
-        <v>2.8</v>
-      </c>
-      <c r="N380">
-        <v>2.2</v>
-      </c>
-      <c r="O380">
-        <v>3.25</v>
-      </c>
-      <c r="P380">
-        <v>2.8</v>
-      </c>
-      <c r="Q380">
-        <v>-0.25</v>
-      </c>
-      <c r="R380">
-        <v>2.025</v>
-      </c>
-      <c r="S380">
-        <v>1.775</v>
-      </c>
-      <c r="T380">
-        <v>2.5</v>
-      </c>
-      <c r="U380">
-        <v>1.875</v>
-      </c>
-      <c r="V380">
-        <v>1.925</v>
-      </c>
-      <c r="W380">
-        <v>0</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>0</v>
-      </c>
-      <c r="Z380">
-        <v>0</v>
-      </c>
-      <c r="AA380">
         <v>0</v>
       </c>
     </row>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC380"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6125951</v>
+        <v>6125950</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,73 +901,73 @@
         <v>44940.20833333334</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>3.75</v>
+      </c>
+      <c r="P5">
+        <v>5.75</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="N5">
-        <v>3.5</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>1.95</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6125950</v>
+        <v>6125951</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,73 +990,73 @@
         <v>44940.20833333334</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6250009</v>
+        <v>5496951</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4.75</v>
+      </c>
+      <c r="O58">
+        <v>3.75</v>
+      </c>
+      <c r="P58">
+        <v>1.571</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>1.95</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="M58">
-        <v>3.25</v>
-      </c>
-      <c r="N58">
-        <v>1.5</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
-      <c r="P58">
-        <v>5.75</v>
-      </c>
-      <c r="Q58">
-        <v>-1</v>
-      </c>
-      <c r="R58">
-        <v>1.775</v>
-      </c>
-      <c r="S58">
-        <v>2.025</v>
-      </c>
-      <c r="T58">
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>1.8</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
         <v>2.75</v>
       </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
-      <c r="W58">
-        <v>0.5</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5496951</v>
+        <v>6250009</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>44971.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
+        <v>2.1</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3.25</v>
+      </c>
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59">
         <v>3.6</v>
       </c>
-      <c r="L59">
-        <v>3.1</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>4.75</v>
-      </c>
-      <c r="O59">
-        <v>3.75</v>
-      </c>
       <c r="P59">
-        <v>1.571</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R59">
+        <v>1.775</v>
+      </c>
+      <c r="S59">
+        <v>2.025</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
         <v>1.85</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>2</v>
-      </c>
-      <c r="V59">
-        <v>1.8</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5496961</v>
+        <v>5496960</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,76 +6419,76 @@
         <v>44976.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M67">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N67">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O67">
         <v>4.2</v>
       </c>
       <c r="P67">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5496960</v>
+        <v>5496961</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44976.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L68">
+        <v>4.2</v>
+      </c>
+      <c r="M68">
+        <v>1.444</v>
+      </c>
+      <c r="N68">
         <v>4.75</v>
-      </c>
-      <c r="M68">
-        <v>7.5</v>
-      </c>
-      <c r="N68">
-        <v>1.571</v>
       </c>
       <c r="O68">
         <v>4.2</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6306755</v>
+        <v>5496965</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>44979.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>0.7</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5496965</v>
+        <v>6306755</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>44979.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
+        <v>4.2</v>
+      </c>
+      <c r="P73">
+        <v>4.5</v>
+      </c>
+      <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="P73">
-        <v>2.7</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>2.1</v>
-      </c>
-      <c r="S73">
-        <v>1.7</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6420435</v>
+        <v>6437045</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45009.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11151,43 +11151,43 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
         <v>3.6</v>
       </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
       <c r="N120">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
         <v>3.5</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6437045</v>
+        <v>6420435</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45009.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,43 +11329,43 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N122">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6502655</v>
+        <v>6506290</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45029.4375</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L149">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="V149">
-        <v>1.85</v>
-      </c>
       <c r="W149">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6506290</v>
+        <v>6502655</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45029.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N150">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T150">
         <v>3.25</v>
       </c>
       <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,40 +16298,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K178">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L178">
         <v>3.3</v>
       </c>
       <c r="M178">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N178">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
         <v>1.775</v>
@@ -16340,34 +16340,34 @@
         <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,40 +16387,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L179">
         <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N179">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P179">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
         <v>1.775</v>
@@ -16429,34 +16429,34 @@
         <v>2.025</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA179">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45128.375</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
         <v>3</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L186">
         <v>3</v>
       </c>
       <c r="M186">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>1.75</v>
+      </c>
+      <c r="Q186">
+        <v>0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.925</v>
+      </c>
+      <c r="T186">
         <v>3</v>
       </c>
-      <c r="P186">
-        <v>2.625</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45128.375</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q187">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.925</v>
       </c>
-      <c r="T187">
-        <v>3</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45129.375</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K189">
+        <v>1.65</v>
+      </c>
+      <c r="L189">
+        <v>3.75</v>
+      </c>
+      <c r="M189">
+        <v>4.25</v>
+      </c>
+      <c r="N189">
+        <v>1.444</v>
+      </c>
+      <c r="O189">
+        <v>4.2</v>
+      </c>
+      <c r="P189">
+        <v>6</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
         <v>1.85</v>
-      </c>
-      <c r="L189">
-        <v>3.25</v>
-      </c>
-      <c r="M189">
-        <v>3.75</v>
-      </c>
-      <c r="N189">
-        <v>2.15</v>
-      </c>
-      <c r="O189">
-        <v>3.1</v>
-      </c>
-      <c r="P189">
-        <v>3.1</v>
-      </c>
-      <c r="Q189">
-        <v>-0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.9</v>
-      </c>
-      <c r="S189">
-        <v>1.9</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,73 +17366,73 @@
         <v>45129.375</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L190">
+        <v>3.25</v>
+      </c>
+      <c r="M190">
         <v>3.75</v>
       </c>
-      <c r="M190">
-        <v>4.25</v>
-      </c>
       <c r="N190">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6843518</v>
+        <v>6843519</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,55 +17633,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L193">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M193">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N193">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="O193">
         <v>3.4</v>
       </c>
       <c r="P193">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
         <v>1.825</v>
-      </c>
-      <c r="S193">
-        <v>1.975</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.9</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17693,16 +17693,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6843519</v>
+        <v>6843518</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,55 +17722,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>48</v>
       </c>
       <c r="K194">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N194">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O194">
         <v>3.4</v>
       </c>
       <c r="P194">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q194">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17782,16 +17782,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6990972</v>
+        <v>6843526</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45137.375</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N200">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P200">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
         <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z200">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
+        <v>0.8</v>
+      </c>
+      <c r="AB200">
+        <v>0.4</v>
+      </c>
+      <c r="AC200">
         <v>-0.5</v>
-      </c>
-      <c r="AB200">
-        <v>-1</v>
-      </c>
-      <c r="AC200">
-        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6843526</v>
+        <v>6990972</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45137.375</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P201">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA201">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45141.375</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>1.909</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N203">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q203">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y203">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45141.375</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>1.909</v>
       </c>
       <c r="L204">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N204">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45147.375</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
         <v>3.25</v>
       </c>
       <c r="M218">
+        <v>2.6</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
         <v>3.25</v>
       </c>
-      <c r="N218">
-        <v>1.833</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45147.375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L219">
         <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6843560</v>
+        <v>6843559</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,58 +21282,58 @@
         <v>45157.375</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>49</v>
       </c>
       <c r="K234">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N234">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P234">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21342,16 +21342,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6843559</v>
+        <v>6843560</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,58 +21371,58 @@
         <v>45157.375</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>49</v>
       </c>
       <c r="K235">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N235">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P235">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21431,16 +21431,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6843564</v>
+        <v>6843563</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,61 +21638,61 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>48</v>
       </c>
       <c r="K238">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
+        <v>1.6</v>
+      </c>
+      <c r="O238">
+        <v>4</v>
+      </c>
+      <c r="P238">
+        <v>5</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>1.95</v>
+      </c>
+      <c r="S238">
+        <v>1.85</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="O238">
-        <v>3.75</v>
-      </c>
-      <c r="P238">
-        <v>4</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.85</v>
-      </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -21701,13 +21701,13 @@
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6843563</v>
+        <v>6843564</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,62 +21727,62 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>48</v>
       </c>
       <c r="K239">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L239">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N239">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
+        <v>3.75</v>
+      </c>
+      <c r="P239">
         <v>4</v>
       </c>
-      <c r="P239">
-        <v>5</v>
-      </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.85</v>
+      </c>
+      <c r="V239">
         <v>1.95</v>
       </c>
-      <c r="S239">
-        <v>1.85</v>
-      </c>
-      <c r="T239">
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
         <v>2.75</v>
       </c>
-      <c r="U239">
-        <v>1.8</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>3</v>
-      </c>
       <c r="Y239">
         <v>-1</v>
       </c>
@@ -21790,13 +21790,13 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6843579</v>
+        <v>6843580</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,76 +23062,76 @@
         <v>45172.375</v>
       </c>
       <c r="F254" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>48</v>
+      </c>
+      <c r="K254">
+        <v>3</v>
+      </c>
+      <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>2.05</v>
+      </c>
+      <c r="N254">
+        <v>2.625</v>
+      </c>
+      <c r="O254">
+        <v>3.2</v>
+      </c>
+      <c r="P254">
+        <v>2.375</v>
+      </c>
+      <c r="Q254">
         <v>0</v>
       </c>
-      <c r="J254" t="s">
-        <v>49</v>
-      </c>
-      <c r="K254">
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
         <v>1.8</v>
       </c>
-      <c r="L254">
-        <v>3.6</v>
-      </c>
-      <c r="M254">
-        <v>3.6</v>
-      </c>
-      <c r="N254">
-        <v>1.75</v>
-      </c>
-      <c r="O254">
-        <v>3.6</v>
-      </c>
-      <c r="P254">
-        <v>3.8</v>
-      </c>
-      <c r="Q254">
-        <v>-0.75</v>
-      </c>
-      <c r="R254">
-        <v>1.75</v>
-      </c>
-      <c r="S254">
-        <v>2.05</v>
-      </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC254">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6843580</v>
+        <v>6843579</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,76 +23151,76 @@
         <v>45172.375</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
+        <v>3.6</v>
+      </c>
+      <c r="N255">
+        <v>1.75</v>
+      </c>
+      <c r="O255">
+        <v>3.6</v>
+      </c>
+      <c r="P255">
+        <v>3.8</v>
+      </c>
+      <c r="Q255">
+        <v>-0.75</v>
+      </c>
+      <c r="R255">
+        <v>1.75</v>
+      </c>
+      <c r="S255">
         <v>2.05</v>
       </c>
-      <c r="N255">
-        <v>2.625</v>
-      </c>
-      <c r="O255">
-        <v>3.2</v>
-      </c>
-      <c r="P255">
-        <v>2.375</v>
-      </c>
-      <c r="Q255">
-        <v>0</v>
-      </c>
-      <c r="R255">
-        <v>2</v>
-      </c>
-      <c r="S255">
-        <v>1.8</v>
-      </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X255">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23495,7 +23495,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23507,76 +23507,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K259">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M259">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N259">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O259">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P259">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R259">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V259">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X259">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA259">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23584,7 +23584,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23596,76 +23596,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G260" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K260">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N260">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O260">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P260">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q260">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U260">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V260">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W260">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,73 +28669,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K317">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L317">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O317">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P317">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S317">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X317">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA317">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -28746,7 +28746,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28758,73 +28758,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K318">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L318">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M318">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N318">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O318">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P318">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q318">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R318">
+        <v>1.8</v>
+      </c>
+      <c r="S318">
+        <v>2</v>
+      </c>
+      <c r="T318">
+        <v>3</v>
+      </c>
+      <c r="U318">
+        <v>1.825</v>
+      </c>
+      <c r="V318">
         <v>1.975</v>
       </c>
-      <c r="S318">
-        <v>1.825</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
-      <c r="U318">
-        <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.9</v>
-      </c>
       <c r="W318">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB318">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC318">
         <v>-1</v>
@@ -29102,7 +29102,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29114,76 +29114,76 @@
         <v>45239.375</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K322">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>5</v>
+      </c>
+      <c r="N322">
+        <v>1.444</v>
+      </c>
+      <c r="O322">
+        <v>4.2</v>
+      </c>
+      <c r="P322">
+        <v>5.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
+        <v>1.825</v>
+      </c>
+      <c r="T322">
         <v>3.25</v>
       </c>
-      <c r="M322">
-        <v>3.75</v>
-      </c>
-      <c r="N322">
-        <v>1.909</v>
-      </c>
-      <c r="O322">
-        <v>3.25</v>
-      </c>
-      <c r="P322">
-        <v>3.75</v>
-      </c>
-      <c r="Q322">
-        <v>-0.5</v>
-      </c>
-      <c r="R322">
-        <v>1.925</v>
-      </c>
-      <c r="S322">
-        <v>1.875</v>
-      </c>
-      <c r="T322">
-        <v>2.75</v>
-      </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X322">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA322">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC322">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29191,7 +29191,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29203,76 +29203,76 @@
         <v>45239.375</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K323">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M323">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N323">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O323">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P323">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q323">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T323">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V323">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W323">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB323">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7523339</v>
+        <v>6953277</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>45257.375</v>
       </c>
       <c r="F332" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G332" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K332">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M332">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N332">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O332">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q332">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T332">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA332">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC332">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6953277</v>
+        <v>7523339</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>45257.375</v>
       </c>
       <c r="F333" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L333">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M333">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N333">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P333">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q333">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R333">
+        <v>2</v>
+      </c>
+      <c r="S333">
+        <v>1.8</v>
+      </c>
+      <c r="T333">
+        <v>3</v>
+      </c>
+      <c r="U333">
         <v>1.85</v>
       </c>
-      <c r="S333">
+      <c r="V333">
         <v>1.95</v>
       </c>
-      <c r="T333">
-        <v>2.75</v>
-      </c>
-      <c r="U333">
-        <v>1.875</v>
-      </c>
-      <c r="V333">
-        <v>1.925</v>
-      </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X333">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB333">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30971,7 +30971,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30983,76 +30983,76 @@
         <v>45268.375</v>
       </c>
       <c r="F343" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K343">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M343">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N343">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P343">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q343">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R343">
+        <v>1.825</v>
+      </c>
+      <c r="S343">
+        <v>1.975</v>
+      </c>
+      <c r="T343">
+        <v>2.75</v>
+      </c>
+      <c r="U343">
+        <v>1.85</v>
+      </c>
+      <c r="V343">
         <v>1.95</v>
       </c>
-      <c r="S343">
-        <v>1.85</v>
-      </c>
-      <c r="T343">
-        <v>2.25</v>
-      </c>
-      <c r="U343">
-        <v>1.825</v>
-      </c>
-      <c r="V343">
-        <v>1.975</v>
-      </c>
       <c r="W343">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
+        <v>-1</v>
+      </c>
+      <c r="AA343">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
         <v>0.95</v>
-      </c>
-      <c r="AA343">
-        <v>-1</v>
-      </c>
-      <c r="AB343">
-        <v>-1</v>
-      </c>
-      <c r="AC343">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31060,7 +31060,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31072,76 +31072,76 @@
         <v>45268.375</v>
       </c>
       <c r="F344" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K344">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L344">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N344">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O344">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q344">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R344">
+        <v>1.95</v>
+      </c>
+      <c r="S344">
+        <v>1.85</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
         <v>1.825</v>
       </c>
-      <c r="S344">
+      <c r="V344">
         <v>1.975</v>
       </c>
-      <c r="T344">
-        <v>2.75</v>
-      </c>
-      <c r="U344">
-        <v>1.85</v>
-      </c>
-      <c r="V344">
-        <v>1.95</v>
-      </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X344">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
+        <v>-1</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+      <c r="AC344">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB344">
-        <v>-1</v>
-      </c>
-      <c r="AC344">
-        <v>0.95</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -33908,7 +33908,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6953303</v>
+        <v>6954166</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33920,10 +33920,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G376" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H376">
         <v>1</v>
@@ -33935,19 +33935,19 @@
         <v>48</v>
       </c>
       <c r="K376">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L376">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M376">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N376">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O376">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P376">
         <v>3</v>
@@ -33956,25 +33956,25 @@
         <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S376">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T376">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U376">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Y376">
         <v>-1</v>
@@ -33983,13 +33983,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA376">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB376">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -33997,7 +33997,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6954166</v>
+        <v>6953303</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34009,10 +34009,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G377" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H377">
         <v>1</v>
@@ -34024,19 +34024,19 @@
         <v>48</v>
       </c>
       <c r="K377">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L377">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M377">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N377">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P377">
         <v>3</v>
@@ -34045,25 +34045,25 @@
         <v>-0.25</v>
       </c>
       <c r="R377">
+        <v>2.025</v>
+      </c>
+      <c r="S377">
+        <v>1.775</v>
+      </c>
+      <c r="T377">
+        <v>2.25</v>
+      </c>
+      <c r="U377">
         <v>1.8</v>
       </c>
-      <c r="S377">
-        <v>2</v>
-      </c>
-      <c r="T377">
-        <v>2.75</v>
-      </c>
-      <c r="U377">
-        <v>1.825</v>
-      </c>
       <c r="V377">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="Y377">
         <v>-1</v>
@@ -34072,13 +34072,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA377">
+        <v>0.3875</v>
+      </c>
+      <c r="AB377">
+        <v>-0.5</v>
+      </c>
+      <c r="AC377">
         <v>0.5</v>
-      </c>
-      <c r="AB377">
-        <v>-1</v>
-      </c>
-      <c r="AC377">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34168,154 +34168,6 @@
       </c>
       <c r="AC378">
         <v>0.875</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>6953304</v>
-      </c>
-      <c r="C379" t="s">
-        <v>28</v>
-      </c>
-      <c r="D379" t="s">
-        <v>28</v>
-      </c>
-      <c r="E379" s="2">
-        <v>45346.20833333334</v>
-      </c>
-      <c r="F379" t="s">
-        <v>39</v>
-      </c>
-      <c r="G379" t="s">
-        <v>45</v>
-      </c>
-      <c r="K379">
-        <v>2.15</v>
-      </c>
-      <c r="L379">
-        <v>3.25</v>
-      </c>
-      <c r="M379">
-        <v>2.9</v>
-      </c>
-      <c r="N379">
-        <v>1.95</v>
-      </c>
-      <c r="O379">
-        <v>3.3</v>
-      </c>
-      <c r="P379">
-        <v>3.3</v>
-      </c>
-      <c r="Q379">
-        <v>-0.5</v>
-      </c>
-      <c r="R379">
-        <v>2.025</v>
-      </c>
-      <c r="S379">
-        <v>1.775</v>
-      </c>
-      <c r="T379">
-        <v>2.5</v>
-      </c>
-      <c r="U379">
-        <v>1.8</v>
-      </c>
-      <c r="V379">
-        <v>2</v>
-      </c>
-      <c r="W379">
-        <v>0</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>0</v>
-      </c>
-      <c r="Z379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:29">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380">
-        <v>7046045</v>
-      </c>
-      <c r="C380" t="s">
-        <v>28</v>
-      </c>
-      <c r="D380" t="s">
-        <v>28</v>
-      </c>
-      <c r="E380" s="2">
-        <v>45346.375</v>
-      </c>
-      <c r="F380" t="s">
-        <v>32</v>
-      </c>
-      <c r="G380" t="s">
-        <v>40</v>
-      </c>
-      <c r="K380">
-        <v>2.2</v>
-      </c>
-      <c r="L380">
-        <v>3.25</v>
-      </c>
-      <c r="M380">
-        <v>2.8</v>
-      </c>
-      <c r="N380">
-        <v>2.05</v>
-      </c>
-      <c r="O380">
-        <v>3.25</v>
-      </c>
-      <c r="P380">
-        <v>3</v>
-      </c>
-      <c r="Q380">
-        <v>-0.25</v>
-      </c>
-      <c r="R380">
-        <v>1.85</v>
-      </c>
-      <c r="S380">
-        <v>1.95</v>
-      </c>
-      <c r="T380">
-        <v>2.5</v>
-      </c>
-      <c r="U380">
-        <v>1.9</v>
-      </c>
-      <c r="V380">
-        <v>1.9</v>
-      </c>
-      <c r="W380">
-        <v>0</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>0</v>
-      </c>
-      <c r="Z380">
-        <v>0</v>
-      </c>
-      <c r="AA380">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -30971,7 +30971,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30983,76 +30983,76 @@
         <v>45268.375</v>
       </c>
       <c r="F343" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K343">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M343">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N343">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P343">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q343">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R343">
+        <v>1.825</v>
+      </c>
+      <c r="S343">
+        <v>1.975</v>
+      </c>
+      <c r="T343">
+        <v>2.75</v>
+      </c>
+      <c r="U343">
+        <v>1.85</v>
+      </c>
+      <c r="V343">
         <v>1.95</v>
       </c>
-      <c r="S343">
-        <v>1.85</v>
-      </c>
-      <c r="T343">
-        <v>2.25</v>
-      </c>
-      <c r="U343">
-        <v>1.825</v>
-      </c>
-      <c r="V343">
-        <v>1.975</v>
-      </c>
       <c r="W343">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
+        <v>-1</v>
+      </c>
+      <c r="AA343">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
         <v>0.95</v>
-      </c>
-      <c r="AA343">
-        <v>-1</v>
-      </c>
-      <c r="AB343">
-        <v>-1</v>
-      </c>
-      <c r="AC343">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31060,7 +31060,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31072,76 +31072,76 @@
         <v>45268.375</v>
       </c>
       <c r="F344" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K344">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L344">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N344">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O344">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q344">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R344">
+        <v>1.95</v>
+      </c>
+      <c r="S344">
+        <v>1.85</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
         <v>1.825</v>
       </c>
-      <c r="S344">
+      <c r="V344">
         <v>1.975</v>
       </c>
-      <c r="T344">
-        <v>2.75</v>
-      </c>
-      <c r="U344">
-        <v>1.85</v>
-      </c>
-      <c r="V344">
-        <v>1.95</v>
-      </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X344">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
+        <v>-1</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+      <c r="AC344">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB344">
-        <v>-1</v>
-      </c>
-      <c r="AC344">
-        <v>0.95</v>
       </c>
     </row>
     <row r="345" spans="1:29">

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Persis Solo</t>
   </si>
   <si>
-    <t>Persib Bandung</t>
+    <t>Dewa United FC</t>
   </si>
   <si>
-    <t>Dewa United FC</t>
+    <t>Persib Bandung</t>
   </si>
   <si>
     <t>PS Barito Putera</t>
@@ -160,10 +160,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6843484</v>
+        <v>6843483</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6843483</v>
+        <v>6843484</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N5">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.95</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.6</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>3.3</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2.75</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>3.6</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>2.2</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.727</v>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>2.2</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>3.25</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6843499</v>
+        <v>6843500</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
+        <v>1.65</v>
+      </c>
+      <c r="L20">
+        <v>3.8</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>3.4</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>3.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
         <v>1.85</v>
-      </c>
-      <c r="N20">
-        <v>3.2</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>0.8</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6843500</v>
+        <v>6843499</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.8</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.95</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,11 +2414,11 @@
         <v>45121.375</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
       <c r="H22">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>1.85</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>45122.375</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2693,46 +2693,46 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
         <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O25">
         <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,16 +2741,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,10 +2770,10 @@
         <v>45122.375</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2782,64 +2782,64 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3.5</v>
       </c>
       <c r="M26">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
+        <v>1.8</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.875</v>
-      </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.444</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6843509</v>
+        <v>6843510</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
         <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB29">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6843510</v>
+        <v>6843509</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>48</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V30">
         <v>1.95</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>-0</v>
+      </c>
+      <c r="AB30">
+        <v>0.375</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AA30">
-        <v>0.4875</v>
-      </c>
-      <c r="AB30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>45128.375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.375</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>3.5</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
         <v>3.75</v>
       </c>
-      <c r="M34">
-        <v>4.25</v>
-      </c>
       <c r="N34">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,73 +3571,73 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K35">
+        <v>1.65</v>
+      </c>
+      <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
+        <v>4.25</v>
+      </c>
+      <c r="N35">
+        <v>1.444</v>
+      </c>
+      <c r="O35">
+        <v>4.2</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>1.85</v>
-      </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>3.75</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3.1</v>
-      </c>
-      <c r="P35">
-        <v>3.1</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.9</v>
-      </c>
-      <c r="S35">
-        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>1.5</v>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6843519</v>
+        <v>6843518</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,55 +3838,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N38">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O38">
         <v>3.4</v>
       </c>
       <c r="P38">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3898,16 +3898,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6843518</v>
+        <v>6843519</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="O39">
         <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
+        <v>1.8</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>1.975</v>
+      </c>
+      <c r="V39">
         <v>1.825</v>
-      </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.9</v>
-      </c>
-      <c r="V39">
-        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3987,16 +3987,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>2.6</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>1.571</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>2.2</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.615</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45141.375</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N49">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>1.3</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.833</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5799,7 +5799,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.625</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6843541</v>
+        <v>6843542</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,49 +5885,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5936,7 +5936,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>0.833</v>
+        <v>1.05</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5945,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6843542</v>
+        <v>6843541</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,49 +5974,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>4.2</v>
+      </c>
+      <c r="N62">
+        <v>1.833</v>
+      </c>
+      <c r="O62">
         <v>3.4</v>
       </c>
-      <c r="M62">
-        <v>3.4</v>
-      </c>
-      <c r="N62">
-        <v>2.05</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
         <v>1.925</v>
@@ -6025,7 +6025,7 @@
         <v>1.875</v>
       </c>
       <c r="W62">
-        <v>1.05</v>
+        <v>0.833</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,16 +6034,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
         <v>2.375</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>2.3</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>2.1</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>1.75</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>2.7</v>
@@ -6864,7 +6864,7 @@
         <v>45152.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.7</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,19 +7188,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O76">
         <v>3.4</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7312,7 +7312,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>2.05</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6843559</v>
+        <v>6843560</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,58 +7487,58 @@
         <v>45157.375</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7547,16 +7547,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6843560</v>
+        <v>6843559</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45157.375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.3</v>
@@ -7757,7 +7757,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>1.571</v>
@@ -8021,7 +8021,7 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>3.4</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.7</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>45164.375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>1.615</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>1.727</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6843575</v>
+        <v>6843576</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8867,31 +8867,31 @@
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6843576</v>
+        <v>6843575</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,40 +8911,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.85</v>
@@ -8956,31 +8956,31 @@
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2.3</v>
@@ -9181,7 +9181,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.7</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>3</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>1.8</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>1.727</v>
@@ -9534,7 +9534,7 @@
         <v>45184.375</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>45</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>1.615</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9801,7 +9801,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.444</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.1</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>1.444</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6843591</v>
+        <v>6843592</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,10 +10335,10 @@
         <v>45191.375</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10347,46 +10347,46 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
         <v>3.3</v>
       </c>
-      <c r="P111">
-        <v>3.2</v>
-      </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.925</v>
       </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
       <c r="W111">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,7 +10395,7 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10404,7 +10404,7 @@
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6843592</v>
+        <v>6843591</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,10 +10424,10 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,46 +10436,46 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
+        <v>3.25</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
         <v>3.3</v>
       </c>
-      <c r="M112">
-        <v>2.8</v>
-      </c>
-      <c r="N112">
-        <v>1.909</v>
-      </c>
-      <c r="O112">
-        <v>3.4</v>
-      </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.925</v>
+      </c>
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,7 +10484,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>1.65</v>
@@ -10694,7 +10694,7 @@
         <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.8</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>1.909</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>1.909</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.45</v>
@@ -11237,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.375</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843604</v>
+        <v>6843602</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,61 +11329,61 @@
         <v>48</v>
       </c>
       <c r="K122">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X122">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>0.4375</v>
+      </c>
+      <c r="AA122">
         <v>-0.5</v>
       </c>
-      <c r="AA122">
-        <v>0.4</v>
-      </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6843602</v>
+        <v>6843604</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,13 +11403,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11418,61 +11418,61 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N123">
+        <v>2.2</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
+        <v>2.8</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3.8</v>
-      </c>
-      <c r="Q123">
-        <v>-0.75</v>
-      </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
         <v>1.85</v>
       </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11504,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>2.4</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>1.833</v>
@@ -11759,7 +11759,7 @@
         <v>45200.375</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.571</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>2.6</v>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12115,7 +12115,7 @@
         <v>45205.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12127,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>1.8</v>
@@ -12207,7 +12207,7 @@
         <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.727</v>
@@ -12483,7 +12483,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>2.15</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>1.533</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>2.4</v>
@@ -12928,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13008,7 +13008,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
+        <v>1.6</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>4.333</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.3</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>4</v>
-      </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>2.625</v>
+      </c>
+      <c r="N143">
+        <v>2.5</v>
+      </c>
+      <c r="O143">
         <v>3.6</v>
       </c>
-      <c r="M143">
-        <v>4.2</v>
-      </c>
-      <c r="N143">
-        <v>1.6</v>
-      </c>
-      <c r="O143">
-        <v>3.75</v>
-      </c>
       <c r="P143">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>1.533</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>3.3</v>
@@ -13631,7 +13631,7 @@
         <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13640,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>1.533</v>
@@ -13717,7 +13717,7 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>38</v>
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>1.333</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.5</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>1.5</v>
@@ -14165,7 +14165,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>2.625</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45232.375</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>49</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>48</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>2.55</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>48</v>
       </c>
       <c r="K162">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N162">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O162">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q162">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X162">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M163">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N163">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P163">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
+        <v>1.825</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>1.6</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>1.666</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45239.375</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>48</v>
       </c>
       <c r="K167">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>1.444</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.5</v>
+      </c>
+      <c r="Q167">
+        <v>-1.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
         <v>3.25</v>
       </c>
-      <c r="M167">
-        <v>3.75</v>
-      </c>
-      <c r="N167">
-        <v>1.909</v>
-      </c>
-      <c r="O167">
-        <v>3.25</v>
-      </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.875</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X167">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45239.375</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>45242.375</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>2.05</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O172">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>1.444</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>5.75</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="N173">
-        <v>2.6</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
-      <c r="P173">
-        <v>2.5</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
-      <c r="S173">
-        <v>1.775</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16031,10 +16031,10 @@
         <v>45256.375</v>
       </c>
       <c r="F175" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
         <v>32</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>1.571</v>
@@ -16310,7 +16310,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.4</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K179">
         <v>1.5</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>3</v>
@@ -16568,7 +16568,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>1.909</v>
@@ -16666,7 +16666,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>2.3</v>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
         <v>1.444</v>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>1.5</v>
@@ -16933,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>1.4</v>
@@ -17010,7 +17010,7 @@
         <v>45264.375</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>1.6</v>
@@ -17099,7 +17099,7 @@
         <v>45268.20833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>2.9</v>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>2.5</v>
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>2.25</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>1.6</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.6</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>2.15</v>
@@ -17734,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>1.65</v>
@@ -17811,7 +17811,7 @@
         <v>45270.375</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
         <v>34</v>
@@ -17912,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2</v>
@@ -18090,7 +18090,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>1.8</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>1.533</v>
@@ -18259,7 +18259,7 @@
         <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18357,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
         <v>2.875</v>
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,58 +18434,58 @@
         <v>45277.375</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.825</v>
+      </c>
+      <c r="V202">
         <v>1.975</v>
       </c>
-      <c r="S202">
-        <v>1.825</v>
-      </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
       <c r="W202">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18494,16 +18494,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC202">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,58 +18523,58 @@
         <v>45277.375</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
+        <v>4.333</v>
+      </c>
+      <c r="N203">
+        <v>1.727</v>
+      </c>
+      <c r="O203">
+        <v>3.6</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
         <v>2.75</v>
       </c>
-      <c r="N203">
-        <v>2.1</v>
-      </c>
-      <c r="O203">
-        <v>3.4</v>
-      </c>
-      <c r="P203">
-        <v>2.875</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.875</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
       <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
         <v>1.825</v>
       </c>
-      <c r="V203">
-        <v>1.975</v>
-      </c>
       <c r="W203">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,16 +18583,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>2.15</v>
@@ -18704,7 +18704,7 @@
         <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
         <v>2.2</v>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>2.4</v>
@@ -18891,7 +18891,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6953296</v>
+        <v>7782795</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,49 +18968,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>49</v>
       </c>
       <c r="K208">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N208">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
         <v>1.85</v>
@@ -19019,19 +19019,19 @@
         <v>1.95</v>
       </c>
       <c r="W208">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB208">
         <v>0.8500000000000001</v>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.15</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7782795</v>
+        <v>6953296</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,49 +19146,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>48</v>
       </c>
       <c r="K210">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N210">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
         <v>1.85</v>
@@ -19197,19 +19197,19 @@
         <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>0.8500000000000001</v>
@@ -19247,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.727</v>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6953298</v>
+        <v>6953311</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19514,61 +19514,61 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N214">
+        <v>1.95</v>
+      </c>
+      <c r="O214">
+        <v>3.4</v>
+      </c>
+      <c r="P214">
+        <v>3.3</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
         <v>1.75</v>
       </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>3.75</v>
-      </c>
-      <c r="Q214">
+      <c r="S214">
+        <v>1.95</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
+        <v>1.975</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>2.4</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
         <v>-0.5</v>
       </c>
-      <c r="R214">
-        <v>1.8</v>
-      </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
-      <c r="U214">
-        <v>1.95</v>
-      </c>
-      <c r="V214">
-        <v>1.85</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>2.6</v>
-      </c>
-      <c r="Y214">
-        <v>-1</v>
-      </c>
-      <c r="Z214">
-        <v>-1</v>
-      </c>
       <c r="AA214">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB214">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6953311</v>
+        <v>6953298</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19603,61 +19603,61 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L215">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N215">
+        <v>1.75</v>
+      </c>
+      <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
+        <v>3.75</v>
+      </c>
+      <c r="Q215">
+        <v>-0.5</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
         <v>1.95</v>
       </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
-      <c r="P215">
-        <v>3.3</v>
-      </c>
-      <c r="Q215">
-        <v>-0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.75</v>
-      </c>
-      <c r="S215">
-        <v>1.95</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>1.825</v>
-      </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>1.727</v>
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6954183</v>
+        <v>6953300</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,55 +19769,55 @@
         <v>45344.20833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M217">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="N217">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O217">
         <v>3.6</v>
       </c>
       <c r="P217">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19826,16 +19826,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>3</v>
+        <v>0.571</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
       <c r="AB217">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6953300</v>
+        <v>6954183</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,55 +19858,55 @@
         <v>45344.20833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J218" t="s">
         <v>47</v>
       </c>
       <c r="K218">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L218">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N218">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O218">
         <v>3.6</v>
       </c>
       <c r="P218">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q218">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S218">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T218">
         <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19915,16 +19915,16 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.571</v>
+        <v>3</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AB218">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6953302</v>
+        <v>6953301</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,16 +19947,16 @@
         <v>45344.375</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
         <v>47</v>
@@ -19971,31 +19971,31 @@
         <v>3.25</v>
       </c>
       <c r="N219">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -20004,19 +20004,19 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6953301</v>
+        <v>6953302</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,16 +20036,16 @@
         <v>45344.375</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
@@ -20060,31 +20060,31 @@
         <v>3.25</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20093,19 +20093,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20137,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
         <v>2.2</v>
@@ -20217,7 +20217,7 @@
         <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>2.25</v>
@@ -20306,7 +20306,7 @@
         <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>3.75</v>
@@ -20404,7 +20404,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K224">
         <v>2.15</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K225">
         <v>2.2</v>
@@ -20575,6 +20575,15 @@
       <c r="G226" t="s">
         <v>37</v>
       </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>48</v>
+      </c>
       <c r="K226">
         <v>3.3</v>
       </c>
@@ -20585,46 +20594,52 @@
         <v>2</v>
       </c>
       <c r="N226">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P226">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q226">
         <v>0.25</v>
       </c>
       <c r="R226">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
+        <v>1.95</v>
+      </c>
+      <c r="V226">
         <v>1.85</v>
       </c>
-      <c r="V226">
-        <v>1.95</v>
-      </c>
       <c r="W226">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.95</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20649,6 +20664,15 @@
       <c r="G227" t="s">
         <v>46</v>
       </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
       <c r="K227">
         <v>1.4</v>
       </c>
@@ -20662,7 +20686,7 @@
         <v>1.5</v>
       </c>
       <c r="O227">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P227">
         <v>5</v>
@@ -20680,25 +20704,31 @@
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
         <v>0</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB227">
+        <v>0.8</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20723,6 +20753,15 @@
       <c r="G228" t="s">
         <v>45</v>
       </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>48</v>
+      </c>
       <c r="K228">
         <v>1.4</v>
       </c>
@@ -20733,46 +20772,52 @@
         <v>6.5</v>
       </c>
       <c r="N228">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O228">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P228">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q228">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>0.825</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20780,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6961425</v>
+        <v>6961424</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20792,46 +20837,46 @@
         <v>45349.20833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O229">
         <v>3.5</v>
       </c>
       <c r="P229">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q229">
         <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20854,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6961424</v>
+        <v>6961425</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20866,46 +20911,46 @@
         <v>45349.20833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K230">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
         <v>3.4</v>
       </c>
       <c r="M230">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N230">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O230">
         <v>3.5</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.825</v>
+      </c>
+      <c r="V230">
         <v>1.975</v>
-      </c>
-      <c r="V230">
-        <v>1.825</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20940,7 +20985,7 @@
         <v>45349.375</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
         <v>36</v>
@@ -20955,22 +21000,22 @@
         <v>3.1</v>
       </c>
       <c r="N231">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P231">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R231">
+        <v>1.95</v>
+      </c>
+      <c r="S231">
         <v>1.85</v>
-      </c>
-      <c r="S231">
-        <v>1.95</v>
       </c>
       <c r="T231">
         <v>2.75</v>
@@ -21029,31 +21074,31 @@
         <v>3.1</v>
       </c>
       <c r="N232">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21103,31 +21148,31 @@
         <v>4.333</v>
       </c>
       <c r="N233">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O233">
         <v>3.6</v>
       </c>
       <c r="P233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q233">
         <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21198,10 +21243,10 @@
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W234">
         <v>0</v>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>RANS Nusantara</t>
   </si>
   <si>
-    <t>PSIS Semarang</t>
+    <t>Persija Jakarta</t>
   </si>
   <si>
-    <t>Persija Jakarta</t>
+    <t>PSIS Semarang</t>
   </si>
   <si>
     <t>PSS Sleman</t>
@@ -142,19 +142,19 @@
     <t>Persebaya Surabaya</t>
   </si>
   <si>
-    <t>Persita Tangerang</t>
+    <t>Borneo FC</t>
   </si>
   <si>
-    <t>Borneo FC</t>
+    <t>Persita Tangerang</t>
   </si>
   <si>
     <t>Madura United</t>
   </si>
   <si>
-    <t>Bhayangkara Surabaya United</t>
+    <t>Persikabo 1973</t>
   </si>
   <si>
-    <t>Persikabo 1973</t>
+    <t>Bhayangkara Surabaya United</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6843489</v>
+        <v>6849109</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,46 +1260,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
         <v>1.875</v>
       </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
         <v>1.975</v>
@@ -1308,25 +1308,25 @@
         <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6849109</v>
+        <v>6843489</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,46 +1349,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
         <v>1.925</v>
       </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U10">
         <v>1.975</v>
@@ -1397,25 +1397,25 @@
         <v>1.825</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1836,13 +1836,13 @@
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,10 +1857,10 @@
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1925,13 +1925,13 @@
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1946,10 +1946,10 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA18">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>1.285</v>
+      </c>
+      <c r="L19">
+        <v>5.25</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>1.65</v>
+      </c>
+      <c r="O19">
+        <v>4.2</v>
+      </c>
+      <c r="P19">
+        <v>3.8</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>2.075</v>
+      </c>
+      <c r="S19">
+        <v>1.725</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>2.8</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>3.25</v>
-      </c>
-      <c r="L19">
-        <v>3.25</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="O19">
-        <v>3.4</v>
-      </c>
-      <c r="P19">
-        <v>1.727</v>
-      </c>
-      <c r="Q19">
-        <v>0.75</v>
-      </c>
-      <c r="R19">
-        <v>1.75</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.4</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.75</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6843500</v>
+        <v>6843499</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.8</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6843499</v>
+        <v>6843500</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
+        <v>1.65</v>
+      </c>
+      <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>1.909</v>
+      </c>
+      <c r="O21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>3.4</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>3.2</v>
+      </c>
+      <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
-      </c>
-      <c r="N21">
-        <v>3.2</v>
-      </c>
-      <c r="O21">
-        <v>3.3</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>0.8</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,40 +2503,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
         <v>1.775</v>
@@ -2545,34 +2545,34 @@
         <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,40 +2592,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
         <v>1.775</v>
@@ -2634,34 +2634,34 @@
         <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>45122.375</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2696,61 +2696,61 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>3.5</v>
       </c>
       <c r="M25">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
         <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
+        <v>1.8</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.875</v>
-      </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,10 +2770,10 @@
         <v>45122.375</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2785,43 +2785,43 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L26">
         <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2830,16 +2830,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -2948,10 +2948,10 @@
         <v>45123.375</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3040,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3126,7 +3126,7 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3393,10 +3393,10 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>1.65</v>
+      </c>
+      <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>4.25</v>
+      </c>
+      <c r="N34">
+        <v>1.444</v>
+      </c>
+      <c r="O34">
+        <v>4.2</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>-1.25</v>
+      </c>
+      <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
         <v>1.85</v>
-      </c>
-      <c r="L34">
-        <v>3.25</v>
-      </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3.1</v>
-      </c>
-      <c r="P34">
-        <v>3.1</v>
-      </c>
-      <c r="Q34">
-        <v>-0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.9</v>
-      </c>
-      <c r="S34">
-        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,73 +3571,73 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
         <v>3.75</v>
       </c>
-      <c r="M35">
-        <v>4.25</v>
-      </c>
       <c r="N35">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3838,10 +3838,10 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4194,7 +4194,7 @@
         <v>45136.375</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
         <v>40</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6990972</v>
+        <v>6843526</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45137.375</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z45">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
+        <v>0.8</v>
+      </c>
+      <c r="AB45">
+        <v>0.4</v>
+      </c>
+      <c r="AC45">
         <v>-0.5</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6843526</v>
+        <v>6990972</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45137.375</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4728,10 +4728,10 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5087,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>45142.375</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5354,7 +5354,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>45145.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -5618,7 +5618,7 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5707,7 +5707,7 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -5974,7 +5974,7 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>39</v>
@@ -6152,10 +6152,10 @@
         <v>45147.375</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6333,7 +6333,7 @@
         <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6843548</v>
+        <v>6843549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,49 +6508,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
         <v>1.8</v>
@@ -6559,25 +6559,25 @@
         <v>2</v>
       </c>
       <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>3.2</v>
+      </c>
+      <c r="Y68">
+        <v>-1</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.8</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
-      <c r="Z68">
-        <v>0.825</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>0.8</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6843549</v>
+        <v>6843548</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,49 +6597,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.8</v>
@@ -6648,25 +6648,25 @@
         <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.8</v>
       </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7055699</v>
+        <v>6843550</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6686,58 @@
         <v>45151.375</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>48</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N70">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6746,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6843550</v>
+        <v>7055699</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,58 +6775,58 @@
         <v>45151.375</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>48</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6835,16 +6835,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
         <v>38</v>
@@ -7220,10 +7220,10 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6843560</v>
+        <v>6843559</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,58 +7487,58 @@
         <v>45157.375</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>48</v>
       </c>
       <c r="K79">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7547,16 +7547,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6843559</v>
+        <v>6843560</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45157.375</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
       </c>
       <c r="K80">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
         <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7754,7 +7754,7 @@
         <v>45158.375</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7846,7 +7846,7 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>48</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>45170.20833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8733,7 +8733,7 @@
         <v>45170.375</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6843576</v>
+        <v>6843575</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8867,31 +8867,31 @@
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6843575</v>
+        <v>6843576</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,40 +8911,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.85</v>
@@ -8956,31 +8956,31 @@
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,7 +9000,7 @@
         <v>45171.375</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9092,7 +9092,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9178,7 +9178,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6843582</v>
+        <v>6843583</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,28 +9534,28 @@
         <v>45184.375</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N102">
         <v>1.727</v>
@@ -9564,7 +9564,7 @@
         <v>3.75</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
         <v>-0.75</v>
@@ -9576,7 +9576,7 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1.925</v>
@@ -9588,10 +9588,10 @@
         <v>-1</v>
       </c>
       <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>2.75</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6843583</v>
+        <v>6843582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,28 +9623,28 @@
         <v>45184.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K103">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N103">
         <v>1.727</v>
@@ -9653,7 +9653,7 @@
         <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
@@ -9665,7 +9665,7 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.925</v>
@@ -9677,10 +9677,10 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9893,7 +9893,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6843589</v>
+        <v>6843588</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45186.375</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>47</v>
+      </c>
+      <c r="K108">
+        <v>2.4</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+      <c r="N108">
+        <v>2.7</v>
+      </c>
+      <c r="O108">
+        <v>3.25</v>
+      </c>
+      <c r="P108">
+        <v>2.25</v>
+      </c>
+      <c r="Q108">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>48</v>
-      </c>
-      <c r="K108">
-        <v>1.444</v>
-      </c>
-      <c r="L108">
-        <v>4.2</v>
-      </c>
-      <c r="M108">
-        <v>5.5</v>
-      </c>
-      <c r="N108">
-        <v>1.5</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
-      <c r="P108">
-        <v>5</v>
-      </c>
-      <c r="Q108">
-        <v>-1</v>
-      </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6843588</v>
+        <v>6843589</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45186.375</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q109">
+        <v>-1</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
+        <v>1.975</v>
+      </c>
+      <c r="W109">
+        <v>0.5</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>0</v>
       </c>
-      <c r="R109">
-        <v>2.075</v>
-      </c>
-      <c r="S109">
-        <v>1.725</v>
-      </c>
-      <c r="T109">
-        <v>2.25</v>
-      </c>
-      <c r="U109">
-        <v>1.9</v>
-      </c>
-      <c r="V109">
-        <v>1.9</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>1.25</v>
-      </c>
-      <c r="Z109">
-        <v>-1</v>
-      </c>
       <c r="AA109">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>45191.375</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>33</v>
@@ -10424,7 +10424,7 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6843594</v>
+        <v>6843593</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,73 +10513,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N113">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6843593</v>
+        <v>6843594</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>3</v>
       </c>
-      <c r="I114">
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114">
+        <v>2.6</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>2.45</v>
+      </c>
+      <c r="N114">
+        <v>2.4</v>
+      </c>
+      <c r="O114">
+        <v>3.1</v>
+      </c>
+      <c r="P114">
+        <v>2.7</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.9</v>
+      </c>
+      <c r="V114">
+        <v>1.9</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>1.7</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1</v>
       </c>
-      <c r="J114" t="s">
-        <v>48</v>
-      </c>
-      <c r="K114">
-        <v>1.65</v>
-      </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
-      <c r="M114">
-        <v>4.2</v>
-      </c>
-      <c r="N114">
-        <v>1.571</v>
-      </c>
-      <c r="O114">
-        <v>4</v>
-      </c>
-      <c r="P114">
-        <v>4.5</v>
-      </c>
-      <c r="Q114">
-        <v>-1</v>
-      </c>
-      <c r="R114">
-        <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
-      <c r="W114">
-        <v>0.571</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.95</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10691,7 +10691,7 @@
         <v>45192.375</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10869,7 +10869,7 @@
         <v>45193.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -10958,7 +10958,7 @@
         <v>45194.375</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
         <v>40</v>
@@ -11139,7 +11139,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6843605</v>
+        <v>6843602</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,10 +11225,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11240,43 +11240,43 @@
         <v>48</v>
       </c>
       <c r="K121">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
+        <v>3.2</v>
+      </c>
+      <c r="M121">
+        <v>3.1</v>
+      </c>
+      <c r="N121">
+        <v>1.8</v>
+      </c>
+      <c r="O121">
         <v>3.3</v>
       </c>
-      <c r="M121">
-        <v>2.55</v>
-      </c>
-      <c r="N121">
-        <v>2.2</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11285,13 +11285,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843602</v>
+        <v>6843604</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N122">
+        <v>2.2</v>
+      </c>
+      <c r="O122">
+        <v>3.2</v>
+      </c>
+      <c r="P122">
+        <v>2.8</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
         <v>1.8</v>
       </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3.8</v>
-      </c>
-      <c r="Q122">
-        <v>-0.75</v>
-      </c>
-      <c r="R122">
-        <v>1.875</v>
-      </c>
-      <c r="S122">
-        <v>1.925</v>
-      </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6843604</v>
+        <v>6843605</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,28 +11403,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
         <v>2.2</v>
@@ -11433,46 +11433,46 @@
         <v>3.2</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
+        <v>1.775</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X123">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -11848,7 +11848,7 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -11940,7 +11940,7 @@
         <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12029,7 +12029,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>45206.375</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12471,7 +12471,7 @@
         <v>45207.375</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12560,7 +12560,7 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12649,10 +12649,10 @@
         <v>45219.20833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,55 +12827,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
         <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
         <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,55 +12916,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>45220.375</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
         <v>32</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>4</v>
-      </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>2.625</v>
+      </c>
+      <c r="N142">
+        <v>2.5</v>
+      </c>
+      <c r="O142">
         <v>3.6</v>
       </c>
-      <c r="M142">
-        <v>4.2</v>
-      </c>
-      <c r="N142">
-        <v>1.6</v>
-      </c>
-      <c r="O142">
-        <v>3.75</v>
-      </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.825</v>
-      </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
+        <v>1.6</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.333</v>
+      </c>
+      <c r="Q143">
+        <v>-0.75</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
         <v>2.5</v>
       </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>2.3</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>45221.375</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13453,7 +13453,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6843631</v>
+        <v>6843629</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,13 +13628,13 @@
         <v>45227.375</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -13643,43 +13643,43 @@
         <v>48</v>
       </c>
       <c r="K148">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M148">
+        <v>6.5</v>
+      </c>
+      <c r="N148">
+        <v>1.363</v>
+      </c>
+      <c r="O148">
         <v>4.75</v>
       </c>
-      <c r="N148">
-        <v>1.65</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6843629</v>
+        <v>6843631</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -13732,43 +13732,43 @@
         <v>48</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
         <v>4.75</v>
       </c>
-      <c r="M149">
-        <v>6.5</v>
-      </c>
       <c r="N149">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13809,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13895,10 +13895,10 @@
         <v>45228.375</v>
       </c>
       <c r="F151" t="s">
+        <v>37</v>
+      </c>
+      <c r="G151" t="s">
         <v>36</v>
-      </c>
-      <c r="G151" t="s">
-        <v>37</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14076,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45232.375</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N157">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>45234.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14785,7 +14785,7 @@
         <v>45234.375</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -15230,10 +15230,10 @@
         <v>45239.20833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45239.375</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P167">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45239.375</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>45</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.444</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>5.5</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>3.25</v>
       </c>
-      <c r="M168">
-        <v>3.75</v>
-      </c>
-      <c r="N168">
-        <v>1.909</v>
-      </c>
-      <c r="O168">
-        <v>3.25</v>
-      </c>
-      <c r="P168">
-        <v>3.75</v>
-      </c>
-      <c r="Q168">
-        <v>-0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.925</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X168">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6954162</v>
+        <v>6953273</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45242.375</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L169">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N169">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O169">
         <v>3.1</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
         <v>1.975</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB169">
+        <v>0.475</v>
+      </c>
+      <c r="AC169">
         <v>-0.5</v>
-      </c>
-      <c r="AA169">
-        <v>0.4875</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
-      <c r="AC169">
-        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6953273</v>
+        <v>6954162</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45242.375</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L170">
+        <v>3.1</v>
+      </c>
+      <c r="M170">
         <v>3.25</v>
       </c>
-      <c r="M170">
-        <v>2.9</v>
-      </c>
       <c r="N170">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O170">
         <v>3.1</v>
       </c>
       <c r="P170">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S170">
         <v>1.975</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y170">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB170">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>48</v>
       </c>
       <c r="K172">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>1.444</v>
+      </c>
+      <c r="O172">
+        <v>4.5</v>
+      </c>
+      <c r="P172">
+        <v>5.75</v>
+      </c>
+      <c r="Q172">
+        <v>-1.25</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.925</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="N172">
-        <v>2.6</v>
-      </c>
-      <c r="O172">
-        <v>3.2</v>
-      </c>
-      <c r="P172">
-        <v>2.5</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>2.025</v>
-      </c>
-      <c r="S172">
-        <v>1.775</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7523339</v>
+        <v>6953277</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45257.375</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N177">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6953277</v>
+        <v>7523339</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,76 +16298,76 @@
         <v>45257.375</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N178">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
         <v>1.85</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X178">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16654,10 +16654,10 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>45</v>
+      </c>
+      <c r="G182" t="s">
         <v>46</v>
-      </c>
-      <c r="G182" t="s">
-        <v>45</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16743,7 +16743,7 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16832,10 +16832,10 @@
         <v>45263.375</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45268.375</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M188">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
         <v>1.95</v>
       </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
       <c r="W188">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.95</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
-      <c r="AC188">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45268.375</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N189">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.85</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
         <v>1.825</v>
       </c>
-      <c r="S189">
+      <c r="V189">
         <v>1.975</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>1.95</v>
-      </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X189">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB189">
-        <v>-1</v>
-      </c>
-      <c r="AC189">
-        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,10 +17455,10 @@
         <v>45269.375</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17722,10 +17722,10 @@
         <v>45270.375</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17992,7 +17992,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
         <v>44</v>
@@ -18167,7 +18167,7 @@
         <v>45276.375</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
         <v>38</v>
@@ -18345,7 +18345,7 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,13 +18434,13 @@
         <v>45277.375</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -18449,43 +18449,43 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
+        <v>4.333</v>
+      </c>
+      <c r="N202">
+        <v>1.727</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>4</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
         <v>2.75</v>
       </c>
-      <c r="N202">
-        <v>2.1</v>
-      </c>
-      <c r="O202">
-        <v>3.4</v>
-      </c>
-      <c r="P202">
-        <v>2.875</v>
-      </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
       <c r="U202">
+        <v>1.975</v>
+      </c>
+      <c r="V202">
         <v>1.825</v>
       </c>
-      <c r="V202">
-        <v>1.975</v>
-      </c>
       <c r="W202">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18494,16 +18494,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.825</v>
-      </c>
-      <c r="AC202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45277.375</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18538,43 +18538,43 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
+        <v>1.925</v>
+      </c>
+      <c r="S203">
+        <v>1.875</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
         <v>1.975</v>
       </c>
-      <c r="S203">
-        <v>1.825</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>1.825</v>
-      </c>
       <c r="W203">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,16 +18583,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7782795</v>
+        <v>6953296</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,49 +18968,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K208">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N208">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
         <v>1.85</v>
@@ -19019,19 +19019,19 @@
         <v>1.95</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>0.8500000000000001</v>
@@ -19060,7 +19060,7 @@
         <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6953296</v>
+        <v>7782795</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,49 +19146,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
         <v>1.85</v>
@@ -19197,19 +19197,19 @@
         <v>1.95</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB210">
         <v>0.8500000000000001</v>
@@ -19238,7 +19238,7 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6953311</v>
+        <v>6953298</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19517,58 +19517,58 @@
         <v>49</v>
       </c>
       <c r="K214">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>3.75</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
         <v>1.95</v>
       </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
-      <c r="P214">
-        <v>3.3</v>
-      </c>
-      <c r="Q214">
-        <v>-0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.75</v>
-      </c>
-      <c r="S214">
-        <v>1.95</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.825</v>
-      </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6953298</v>
+        <v>6953311</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19606,58 +19606,58 @@
         <v>49</v>
       </c>
       <c r="K215">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N215">
+        <v>1.95</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>3.3</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
         <v>1.75</v>
       </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>3.75</v>
-      </c>
-      <c r="Q215">
+      <c r="S215">
+        <v>1.95</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
+        <v>1.975</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>2.4</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
         <v>-0.5</v>
       </c>
-      <c r="R215">
-        <v>1.8</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>2.6</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
       <c r="AA215">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB215">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45328.375</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -19769,10 +19769,10 @@
         <v>45344.20833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -19858,7 +19858,7 @@
         <v>45344.20833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G218" t="s">
         <v>38</v>
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6953301</v>
+        <v>6953302</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,16 +19947,16 @@
         <v>45344.375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
         <v>47</v>
@@ -19971,31 +19971,31 @@
         <v>3.25</v>
       </c>
       <c r="N219">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -20004,19 +20004,19 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6953302</v>
+        <v>6953301</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,16 +20036,16 @@
         <v>45344.375</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
@@ -20060,31 +20060,31 @@
         <v>3.25</v>
       </c>
       <c r="N220">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20093,19 +20093,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6953303</v>
+        <v>6954166</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,10 +20125,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20140,19 +20140,19 @@
         <v>49</v>
       </c>
       <c r="K221">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N221">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
         <v>3</v>
@@ -20161,25 +20161,25 @@
         <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20188,13 +20188,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6954166</v>
+        <v>6953303</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,10 +20214,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20229,19 +20229,19 @@
         <v>49</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P222">
         <v>3</v>
@@ -20250,25 +20250,25 @@
         <v>-0.25</v>
       </c>
       <c r="R222">
+        <v>2.025</v>
+      </c>
+      <c r="S222">
+        <v>1.775</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
         <v>1.8</v>
       </c>
-      <c r="S222">
-        <v>2</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20277,13 +20277,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA222">
+        <v>0.3875</v>
+      </c>
+      <c r="AB222">
+        <v>-0.5</v>
+      </c>
+      <c r="AC222">
         <v>0.5</v>
-      </c>
-      <c r="AB222">
-        <v>-1</v>
-      </c>
-      <c r="AC222">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6961433</v>
+        <v>6961422</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,16 +20659,16 @@
         <v>45348.375</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
         <v>46</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
         <v>48</v>
@@ -20683,7 +20683,7 @@
         <v>6.5</v>
       </c>
       <c r="N227">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O227">
         <v>4</v>
@@ -20695,22 +20695,22 @@
         <v>-1</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20719,13 +20719,13 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6961422</v>
+        <v>6961433</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,16 +20748,16 @@
         <v>45348.375</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>48</v>
@@ -20772,7 +20772,7 @@
         <v>6.5</v>
       </c>
       <c r="N228">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O228">
         <v>4</v>
@@ -20784,22 +20784,22 @@
         <v>-1</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W228">
-        <v>0.5329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20808,13 +20808,13 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20842,6 +20842,15 @@
       <c r="G229" t="s">
         <v>35</v>
       </c>
+      <c r="H229">
+        <v>5</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>48</v>
+      </c>
       <c r="K229">
         <v>2</v>
       </c>
@@ -20852,46 +20861,52 @@
         <v>3.2</v>
       </c>
       <c r="N229">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.825</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20929,16 @@
         <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+      <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" t="s">
+        <v>49</v>
       </c>
       <c r="K230">
         <v>2.1</v>
@@ -20938,34 +20962,40 @@
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB230">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +21018,16 @@
         <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -21000,46 +21039,52 @@
         <v>3.1</v>
       </c>
       <c r="N231">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O231">
+        <v>3.75</v>
+      </c>
+      <c r="P231">
         <v>4</v>
       </c>
-      <c r="P231">
-        <v>4.75</v>
-      </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>0.45</v>
+      </c>
+      <c r="AC231">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21064,6 +21109,15 @@
       <c r="G232" t="s">
         <v>33</v>
       </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>48</v>
+      </c>
       <c r="K232">
         <v>2.1</v>
       </c>
@@ -21074,46 +21128,52 @@
         <v>3.1</v>
       </c>
       <c r="N232">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
         <v>3.5</v>
       </c>
       <c r="P232">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q232">
         <v>-0.5</v>
       </c>
       <c r="R232">
+        <v>1.975</v>
+      </c>
+      <c r="S232">
         <v>1.825</v>
-      </c>
-      <c r="S232">
-        <v>1.975</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>0.95</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21138,6 +21198,15 @@
       <c r="G233" t="s">
         <v>41</v>
       </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>49</v>
+      </c>
       <c r="K233">
         <v>1.7</v>
       </c>
@@ -21148,46 +21217,52 @@
         <v>4.333</v>
       </c>
       <c r="N233">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21225,28 +21300,28 @@
         <v>1.6</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
         <v>-1</v>
       </c>
       <c r="R234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21261,6 +21336,80 @@
         <v>0</v>
       </c>
       <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6962311</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45352.20833333334</v>
+      </c>
+      <c r="F235" t="s">
+        <v>45</v>
+      </c>
+      <c r="G235" t="s">
+        <v>39</v>
+      </c>
+      <c r="K235">
+        <v>2.3</v>
+      </c>
+      <c r="L235">
+        <v>3.6</v>
+      </c>
+      <c r="M235">
+        <v>2.5</v>
+      </c>
+      <c r="N235">
+        <v>2.375</v>
+      </c>
+      <c r="O235">
+        <v>3.6</v>
+      </c>
+      <c r="P235">
+        <v>2.4</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>1.825</v>
+      </c>
+      <c r="S235">
+        <v>1.975</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.925</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>RANS Nusantara</t>
   </si>
   <si>
-    <t>Persija Jakarta</t>
+    <t>PSIS Semarang</t>
   </si>
   <si>
-    <t>PSIS Semarang</t>
+    <t>Persija Jakarta</t>
   </si>
   <si>
     <t>PSS Sleman</t>
@@ -136,25 +136,25 @@
     <t>Arema FC</t>
   </si>
   <si>
+    <t>Persebaya Surabaya</t>
+  </si>
+  <si>
     <t>PSM Makassar</t>
   </si>
   <si>
-    <t>Persebaya Surabaya</t>
+    <t>Persita Tangerang</t>
   </si>
   <si>
     <t>Borneo FC</t>
   </si>
   <si>
-    <t>Persita Tangerang</t>
-  </si>
-  <si>
     <t>Madura United</t>
   </si>
   <si>
-    <t>Persikabo 1973</t>
+    <t>Bhayangkara Surabaya United</t>
   </si>
   <si>
-    <t>Bhayangkara Surabaya United</t>
+    <t>Persikabo 1973</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6849109</v>
+        <v>6843489</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,46 +1260,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
         <v>1.925</v>
       </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>1.975</v>
@@ -1308,25 +1308,25 @@
         <v>1.825</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6843489</v>
+        <v>6849109</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,46 +1349,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
         <v>1.875</v>
       </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.975</v>
@@ -1397,25 +1397,25 @@
         <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6843492</v>
+        <v>6843493</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O13">
+        <v>3.75</v>
+      </c>
+      <c r="P13">
         <v>4.333</v>
       </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y13">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6843493</v>
+        <v>6843492</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1836,13 +1836,13 @@
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,10 +1857,10 @@
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1925,13 +1925,13 @@
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1946,10 +1946,10 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18">
+        <v>1.285</v>
+      </c>
+      <c r="L18">
+        <v>5.25</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1.65</v>
+      </c>
+      <c r="O18">
+        <v>4.2</v>
+      </c>
+      <c r="P18">
+        <v>3.8</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>2.075</v>
+      </c>
+      <c r="S18">
+        <v>1.725</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
+        <v>1.875</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>2.8</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>3.25</v>
-      </c>
-      <c r="L18">
-        <v>3.25</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>3.4</v>
-      </c>
-      <c r="P18">
-        <v>1.727</v>
-      </c>
-      <c r="Q18">
-        <v>0.75</v>
-      </c>
-      <c r="R18">
-        <v>1.75</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.9</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>2.4</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.75</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L19">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y19">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,10 +2236,10 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2859,10 +2859,10 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2948,10 +2948,10 @@
         <v>45123.375</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3040,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3126,7 +3126,7 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45128.375</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
+        <v>3.5</v>
+      </c>
+      <c r="P31">
+        <v>1.75</v>
+      </c>
+      <c r="Q31">
+        <v>0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="P31">
-        <v>2.625</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1.9</v>
-      </c>
-      <c r="S31">
-        <v>1.9</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45128.375</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.975</v>
-      </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,10 +3393,10 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
         <v>3.75</v>
       </c>
-      <c r="M34">
-        <v>4.25</v>
-      </c>
       <c r="N34">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,73 +3571,73 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
+        <v>1.65</v>
+      </c>
+      <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
+        <v>4.25</v>
+      </c>
+      <c r="N35">
+        <v>1.444</v>
+      </c>
+      <c r="O35">
+        <v>4.2</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>1.85</v>
-      </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>3.75</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3.1</v>
-      </c>
-      <c r="P35">
-        <v>3.1</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.9</v>
-      </c>
-      <c r="S35">
-        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3660,7 +3660,7 @@
         <v>45130.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3838,10 +3838,10 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4194,10 +4194,10 @@
         <v>45136.375</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6843526</v>
+        <v>6990972</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45137.375</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6990972</v>
+        <v>6843526</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45137.375</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z46">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
+        <v>0.8</v>
+      </c>
+      <c r="AB46">
+        <v>0.4</v>
+      </c>
+      <c r="AC46">
         <v>-0.5</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45141.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4728,10 +4728,10 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
         <v>1.925</v>
@@ -4951,31 +4951,31 @@
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.875</v>
+      </c>
+      <c r="AB50">
+        <v>0.4375</v>
+      </c>
+      <c r="AC50">
         <v>-0.5</v>
-      </c>
-      <c r="AA50">
-        <v>0.4375</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5040,31 +5040,31 @@
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB51">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5087,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>45142.375</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5354,7 +5354,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5440,10 +5440,10 @@
         <v>45145.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6843538</v>
+        <v>7030759</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,13 +5621,13 @@
         <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
@@ -5642,10 +5642,10 @@
         <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7030759</v>
+        <v>6843538</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,13 +5710,13 @@
         <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
@@ -5731,10 +5731,10 @@
         <v>2.9</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6843542</v>
+        <v>6843541</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,49 +5885,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
+        <v>4.2</v>
+      </c>
+      <c r="N61">
+        <v>1.833</v>
+      </c>
+      <c r="O61">
         <v>3.4</v>
       </c>
-      <c r="M61">
-        <v>3.4</v>
-      </c>
-      <c r="N61">
-        <v>2.05</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
       <c r="P61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5936,7 +5936,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>1.05</v>
+        <v>0.833</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5945,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6843541</v>
+        <v>6843542</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,49 +5974,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
         <v>1.925</v>
@@ -6025,7 +6025,7 @@
         <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.833</v>
+        <v>1.05</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,16 +6034,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6152,10 +6152,10 @@
         <v>45147.375</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6330,10 +6330,10 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6600,7 +6600,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6843550</v>
+        <v>7055699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6686,58 @@
         <v>45151.375</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>48</v>
       </c>
       <c r="K70">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6746,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7055699</v>
+        <v>6843550</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,58 +6775,58 @@
         <v>45151.375</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>48</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N71">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6835,16 +6835,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7042,10 +7042,10 @@
         <v>45156.20833333334</v>
       </c>
       <c r="F74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s">
         <v>41</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s">
         <v>43</v>
       </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N75">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,19 +7188,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O76">
         <v>3.4</v>
       </c>
       <c r="P76">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7665,7 +7665,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7754,7 +7754,7 @@
         <v>45158.375</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6843564</v>
+        <v>6843563</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,61 +7843,61 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>49</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N83">
+        <v>1.6</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>-1</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>2.75</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>4</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -7906,13 +7906,13 @@
         <v>-1</v>
       </c>
       <c r="AA83">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6843563</v>
+        <v>6843564</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,62 +7932,62 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>49</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
+        <v>3.75</v>
+      </c>
+      <c r="P84">
         <v>4</v>
       </c>
-      <c r="P84">
-        <v>5</v>
-      </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
-      <c r="T84">
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.75</v>
       </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>3</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
@@ -7995,13 +7995,13 @@
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>48</v>
       </c>
       <c r="K86">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>45166.375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8644,7 +8644,7 @@
         <v>45170.20833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8733,7 +8733,7 @@
         <v>45170.375</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8822,7 +8822,7 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -9000,7 +9000,7 @@
         <v>45171.375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6843578</v>
+        <v>6843572</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
+        <v>2.7</v>
+      </c>
+      <c r="L97">
+        <v>3.25</v>
+      </c>
+      <c r="M97">
         <v>2.3</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>3.4</v>
-      </c>
-      <c r="M97">
-        <v>2.6</v>
-      </c>
-      <c r="N97">
-        <v>2.3</v>
       </c>
       <c r="O97">
         <v>3.4</v>
       </c>
       <c r="P97">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6843572</v>
+        <v>6843578</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
+        <v>2.6</v>
+      </c>
+      <c r="N98">
         <v>2.3</v>
-      </c>
-      <c r="N98">
-        <v>3.4</v>
       </c>
       <c r="O98">
         <v>3.4</v>
       </c>
       <c r="P98">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>45184.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6843583</v>
+        <v>6843582</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,28 +9534,28 @@
         <v>45184.375</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
         <v>1.727</v>
@@ -9564,7 +9564,7 @@
         <v>3.75</v>
       </c>
       <c r="P102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q102">
         <v>-0.75</v>
@@ -9576,7 +9576,7 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
         <v>1.925</v>
@@ -9588,10 +9588,10 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y102">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6843582</v>
+        <v>6843583</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,28 +9623,28 @@
         <v>45184.375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L103">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
         <v>1.727</v>
@@ -9653,7 +9653,7 @@
         <v>3.75</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
@@ -9665,7 +9665,7 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U103">
         <v>1.925</v>
@@ -9677,10 +9677,10 @@
         <v>-1</v>
       </c>
       <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
         <v>2.75</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9893,7 +9893,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9982,7 +9982,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6843588</v>
+        <v>6843589</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45186.375</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N108">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q108">
+        <v>-1</v>
+      </c>
+      <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
+        <v>1.95</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
+        <v>1.975</v>
+      </c>
+      <c r="W108">
+        <v>0.5</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
         <v>0</v>
       </c>
-      <c r="R108">
-        <v>2.075</v>
-      </c>
-      <c r="S108">
-        <v>1.725</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>1.9</v>
-      </c>
-      <c r="V108">
-        <v>1.9</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>1.25</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6843589</v>
+        <v>6843588</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45186.375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
+        <v>2.4</v>
+      </c>
+      <c r="L109">
+        <v>3.4</v>
+      </c>
+      <c r="M109">
+        <v>2.5</v>
+      </c>
+      <c r="N109">
+        <v>2.7</v>
+      </c>
+      <c r="O109">
+        <v>3.25</v>
+      </c>
+      <c r="P109">
+        <v>2.25</v>
+      </c>
+      <c r="Q109">
         <v>0</v>
       </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.444</v>
-      </c>
-      <c r="L109">
-        <v>4.2</v>
-      </c>
-      <c r="M109">
-        <v>5.5</v>
-      </c>
-      <c r="N109">
-        <v>1.5</v>
-      </c>
-      <c r="O109">
-        <v>4.2</v>
-      </c>
-      <c r="P109">
-        <v>5</v>
-      </c>
-      <c r="Q109">
-        <v>-1</v>
-      </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>45191.375</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>33</v>
@@ -10424,7 +10424,7 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10513,7 +10513,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>39</v>
@@ -10602,7 +10602,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10691,7 +10691,7 @@
         <v>45192.375</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10869,7 +10869,7 @@
         <v>45193.375</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -10958,10 +10958,10 @@
         <v>45194.375</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11139,7 +11139,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6843602</v>
+        <v>6843604</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L121">
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N121">
+        <v>2.2</v>
+      </c>
+      <c r="O121">
+        <v>3.2</v>
+      </c>
+      <c r="P121">
+        <v>2.8</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
         <v>1.8</v>
       </c>
-      <c r="O121">
-        <v>3.3</v>
-      </c>
-      <c r="P121">
-        <v>3.8</v>
-      </c>
-      <c r="Q121">
-        <v>-0.75</v>
-      </c>
-      <c r="R121">
-        <v>1.875</v>
-      </c>
-      <c r="S121">
-        <v>1.925</v>
-      </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC121">
-        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843604</v>
+        <v>6843605</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,28 +11314,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N122">
         <v>2.2</v>
@@ -11344,46 +11344,46 @@
         <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
+        <v>1.775</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6843605</v>
+        <v>6843602</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11403,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11418,43 +11418,43 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
+        <v>3.2</v>
+      </c>
+      <c r="M123">
+        <v>3.1</v>
+      </c>
+      <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
         <v>3.3</v>
       </c>
-      <c r="M123">
-        <v>2.55</v>
-      </c>
-      <c r="N123">
-        <v>2.2</v>
-      </c>
-      <c r="O123">
-        <v>3.2</v>
-      </c>
       <c r="P123">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,13 +11463,13 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6843607</v>
+        <v>6843606</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45199.375</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
+        <v>1.775</v>
+      </c>
+      <c r="V124">
         <v>1.925</v>
       </c>
-      <c r="V124">
-        <v>1.875</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.925</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6843606</v>
+        <v>6843607</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45199.375</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -11848,7 +11848,7 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -11940,7 +11940,7 @@
         <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6843610</v>
+        <v>6843611</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45205.375</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6843611</v>
+        <v>6843610</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45205.375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
+        <v>1.727</v>
+      </c>
+      <c r="N131">
         <v>3.75</v>
       </c>
-      <c r="N131">
-        <v>1.55</v>
-      </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>32</v>
@@ -12293,7 +12293,7 @@
         <v>45206.375</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12382,7 +12382,7 @@
         <v>45207.20833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12471,7 +12471,7 @@
         <v>45207.375</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12560,7 +12560,7 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12649,10 +12649,10 @@
         <v>45219.20833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>45219.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,55 +12827,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L139">
         <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O139">
         <v>3.4</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,55 +12916,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>45220.375</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
         <v>32</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
+        <v>1.6</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>4.333</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.3</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>4</v>
-      </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>2.625</v>
+      </c>
+      <c r="N143">
+        <v>2.5</v>
+      </c>
+      <c r="O143">
         <v>3.6</v>
       </c>
-      <c r="M143">
-        <v>4.2</v>
-      </c>
-      <c r="N143">
-        <v>1.6</v>
-      </c>
-      <c r="O143">
-        <v>3.75</v>
-      </c>
       <c r="P143">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>45221.375</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13364,7 +13364,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13453,7 +13453,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13809,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13895,10 +13895,10 @@
         <v>45228.375</v>
       </c>
       <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
         <v>37</v>
-      </c>
-      <c r="G151" t="s">
-        <v>36</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13987,7 +13987,7 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45232.375</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14607,10 +14607,10 @@
         <v>45233.375</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>45234.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14785,7 +14785,7 @@
         <v>45234.375</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P162">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="S162">
-        <v>1.825</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.9</v>
-      </c>
-      <c r="V162">
-        <v>1.9</v>
-      </c>
       <c r="W162">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N163">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O163">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q163">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X163">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15144,7 +15144,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15230,10 +15230,10 @@
         <v>45239.20833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45239.375</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>1.444</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.5</v>
+      </c>
+      <c r="Q167">
+        <v>-1.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
         <v>3.25</v>
       </c>
-      <c r="M167">
-        <v>3.75</v>
-      </c>
-      <c r="N167">
-        <v>1.909</v>
-      </c>
-      <c r="O167">
-        <v>3.25</v>
-      </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.875</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X167">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45239.375</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>45</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>48</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O172">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>48</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>1.444</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>5.75</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="N173">
-        <v>2.6</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
-      <c r="P173">
-        <v>2.5</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
-      <c r="S173">
-        <v>1.775</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16209,10 +16209,10 @@
         <v>45257.375</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>45257.375</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>30</v>
@@ -16390,7 +16390,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16479,7 +16479,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16654,10 +16654,10 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>46</v>
+      </c>
+      <c r="G182" t="s">
         <v>45</v>
-      </c>
-      <c r="G182" t="s">
-        <v>46</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16743,7 +16743,7 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16832,10 +16832,10 @@
         <v>45263.375</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45268.375</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N188">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
         <v>1.825</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.85</v>
-      </c>
-      <c r="V188">
-        <v>1.95</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X188">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
-      <c r="AC188">
-        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45268.375</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L189">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M189">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
+        <v>1.975</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
         <v>1.95</v>
       </c>
-      <c r="S189">
-        <v>1.85</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.825</v>
-      </c>
-      <c r="V189">
-        <v>1.975</v>
-      </c>
       <c r="W189">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.95</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>-1</v>
-      </c>
-      <c r="AC189">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,10 +17366,10 @@
         <v>45269.20833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6953286</v>
+        <v>6953285</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,58 +17455,58 @@
         <v>45269.375</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>48</v>
       </c>
       <c r="K191">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N191">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P191">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6953285</v>
+        <v>6953286</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,58 +17544,58 @@
         <v>45269.375</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N192">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>1.7</v>
+        <v>0.571</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17604,16 +17604,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6953287</v>
+        <v>6954177</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45270.375</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
         <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P194">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z194">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6954177</v>
+        <v>6953287</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45270.375</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
         <v>4.5</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>45273.33333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N197">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>45276.375</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
         <v>38</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6953289</v>
+        <v>6953293</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,46 +18256,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K200">
+        <v>2.875</v>
+      </c>
+      <c r="L200">
+        <v>3.5</v>
+      </c>
+      <c r="M200">
         <v>2.1</v>
       </c>
-      <c r="L200">
-        <v>3.2</v>
-      </c>
-      <c r="M200">
-        <v>3.1</v>
-      </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O200">
         <v>3.5</v>
       </c>
       <c r="P200">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.75</v>
@@ -18310,22 +18310,22 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y200">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.825</v>
-      </c>
-      <c r="AB200">
-        <v>0.4875</v>
-      </c>
-      <c r="AC200">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6953293</v>
+        <v>6953289</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,46 +18345,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N201">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O201">
         <v>3.5</v>
       </c>
       <c r="P201">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
         <v>2.75</v>
@@ -18399,22 +18399,22 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.825</v>
+      </c>
+      <c r="AB201">
+        <v>0.4875</v>
+      </c>
+      <c r="AC201">
         <v>-0.5</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,13 +18434,13 @@
         <v>45277.375</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -18449,43 +18449,43 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.825</v>
+      </c>
+      <c r="V202">
         <v>1.975</v>
       </c>
-      <c r="S202">
-        <v>1.825</v>
-      </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
       <c r="W202">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18494,16 +18494,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC202">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45277.375</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18538,43 +18538,43 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
+        <v>4.333</v>
+      </c>
+      <c r="N203">
+        <v>1.727</v>
+      </c>
+      <c r="O203">
+        <v>3.6</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
         <v>2.75</v>
       </c>
-      <c r="N203">
-        <v>2.1</v>
-      </c>
-      <c r="O203">
-        <v>3.4</v>
-      </c>
-      <c r="P203">
-        <v>2.875</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.875</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
       <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
         <v>1.825</v>
       </c>
-      <c r="V203">
-        <v>1.975</v>
-      </c>
       <c r="W203">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,16 +18583,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18790,10 +18790,10 @@
         <v>45321.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6953296</v>
+        <v>7782795</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,49 +18968,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N208">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
         <v>1.85</v>
@@ -19019,19 +19019,19 @@
         <v>1.95</v>
       </c>
       <c r="W208">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB208">
         <v>0.8500000000000001</v>
@@ -19057,10 +19057,10 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7782795</v>
+        <v>6953296</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,49 +19146,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K210">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N210">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
         <v>1.85</v>
@@ -19197,19 +19197,19 @@
         <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>0.8500000000000001</v>
@@ -19238,7 +19238,7 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19680,10 +19680,10 @@
         <v>45328.375</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6953300</v>
+        <v>6954183</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,52 +19772,52 @@
         <v>45</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L217">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N217">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O217">
         <v>3.6</v>
       </c>
       <c r="P217">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19826,16 +19826,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.571</v>
+        <v>3</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AB217">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6954183</v>
+        <v>6953300</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19861,52 +19861,52 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
         <v>47</v>
       </c>
       <c r="K218">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M218">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="N218">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O218">
         <v>3.6</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
         <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19915,16 +19915,16 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>3</v>
+        <v>0.571</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
       <c r="AB218">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6953302</v>
+        <v>6953301</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,16 +19947,16 @@
         <v>45344.375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
         <v>47</v>
@@ -19971,31 +19971,31 @@
         <v>3.25</v>
       </c>
       <c r="N219">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -20004,19 +20004,19 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6953301</v>
+        <v>6953302</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,16 +20036,16 @@
         <v>45344.375</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
@@ -20060,31 +20060,31 @@
         <v>3.25</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20093,19 +20093,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6954166</v>
+        <v>6953303</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,10 +20125,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20140,19 +20140,19 @@
         <v>49</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P221">
         <v>3</v>
@@ -20161,25 +20161,25 @@
         <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>2.025</v>
+      </c>
+      <c r="S221">
+        <v>1.775</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
         <v>1.8</v>
       </c>
-      <c r="S221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>2.75</v>
-      </c>
-      <c r="U221">
-        <v>1.825</v>
-      </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20188,13 +20188,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA221">
+        <v>0.3875</v>
+      </c>
+      <c r="AB221">
+        <v>-0.5</v>
+      </c>
+      <c r="AC221">
         <v>0.5</v>
-      </c>
-      <c r="AB221">
-        <v>-1</v>
-      </c>
-      <c r="AC221">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6953303</v>
+        <v>6954166</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,10 +20214,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20229,19 +20229,19 @@
         <v>49</v>
       </c>
       <c r="K222">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N222">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
         <v>3</v>
@@ -20250,25 +20250,25 @@
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20277,13 +20277,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA222">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>45346.375</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>
@@ -20573,7 +20573,7 @@
         <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -20659,10 +20659,10 @@
         <v>45348.375</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H227">
         <v>4</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6961424</v>
+        <v>6961425</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45349.20833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N229">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>4</v>
       </c>
-      <c r="P229">
-        <v>4.333</v>
-      </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6961425</v>
+        <v>6961424</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45349.20833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L230">
         <v>3.4</v>
       </c>
       <c r="M230">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N230">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
+        <v>1.875</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
         <v>1.825</v>
       </c>
-      <c r="S230">
+      <c r="V230">
         <v>1.975</v>
       </c>
-      <c r="T230">
-        <v>2.5</v>
-      </c>
-      <c r="U230">
-        <v>1.85</v>
-      </c>
-      <c r="V230">
-        <v>1.95</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X230">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21018,7 +21018,7 @@
         <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21193,10 +21193,10 @@
         <v>45350.375</v>
       </c>
       <c r="F233" t="s">
+        <v>41</v>
+      </c>
+      <c r="G233" t="s">
         <v>40</v>
-      </c>
-      <c r="G233" t="s">
-        <v>41</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21287,6 +21287,15 @@
       <c r="G234" t="s">
         <v>30</v>
       </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>48</v>
+      </c>
       <c r="K234">
         <v>1.6</v>
       </c>
@@ -21297,46 +21306,52 @@
         <v>4.75</v>
       </c>
       <c r="N234">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q234">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
+        <v>1.85</v>
+      </c>
+      <c r="S234">
         <v>1.95</v>
-      </c>
-      <c r="S234">
-        <v>1.85</v>
       </c>
       <c r="T234">
         <v>3</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA234">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB234">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC234">
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,11 +21371,20 @@
         <v>45352.20833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>
       </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>47</v>
+      </c>
       <c r="K235">
         <v>2.3</v>
       </c>
@@ -21371,45 +21395,584 @@
         <v>2.5</v>
       </c>
       <c r="N235">
+        <v>2.7</v>
+      </c>
+      <c r="O235">
+        <v>4</v>
+      </c>
+      <c r="P235">
+        <v>2.05</v>
+      </c>
+      <c r="Q235">
+        <v>0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.9</v>
+      </c>
+      <c r="S235">
+        <v>1.9</v>
+      </c>
+      <c r="T235">
+        <v>3.25</v>
+      </c>
+      <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
+        <v>1.825</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>1.05</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6962312</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45352.375</v>
+      </c>
+      <c r="F236" t="s">
+        <v>45</v>
+      </c>
+      <c r="G236" t="s">
+        <v>44</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>48</v>
+      </c>
+      <c r="K236">
+        <v>2.5</v>
+      </c>
+      <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
         <v>2.375</v>
       </c>
-      <c r="O235">
+      <c r="N236">
+        <v>2.55</v>
+      </c>
+      <c r="O236">
+        <v>3.4</v>
+      </c>
+      <c r="P236">
+        <v>2.3</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.8</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>1.75</v>
+      </c>
+      <c r="V236">
+        <v>1.95</v>
+      </c>
+      <c r="W236">
+        <v>1.55</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
+        <v>1</v>
+      </c>
+      <c r="AA236">
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>0.75</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6962313</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F237" t="s">
+        <v>37</v>
+      </c>
+      <c r="G237" t="s">
+        <v>31</v>
+      </c>
+      <c r="K237">
+        <v>1.75</v>
+      </c>
+      <c r="L237">
+        <v>3.5</v>
+      </c>
+      <c r="M237">
+        <v>4</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237">
+        <v>3.3</v>
+      </c>
+      <c r="P237">
+        <v>3.3</v>
+      </c>
+      <c r="Q237">
+        <v>-0.5</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>1.8</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>1.95</v>
+      </c>
+      <c r="V237">
+        <v>1.85</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6962315</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45354.20833333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>40</v>
+      </c>
+      <c r="G238" t="s">
+        <v>38</v>
+      </c>
+      <c r="K238">
+        <v>1.75</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>4</v>
+      </c>
+      <c r="N238">
+        <v>1.727</v>
+      </c>
+      <c r="O238">
+        <v>3.5</v>
+      </c>
+      <c r="P238">
+        <v>4.2</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.825</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
+        <v>1.8</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6962317</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F239" t="s">
+        <v>35</v>
+      </c>
+      <c r="G239" t="s">
+        <v>32</v>
+      </c>
+      <c r="K239">
+        <v>2.9</v>
+      </c>
+      <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
+        <v>2.1</v>
+      </c>
+      <c r="N239">
+        <v>4.2</v>
+      </c>
+      <c r="O239">
+        <v>3.8</v>
+      </c>
+      <c r="P239">
+        <v>1.615</v>
+      </c>
+      <c r="Q239">
+        <v>0.75</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.825</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
+        <v>1.925</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6962316</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F240" t="s">
+        <v>36</v>
+      </c>
+      <c r="G240" t="s">
+        <v>34</v>
+      </c>
+      <c r="K240">
+        <v>2.2</v>
+      </c>
+      <c r="L240">
+        <v>3.4</v>
+      </c>
+      <c r="M240">
+        <v>2.75</v>
+      </c>
+      <c r="N240">
+        <v>1.8</v>
+      </c>
+      <c r="O240">
         <v>3.6</v>
       </c>
-      <c r="P235">
+      <c r="P240">
+        <v>3.6</v>
+      </c>
+      <c r="Q240">
+        <v>-0.5</v>
+      </c>
+      <c r="R240">
+        <v>1.85</v>
+      </c>
+      <c r="S240">
+        <v>1.95</v>
+      </c>
+      <c r="T240">
+        <v>2.75</v>
+      </c>
+      <c r="U240">
+        <v>1.9</v>
+      </c>
+      <c r="V240">
+        <v>1.9</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6962319</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45355.20833333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>33</v>
+      </c>
+      <c r="G241" t="s">
+        <v>29</v>
+      </c>
+      <c r="K241">
+        <v>2.75</v>
+      </c>
+      <c r="L241">
+        <v>3.4</v>
+      </c>
+      <c r="M241">
+        <v>2.25</v>
+      </c>
+      <c r="N241">
+        <v>2.9</v>
+      </c>
+      <c r="O241">
+        <v>3.4</v>
+      </c>
+      <c r="P241">
+        <v>2.15</v>
+      </c>
+      <c r="Q241">
+        <v>0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.85</v>
+      </c>
+      <c r="S241">
+        <v>1.95</v>
+      </c>
+      <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
+        <v>1.9</v>
+      </c>
+      <c r="V241">
+        <v>1.9</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6962318</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45355.375</v>
+      </c>
+      <c r="F242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>41</v>
+      </c>
+      <c r="K242">
+        <v>2.5</v>
+      </c>
+      <c r="L242">
+        <v>3.4</v>
+      </c>
+      <c r="M242">
         <v>2.4</v>
       </c>
-      <c r="Q235">
+      <c r="N242">
+        <v>1.95</v>
+      </c>
+      <c r="O242">
+        <v>3.5</v>
+      </c>
+      <c r="P242">
+        <v>3.2</v>
+      </c>
+      <c r="Q242">
+        <v>-0.5</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.8</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
         <v>0</v>
       </c>
-      <c r="R235">
-        <v>1.825</v>
-      </c>
-      <c r="S235">
-        <v>1.975</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>1.875</v>
-      </c>
-      <c r="V235">
-        <v>1.925</v>
-      </c>
-      <c r="W235">
+      <c r="X242">
         <v>0</v>
       </c>
-      <c r="X235">
+      <c r="Y242">
         <v>0</v>
       </c>
-      <c r="Y235">
+      <c r="Z242">
         <v>0</v>
       </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-      <c r="AA235">
+      <c r="AA242">
         <v>0</v>
       </c>
     </row>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Persis Solo</t>
   </si>
   <si>
-    <t>Dewa United FC</t>
+    <t>Persib Bandung</t>
   </si>
   <si>
-    <t>Persib Bandung</t>
+    <t>Dewa United FC</t>
   </si>
   <si>
     <t>PS Barito Putera</t>
@@ -136,34 +136,34 @@
     <t>Arema FC</t>
   </si>
   <si>
+    <t>PSM Makassar</t>
+  </si>
+  <si>
     <t>Persebaya Surabaya</t>
   </si>
   <si>
-    <t>PSM Makassar</t>
+    <t>Borneo FC</t>
   </si>
   <si>
     <t>Persita Tangerang</t>
   </si>
   <si>
-    <t>Borneo FC</t>
+    <t>Madura United</t>
   </si>
   <si>
-    <t>Madura United</t>
+    <t>Persikabo 1973</t>
   </si>
   <si>
     <t>Bhayangkara Surabaya United</t>
   </si>
   <si>
-    <t>Persikabo 1973</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6843483</v>
+        <v>6843484</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N4">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6843484</v>
+        <v>6843483</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>1.95</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>2.6</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>3.3</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.75</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>3.6</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6843493</v>
+        <v>6843492</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6843492</v>
+        <v>6843493</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
         <v>4.333</v>
       </c>
-      <c r="P14">
-        <v>5.25</v>
-      </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y14">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1836,13 +1836,13 @@
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,10 +1857,10 @@
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1925,13 +1925,13 @@
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1946,10 +1946,10 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>2.2</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA18">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>1.285</v>
+      </c>
+      <c r="L19">
+        <v>5.25</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>1.65</v>
+      </c>
+      <c r="O19">
+        <v>4.2</v>
+      </c>
+      <c r="P19">
+        <v>3.8</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>2.075</v>
+      </c>
+      <c r="S19">
+        <v>1.725</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>2.8</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>3.25</v>
-      </c>
-      <c r="L19">
-        <v>3.25</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="O19">
-        <v>3.4</v>
-      </c>
-      <c r="P19">
-        <v>1.727</v>
-      </c>
-      <c r="Q19">
-        <v>0.75</v>
-      </c>
-      <c r="R19">
-        <v>1.75</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.4</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.75</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6843499</v>
+        <v>6843500</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
+        <v>1.65</v>
+      </c>
+      <c r="L20">
+        <v>3.8</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>3.4</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>3.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
         <v>1.85</v>
-      </c>
-      <c r="N20">
-        <v>3.2</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>0.8</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6843500</v>
+        <v>6843499</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.8</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.95</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,11 +2414,11 @@
         <v>45121.375</v>
       </c>
       <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
       <c r="H22">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,40 +2503,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
         <v>1.775</v>
@@ -2545,34 +2545,34 @@
         <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,40 +2592,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
         <v>1.775</v>
@@ -2634,34 +2634,34 @@
         <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2684,7 +2684,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>1.833</v>
@@ -2862,7 +2862,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>1.444</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3126,7 +3126,7 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>1.666</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45128.375</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
+        <v>1.9</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45128.375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>1.75</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="P32">
-        <v>2.625</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.9</v>
-      </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>3.5</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>1.65</v>
+      </c>
+      <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>4.25</v>
+      </c>
+      <c r="N34">
+        <v>1.444</v>
+      </c>
+      <c r="O34">
+        <v>4.2</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>-1.25</v>
+      </c>
+      <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
         <v>1.85</v>
-      </c>
-      <c r="L34">
-        <v>3.25</v>
-      </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3.1</v>
-      </c>
-      <c r="P34">
-        <v>3.1</v>
-      </c>
-      <c r="Q34">
-        <v>-0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.9</v>
-      </c>
-      <c r="S34">
-        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,73 +3571,73 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
         <v>3.75</v>
       </c>
-      <c r="M35">
-        <v>4.25</v>
-      </c>
       <c r="N35">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3660,7 +3660,7 @@
         <v>45130.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>1.5</v>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3927,10 +3927,10 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>2.7</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,10 +4194,10 @@
         <v>45136.375</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>2.6</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.571</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.2</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6990972</v>
+        <v>6843526</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45137.375</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z45">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
+        <v>0.8</v>
+      </c>
+      <c r="AB45">
+        <v>0.4</v>
+      </c>
+      <c r="AC45">
         <v>-0.5</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6843526</v>
+        <v>6990972</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45137.375</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45141.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N48">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y48">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45141.375</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.925</v>
@@ -4951,31 +4951,31 @@
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y50">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5040,31 +5040,31 @@
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.875</v>
+      </c>
+      <c r="AB51">
+        <v>0.4375</v>
+      </c>
+      <c r="AC51">
         <v>-0.5</v>
-      </c>
-      <c r="AA51">
-        <v>0.4375</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6843532</v>
+        <v>6843533</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45142.375</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52">
+        <v>1.3</v>
+      </c>
+      <c r="L52">
+        <v>4.75</v>
+      </c>
+      <c r="M52">
+        <v>7.5</v>
+      </c>
+      <c r="N52">
+        <v>1.5</v>
+      </c>
+      <c r="O52">
+        <v>4.2</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+      <c r="Q52">
+        <v>-1.25</v>
+      </c>
+      <c r="R52">
+        <v>1.95</v>
+      </c>
+      <c r="S52">
+        <v>1.75</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
-        <v>47</v>
-      </c>
-      <c r="K52">
-        <v>3.4</v>
-      </c>
-      <c r="L52">
-        <v>3.4</v>
-      </c>
-      <c r="M52">
-        <v>1.909</v>
-      </c>
-      <c r="N52">
-        <v>2.875</v>
-      </c>
-      <c r="O52">
-        <v>3.25</v>
-      </c>
-      <c r="P52">
-        <v>2.2</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.775</v>
-      </c>
-      <c r="S52">
-        <v>2.025</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6843533</v>
+        <v>6843532</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45142.375</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
+        <v>2.875</v>
+      </c>
+      <c r="O53">
+        <v>3.25</v>
+      </c>
+      <c r="P53">
+        <v>2.2</v>
+      </c>
+      <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>1.8</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>1.2</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>1.025</v>
+      </c>
+      <c r="AB53">
         <v>1</v>
       </c>
-      <c r="J53" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53">
-        <v>1.3</v>
-      </c>
-      <c r="L53">
-        <v>4.75</v>
-      </c>
-      <c r="M53">
-        <v>7.5</v>
-      </c>
-      <c r="N53">
-        <v>1.5</v>
-      </c>
-      <c r="O53">
-        <v>4.2</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
-      <c r="Q53">
-        <v>-1.25</v>
-      </c>
-      <c r="R53">
-        <v>1.95</v>
-      </c>
-      <c r="S53">
-        <v>1.75</v>
-      </c>
-      <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>3.2</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
-      <c r="AA53">
-        <v>0.75</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>1.833</v>
@@ -5440,10 +5440,10 @@
         <v>45145.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5618,7 +5618,7 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5707,10 +5707,10 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5799,7 +5799,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>2.625</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>1.666</v>
@@ -5977,7 +5977,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>1.909</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.375</v>
@@ -6155,7 +6155,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6253,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2.3</v>
@@ -6330,10 +6330,10 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.1</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6508,7 +6508,7 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>1.75</v>
@@ -6600,7 +6600,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6686,10 +6686,10 @@
         <v>45151.375</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.7</v>
@@ -6864,7 +6864,7 @@
         <v>45152.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -7042,10 +7042,10 @@
         <v>45156.20833333334</v>
       </c>
       <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
         <v>40</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.7</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,19 +7188,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" t="s">
         <v>42</v>
       </c>
-      <c r="G76" t="s">
-        <v>38</v>
-      </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O76">
         <v>3.4</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7312,7 +7312,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>2.05</v>
@@ -7398,7 +7398,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2.625</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
         <v>1.833</v>
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.3</v>
@@ -7757,7 +7757,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>1.571</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>45164.375</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>1.615</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.727</v>
@@ -8469,7 +8469,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8555,7 +8555,7 @@
         <v>45166.375</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8644,7 +8644,7 @@
         <v>45170.20833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8733,7 +8733,7 @@
         <v>45170.375</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6843575</v>
+        <v>6843576</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8867,31 +8867,31 @@
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6843576</v>
+        <v>6843575</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,40 +8911,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
       </c>
       <c r="K95">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.85</v>
@@ -8956,31 +8956,31 @@
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,10 +9089,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2.7</v>
@@ -9178,10 +9178,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.3</v>
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>3</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
         <v>1.8</v>
@@ -9445,7 +9445,7 @@
         <v>45184.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>1.727</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6843582</v>
+        <v>6843583</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,28 +9534,28 @@
         <v>45184.375</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N102">
         <v>1.727</v>
@@ -9564,7 +9564,7 @@
         <v>3.75</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
         <v>-0.75</v>
@@ -9576,7 +9576,7 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1.925</v>
@@ -9588,10 +9588,10 @@
         <v>-1</v>
       </c>
       <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>2.75</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6843583</v>
+        <v>6843582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,28 +9623,28 @@
         <v>45184.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N103">
         <v>1.727</v>
@@ -9653,7 +9653,7 @@
         <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
@@ -9665,7 +9665,7 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.925</v>
@@ -9677,10 +9677,10 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,13 +9712,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9727,61 +9727,61 @@
         <v>49</v>
       </c>
       <c r="K104">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,13 +9801,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9816,61 +9816,61 @@
         <v>48</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>2.1</v>
@@ -9982,7 +9982,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6843589</v>
+        <v>6843588</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45186.375</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>47</v>
+      </c>
+      <c r="K108">
+        <v>2.4</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+      <c r="N108">
+        <v>2.7</v>
+      </c>
+      <c r="O108">
+        <v>3.25</v>
+      </c>
+      <c r="P108">
+        <v>2.25</v>
+      </c>
+      <c r="Q108">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>48</v>
-      </c>
-      <c r="K108">
-        <v>1.444</v>
-      </c>
-      <c r="L108">
-        <v>4.2</v>
-      </c>
-      <c r="M108">
-        <v>5.5</v>
-      </c>
-      <c r="N108">
-        <v>1.5</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
-      <c r="P108">
-        <v>5</v>
-      </c>
-      <c r="Q108">
-        <v>-1</v>
-      </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6843588</v>
+        <v>6843589</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45186.375</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q109">
+        <v>-1</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
+        <v>1.975</v>
+      </c>
+      <c r="W109">
+        <v>0.5</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>0</v>
       </c>
-      <c r="R109">
-        <v>2.075</v>
-      </c>
-      <c r="S109">
-        <v>1.725</v>
-      </c>
-      <c r="T109">
-        <v>2.25</v>
-      </c>
-      <c r="U109">
-        <v>1.9</v>
-      </c>
-      <c r="V109">
-        <v>1.9</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>1.25</v>
-      </c>
-      <c r="Z109">
-        <v>-1</v>
-      </c>
       <c r="AA109">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6843592</v>
+        <v>6843591</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,10 +10335,10 @@
         <v>45191.375</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10347,46 +10347,46 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L111">
+        <v>3.25</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
         <v>3.3</v>
       </c>
-      <c r="M111">
-        <v>2.8</v>
-      </c>
-      <c r="N111">
-        <v>1.909</v>
-      </c>
-      <c r="O111">
-        <v>3.4</v>
-      </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
         <v>1.875</v>
       </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,7 +10395,7 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10404,7 +10404,7 @@
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6843591</v>
+        <v>6843592</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,10 +10424,10 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,46 +10436,46 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
         <v>3.3</v>
       </c>
-      <c r="P112">
-        <v>3.2</v>
-      </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.875</v>
+      </c>
+      <c r="V112">
         <v>1.925</v>
       </c>
-      <c r="V112">
-        <v>1.875</v>
-      </c>
       <c r="W112">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,7 +10484,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10513,7 +10513,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
         <v>39</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>1.65</v>
@@ -10602,7 +10602,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10691,10 +10691,10 @@
         <v>45192.375</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>2.8</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.909</v>
@@ -10958,10 +10958,10 @@
         <v>45194.375</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>1.909</v>
@@ -11139,7 +11139,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>1.45</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6843604</v>
+        <v>6843605</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,13 +11225,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11240,13 +11240,13 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N121">
         <v>2.2</v>
@@ -11255,46 +11255,46 @@
         <v>3.2</v>
       </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
+        <v>1.775</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
         <v>1.8</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843605</v>
+        <v>6843604</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,13 +11329,13 @@
         <v>48</v>
       </c>
       <c r="K122">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N122">
         <v>2.2</v>
@@ -11344,46 +11344,46 @@
         <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11406,7 +11406,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6843606</v>
+        <v>6843607</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45199.375</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>48</v>
       </c>
       <c r="K124">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6843607</v>
+        <v>6843606</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45199.375</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.775</v>
+      </c>
+      <c r="V125">
         <v>1.925</v>
       </c>
-      <c r="V125">
-        <v>1.875</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.925</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11759,10 +11759,10 @@
         <v>45200.375</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.571</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P128">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.75</v>
+      </c>
+      <c r="S128">
+        <v>2.05</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
+        <v>2.4</v>
+      </c>
+      <c r="N129">
+        <v>3.6</v>
+      </c>
+      <c r="O129">
+        <v>3.4</v>
+      </c>
+      <c r="P129">
+        <v>1.85</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.925</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
         <v>2.75</v>
       </c>
-      <c r="N129">
-        <v>2.9</v>
-      </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
-      <c r="P129">
-        <v>2.375</v>
-      </c>
-      <c r="Q129">
-        <v>0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.75</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6843611</v>
+        <v>6843610</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45205.375</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
+        <v>1.727</v>
+      </c>
+      <c r="N130">
         <v>3.75</v>
       </c>
-      <c r="N130">
-        <v>1.55</v>
-      </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6843610</v>
+        <v>6843611</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45205.375</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,10 +12204,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>1.727</v>
@@ -12382,7 +12382,7 @@
         <v>45207.20833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12471,7 +12471,7 @@
         <v>45207.375</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12483,7 +12483,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>2.15</v>
@@ -12560,7 +12560,7 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12649,7 +12649,7 @@
         <v>45219.20833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12738,7 +12738,7 @@
         <v>45219.375</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.533</v>
@@ -12827,7 +12827,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.4</v>
@@ -12928,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13005,10 +13005,10 @@
         <v>45220.375</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>4</v>
-      </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>2.625</v>
+      </c>
+      <c r="N142">
+        <v>2.5</v>
+      </c>
+      <c r="O142">
         <v>3.6</v>
       </c>
-      <c r="M142">
-        <v>4.2</v>
-      </c>
-      <c r="N142">
-        <v>1.6</v>
-      </c>
-      <c r="O142">
-        <v>3.75</v>
-      </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.825</v>
-      </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
+        <v>1.6</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.333</v>
+      </c>
+      <c r="Q143">
+        <v>-0.75</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
         <v>2.5</v>
       </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>2.3</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>1.533</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>3.3</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6843629</v>
+        <v>6843631</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,58 +13628,58 @@
         <v>45227.375</v>
       </c>
       <c r="F148" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" t="s">
         <v>32</v>
       </c>
-      <c r="G148" t="s">
-        <v>38</v>
-      </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
         <v>4.75</v>
       </c>
-      <c r="M148">
-        <v>6.5</v>
-      </c>
       <c r="N148">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6843631</v>
+        <v>6843629</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,58 +13717,58 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
+        <v>6.5</v>
+      </c>
+      <c r="N149">
+        <v>1.363</v>
+      </c>
+      <c r="O149">
         <v>4.75</v>
       </c>
-      <c r="N149">
-        <v>1.65</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13809,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>1.5</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13987,7 +13987,7 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14076,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>1.5</v>
@@ -14165,7 +14165,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>2.625</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45232.375</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>49</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>48</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N157">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45233.375</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
         <v>37</v>
@@ -14696,7 +14696,7 @@
         <v>45234.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>2.55</v>
@@ -14785,7 +14785,7 @@
         <v>45234.375</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14874,7 +14874,7 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -14886,7 +14886,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.363</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>2.6</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>1.6</v>
@@ -15144,7 +15144,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15233,7 +15233,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>1.666</v>
@@ -15322,7 +15322,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.5</v>
@@ -15411,7 +15411,7 @@
         <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.85</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15586,10 +15586,10 @@
         <v>45242.375</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>2.05</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>1.444</v>
+      </c>
+      <c r="O172">
+        <v>4.5</v>
+      </c>
+      <c r="P172">
+        <v>5.75</v>
+      </c>
+      <c r="Q172">
+        <v>-1.25</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.925</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="N172">
-        <v>2.6</v>
-      </c>
-      <c r="O172">
-        <v>3.2</v>
-      </c>
-      <c r="P172">
-        <v>2.5</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>2.025</v>
-      </c>
-      <c r="S172">
-        <v>1.775</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16031,10 +16031,10 @@
         <v>45256.375</v>
       </c>
       <c r="F175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
         <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6953277</v>
+        <v>7523339</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45257.375</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>49</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>3</v>
+      </c>
+      <c r="U177">
         <v>1.85</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
-      <c r="U177">
-        <v>1.875</v>
-      </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X177">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7523339</v>
+        <v>6953277</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,76 +16298,76 @@
         <v>45257.375</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N178">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O178">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>1.5</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6953281</v>
+        <v>6954164</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16488,64 +16488,64 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L180">
         <v>3.3</v>
       </c>
       <c r="M180">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6954164</v>
+        <v>6953281</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,10 +16565,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16577,64 +16577,64 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L181">
         <v>3.3</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N181">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,11 +16654,11 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>45</v>
+      </c>
+      <c r="G182" t="s">
         <v>46</v>
       </c>
-      <c r="G182" t="s">
-        <v>45</v>
-      </c>
       <c r="H182">
         <v>2</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2.3</v>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>1.444</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>1.5</v>
@@ -16933,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>1.4</v>
@@ -17010,10 +17010,10 @@
         <v>45264.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>1.6</v>
@@ -17099,7 +17099,7 @@
         <v>45268.20833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.9</v>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
         <v>2.5</v>
@@ -17277,10 +17277,10 @@
         <v>45268.375</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17366,7 +17366,7 @@
         <v>45269.20833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>2.25</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>2.6</v>
@@ -17544,7 +17544,7 @@
         <v>45269.375</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>36</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>1.6</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>2.15</v>
@@ -17722,7 +17722,7 @@
         <v>45270.375</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>34</v>
@@ -17811,10 +17811,10 @@
         <v>45270.375</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.65</v>
@@ -17900,7 +17900,7 @@
         <v>45273.33333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17912,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>2</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K197">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y198">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>1.533</v>
@@ -18256,10 +18256,10 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18268,7 +18268,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.875</v>
@@ -18348,7 +18348,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18434,10 +18434,10 @@
         <v>45277.375</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>2.2</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>1.615</v>
@@ -18615,7 +18615,7 @@
         <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>2.15</v>
@@ -18704,7 +18704,7 @@
         <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2.2</v>
@@ -18790,7 +18790,7 @@
         <v>45321.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>2.4</v>
@@ -18891,7 +18891,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7782795</v>
+        <v>6953296</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,49 +18968,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>49</v>
       </c>
       <c r="K208">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N208">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
         <v>1.85</v>
@@ -19019,19 +19019,19 @@
         <v>1.95</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>0.8500000000000001</v>
@@ -19057,10 +19057,10 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>2.15</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6953296</v>
+        <v>7782795</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,49 +19146,49 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
         <v>48</v>
       </c>
       <c r="K210">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
         <v>1.85</v>
@@ -19197,19 +19197,19 @@
         <v>1.95</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB210">
         <v>0.8500000000000001</v>
@@ -19238,7 +19238,7 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19247,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>1.727</v>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>1.666</v>
@@ -19591,7 +19591,7 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>33</v>
@@ -19603,7 +19603,7 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>2.375</v>
@@ -19680,7 +19680,7 @@
         <v>45328.375</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
         <v>37</v>
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>1.727</v>
@@ -19769,7 +19769,7 @@
         <v>45344.20833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
         <v>38</v>
@@ -19858,10 +19858,10 @@
         <v>45344.20833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6953301</v>
+        <v>6953302</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,16 +19947,16 @@
         <v>45344.375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
         <v>47</v>
@@ -19971,31 +19971,31 @@
         <v>3.25</v>
       </c>
       <c r="N219">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -20004,19 +20004,19 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6953302</v>
+        <v>6953301</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,16 +20036,16 @@
         <v>45344.375</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
@@ -20060,31 +20060,31 @@
         <v>3.25</v>
       </c>
       <c r="N220">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20093,19 +20093,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20125,10 +20125,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20137,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
         <v>2.2</v>
@@ -20217,7 +20217,7 @@
         <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>2.25</v>
@@ -20306,7 +20306,7 @@
         <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>3.75</v>
@@ -20404,7 +20404,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K224">
         <v>2.15</v>
@@ -20481,7 +20481,7 @@
         <v>45346.375</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.2</v>
@@ -20582,7 +20582,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K226">
         <v>3.3</v>
@@ -20659,10 +20659,10 @@
         <v>45348.375</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H227">
         <v>4</v>
@@ -20671,7 +20671,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K227">
         <v>1.4</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -20760,7 +20760,7 @@
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K228">
         <v>1.4</v>
@@ -20840,7 +20840,7 @@
         <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -20849,7 +20849,7 @@
         <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>2.1</v>
@@ -20926,7 +20926,7 @@
         <v>45349.20833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
         <v>35</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>2</v>
@@ -21015,7 +21015,7 @@
         <v>45349.375</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
         <v>36</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>2.1</v>
@@ -21193,10 +21193,10 @@
         <v>45350.375</v>
       </c>
       <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
         <v>41</v>
-      </c>
-      <c r="G233" t="s">
-        <v>40</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.7</v>
@@ -21294,7 +21294,7 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
         <v>1.6</v>
@@ -21371,7 +21371,7 @@
         <v>45352.20833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>
@@ -21460,7 +21460,7 @@
         <v>45352.375</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
         <v>44</v>
@@ -21472,7 +21472,7 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>2.5</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6962313</v>
+        <v>6962314</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,64 +21546,79 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45353.375</v>
+        <v>45353.20833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
         <v>3.5</v>
       </c>
       <c r="M237">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N237">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
         <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21611,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6962315</v>
+        <v>6962313</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21620,13 +21635,22 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45354.20833333334</v>
+        <v>45353.375</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="H238">
+        <v>4</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>49</v>
       </c>
       <c r="K238">
         <v>1.75</v>
@@ -21638,46 +21662,52 @@
         <v>4</v>
       </c>
       <c r="N238">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
         <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC238">
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21685,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6962317</v>
+        <v>6962315</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21694,34 +21724,34 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45354.375</v>
+        <v>45354.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K239">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N239">
+        <v>1.727</v>
+      </c>
+      <c r="O239">
+        <v>3.5</v>
+      </c>
+      <c r="P239">
         <v>4.2</v>
       </c>
-      <c r="O239">
-        <v>3.8</v>
-      </c>
-      <c r="P239">
-        <v>1.615</v>
-      </c>
       <c r="Q239">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
         <v>1.975</v>
@@ -21733,10 +21763,10 @@
         <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21786,16 +21816,16 @@
         <v>2.75</v>
       </c>
       <c r="N240">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
         <v>1.85</v>
@@ -21833,7 +21863,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6962319</v>
+        <v>6962317</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21842,34 +21872,34 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45355.20833333334</v>
+        <v>45354.375</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L241">
         <v>3.4</v>
       </c>
       <c r="M241">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N241">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R241">
         <v>1.85</v>
@@ -21878,7 +21908,7 @@
         <v>1.95</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
         <v>1.9</v>
@@ -21907,7 +21937,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6962318</v>
+        <v>6962319</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21916,49 +21946,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45355.375</v>
+        <v>45355.20833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K242">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L242">
         <v>3.4</v>
       </c>
       <c r="M242">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N242">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
+        <v>2.025</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
         <v>1.8</v>
       </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>1.9</v>
-      </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -21973,6 +22003,80 @@
         <v>0</v>
       </c>
       <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6962318</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45355.375</v>
+      </c>
+      <c r="F243" t="s">
+        <v>30</v>
+      </c>
+      <c r="G243" t="s">
+        <v>40</v>
+      </c>
+      <c r="K243">
+        <v>2.5</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>2.4</v>
+      </c>
+      <c r="N243">
+        <v>2.1</v>
+      </c>
+      <c r="O243">
+        <v>3.5</v>
+      </c>
+      <c r="P243">
+        <v>2.9</v>
+      </c>
+      <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.95</v>
+      </c>
+      <c r="S243">
+        <v>1.85</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>1.85</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Persis Solo</t>
   </si>
   <si>
-    <t>Dewa United FC</t>
+    <t>Persib Bandung</t>
   </si>
   <si>
-    <t>Persib Bandung</t>
+    <t>Dewa United FC</t>
   </si>
   <si>
     <t>PS Barito Putera</t>
@@ -136,16 +136,16 @@
     <t>Arema FC</t>
   </si>
   <si>
+    <t>Persebaya Surabaya</t>
+  </si>
+  <si>
     <t>PSM Makassar</t>
   </si>
   <si>
-    <t>Persebaya Surabaya</t>
+    <t>Persita Tangerang</t>
   </si>
   <si>
     <t>Borneo FC</t>
-  </si>
-  <si>
-    <t>Persita Tangerang</t>
   </si>
   <si>
     <t>Madura United</t>
@@ -160,10 +160,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC248"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6843483</v>
+        <v>6843484</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N4">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6843484</v>
+        <v>6843483</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>1.95</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>3.3</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>2.6</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2.75</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>3.6</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6843492</v>
+        <v>6843493</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O13">
+        <v>3.75</v>
+      </c>
+      <c r="P13">
         <v>4.333</v>
       </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y13">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6843493</v>
+        <v>6843492</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1836,13 +1836,13 @@
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,10 +1857,10 @@
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1925,13 +1925,13 @@
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1946,10 +1946,10 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>2.2</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>3.25</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6843499</v>
+        <v>6843500</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
+        <v>1.65</v>
+      </c>
+      <c r="L20">
+        <v>3.8</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>3.4</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>3.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
         <v>1.85</v>
-      </c>
-      <c r="N20">
-        <v>3.2</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>0.8</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6843500</v>
+        <v>6843499</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.8</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.95</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,11 +2414,11 @@
         <v>45121.375</v>
       </c>
       <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
       <c r="H22">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,40 +2503,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
         <v>1.775</v>
@@ -2545,34 +2545,34 @@
         <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,40 +2592,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
         <v>1.775</v>
@@ -2634,34 +2634,34 @@
         <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>1.833</v>
@@ -2773,7 +2773,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>1.444</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3126,7 +3126,7 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>1.666</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45128.375</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
+        <v>1.9</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45128.375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>1.75</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="P32">
-        <v>2.625</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.9</v>
-      </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>3.5</v>
@@ -3571,10 +3571,10 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>1.85</v>
@@ -3660,7 +3660,7 @@
         <v>45130.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>1.5</v>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3841,7 +3841,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3850,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>2.7</v>
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>2.25</v>
@@ -4019,7 +4019,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4197,7 +4197,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>2.6</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.571</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.2</v>
@@ -4464,7 +4464,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>1.615</v>
@@ -4639,7 +4639,7 @@
         <v>45141.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4728,7 +4728,7 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.909</v>
@@ -4817,7 +4817,7 @@
         <v>45141.375</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.925</v>
@@ -4951,31 +4951,31 @@
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y50">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5040,31 +5040,31 @@
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.875</v>
+      </c>
+      <c r="AB51">
+        <v>0.4375</v>
+      </c>
+      <c r="AC51">
         <v>-0.5</v>
-      </c>
-      <c r="AA51">
-        <v>0.4375</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6843532</v>
+        <v>6843533</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45142.375</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52">
+        <v>1.3</v>
+      </c>
+      <c r="L52">
+        <v>4.75</v>
+      </c>
+      <c r="M52">
+        <v>7.5</v>
+      </c>
+      <c r="N52">
+        <v>1.5</v>
+      </c>
+      <c r="O52">
+        <v>4.2</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+      <c r="Q52">
+        <v>-1.25</v>
+      </c>
+      <c r="R52">
+        <v>1.95</v>
+      </c>
+      <c r="S52">
+        <v>1.75</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
-        <v>47</v>
-      </c>
-      <c r="K52">
-        <v>3.4</v>
-      </c>
-      <c r="L52">
-        <v>3.4</v>
-      </c>
-      <c r="M52">
-        <v>1.909</v>
-      </c>
-      <c r="N52">
-        <v>2.875</v>
-      </c>
-      <c r="O52">
-        <v>3.25</v>
-      </c>
-      <c r="P52">
-        <v>2.2</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.775</v>
-      </c>
-      <c r="S52">
-        <v>2.025</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6843533</v>
+        <v>6843532</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45142.375</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
+        <v>2.875</v>
+      </c>
+      <c r="O53">
+        <v>3.25</v>
+      </c>
+      <c r="P53">
+        <v>2.2</v>
+      </c>
+      <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>1.8</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>1.2</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>1.025</v>
+      </c>
+      <c r="AB53">
         <v>1</v>
       </c>
-      <c r="J53" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53">
-        <v>1.3</v>
-      </c>
-      <c r="L53">
-        <v>4.75</v>
-      </c>
-      <c r="M53">
-        <v>7.5</v>
-      </c>
-      <c r="N53">
-        <v>1.5</v>
-      </c>
-      <c r="O53">
-        <v>4.2</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
-      <c r="Q53">
-        <v>-1.25</v>
-      </c>
-      <c r="R53">
-        <v>1.95</v>
-      </c>
-      <c r="S53">
-        <v>1.75</v>
-      </c>
-      <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>3.2</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
-      <c r="AA53">
-        <v>0.75</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>1.833</v>
@@ -5440,10 +5440,10 @@
         <v>45145.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7030759</v>
+        <v>6843538</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,16 +5618,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
@@ -5642,10 +5642,10 @@
         <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6843538</v>
+        <v>7030759</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,16 +5707,16 @@
         <v>45146.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
@@ -5731,10 +5731,10 @@
         <v>2.9</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5799,7 +5799,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>2.625</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6843542</v>
+        <v>6843541</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,49 +5885,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
+        <v>4.2</v>
+      </c>
+      <c r="N61">
+        <v>1.833</v>
+      </c>
+      <c r="O61">
         <v>3.4</v>
       </c>
-      <c r="M61">
-        <v>3.4</v>
-      </c>
-      <c r="N61">
-        <v>2.05</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
       <c r="P61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5936,7 +5936,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>1.05</v>
+        <v>0.833</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5945,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6843541</v>
+        <v>6843542</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,49 +5974,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
         <v>1.925</v>
@@ -6025,7 +6025,7 @@
         <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.833</v>
+        <v>1.05</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,16 +6034,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6066,7 +6066,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2.375</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6253,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2.3</v>
@@ -6330,10 +6330,10 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.1</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6843548</v>
+        <v>6843549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,13 +6508,13 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6523,34 +6523,34 @@
         <v>48</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
         <v>1.8</v>
@@ -6559,25 +6559,25 @@
         <v>2</v>
       </c>
       <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>3.2</v>
+      </c>
+      <c r="Y68">
+        <v>-1</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.8</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
-      <c r="Z68">
-        <v>0.825</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>0.8</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6843549</v>
+        <v>6843548</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,13 +6597,13 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6612,34 +6612,34 @@
         <v>49</v>
       </c>
       <c r="K69">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.8</v>
@@ -6648,25 +6648,25 @@
         <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.8</v>
       </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>45151.375</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
         <v>45</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.7</v>
@@ -6864,7 +6864,7 @@
         <v>45152.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>37</v>
@@ -7042,10 +7042,10 @@
         <v>45156.20833333334</v>
       </c>
       <c r="F74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s">
         <v>41</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.7</v>
@@ -7131,7 +7131,7 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
         <v>38</v>
@@ -7223,7 +7223,7 @@
         <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6843557</v>
+        <v>6843558</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="V77">
-        <v>1.825</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6843558</v>
+        <v>6843557</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78">
+        <v>2.05</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>3.2</v>
+      </c>
+      <c r="N78">
+        <v>2.2</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
-      <c r="M78">
-        <v>2.2</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
-      <c r="P78">
-        <v>2.25</v>
-      </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.975</v>
+      </c>
+      <c r="V78">
         <v>1.825</v>
       </c>
-      <c r="V78">
-        <v>1.975</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y78">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.825</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2.625</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
         <v>1.833</v>
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.3</v>
@@ -7757,7 +7757,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6843563</v>
+        <v>6843564</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,62 +7843,62 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
+        <v>3.75</v>
+      </c>
+      <c r="P83">
         <v>4</v>
       </c>
-      <c r="P83">
-        <v>5</v>
-      </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.8</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
         <v>1.95</v>
       </c>
-      <c r="S83">
-        <v>1.85</v>
-      </c>
-      <c r="T83">
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.75</v>
       </c>
-      <c r="U83">
-        <v>1.8</v>
-      </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>3</v>
-      </c>
       <c r="Y83">
         <v>-1</v>
       </c>
@@ -7906,13 +7906,13 @@
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6843564</v>
+        <v>6843563</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>1.571</v>
+      </c>
+      <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>1.6</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>1.85</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>49</v>
-      </c>
-      <c r="K84">
-        <v>1.909</v>
-      </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>3.5</v>
-      </c>
-      <c r="N84">
-        <v>1.8</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>4</v>
-      </c>
-      <c r="Q84">
-        <v>-0.5</v>
-      </c>
-      <c r="R84">
-        <v>1.8</v>
-      </c>
-      <c r="S84">
-        <v>2</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.85</v>
-      </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>2.75</v>
-      </c>
-      <c r="Y84">
-        <v>-1</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>1</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8021,7 +8021,7 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>3.4</v>
@@ -8110,10 +8110,10 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" t="s">
         <v>42</v>
-      </c>
-      <c r="G86" t="s">
-        <v>43</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>1.7</v>
@@ -8202,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>45164.375</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>1.615</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.727</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8555,7 +8555,7 @@
         <v>45166.375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8644,7 +8644,7 @@
         <v>45170.20833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6843576</v>
+        <v>6843575</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8867,31 +8867,31 @@
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6843575</v>
+        <v>6843576</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,40 +8911,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.85</v>
@@ -8956,31 +8956,31 @@
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6843578</v>
+        <v>6843572</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,13 +9089,13 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -9104,61 +9104,61 @@
         <v>48</v>
       </c>
       <c r="K97">
+        <v>2.7</v>
+      </c>
+      <c r="L97">
+        <v>3.25</v>
+      </c>
+      <c r="M97">
         <v>2.3</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>3.4</v>
-      </c>
-      <c r="M97">
-        <v>2.6</v>
-      </c>
-      <c r="N97">
-        <v>2.3</v>
       </c>
       <c r="O97">
         <v>3.4</v>
       </c>
       <c r="P97">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6843572</v>
+        <v>6843578</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,13 +9178,13 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -9193,61 +9193,61 @@
         <v>49</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
+        <v>2.6</v>
+      </c>
+      <c r="N98">
         <v>2.3</v>
-      </c>
-      <c r="N98">
-        <v>3.4</v>
       </c>
       <c r="O98">
         <v>3.4</v>
       </c>
       <c r="P98">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6843579</v>
+        <v>6843580</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45172.375</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>48</v>
       </c>
       <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>2.05</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.375</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
-      <c r="M99">
-        <v>3.6</v>
-      </c>
-      <c r="N99">
-        <v>1.75</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>3.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.75</v>
-      </c>
-      <c r="S99">
-        <v>2.05</v>
-      </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6843580</v>
+        <v>6843579</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45172.375</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>49</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
+        <v>3.6</v>
+      </c>
+      <c r="N100">
+        <v>1.75</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
+        <v>3.8</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.75</v>
+      </c>
+      <c r="S100">
         <v>2.05</v>
       </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>2.375</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45184.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>1.727</v>
@@ -9534,7 +9534,7 @@
         <v>45184.375</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>1.615</v>
@@ -9715,7 +9715,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9801,7 +9801,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>45</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>1.444</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>2.1</v>
@@ -9982,7 +9982,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6843589</v>
+        <v>6843588</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45186.375</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>47</v>
+      </c>
+      <c r="K108">
+        <v>2.4</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+      <c r="N108">
+        <v>2.7</v>
+      </c>
+      <c r="O108">
+        <v>3.25</v>
+      </c>
+      <c r="P108">
+        <v>2.25</v>
+      </c>
+      <c r="Q108">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>48</v>
-      </c>
-      <c r="K108">
-        <v>1.444</v>
-      </c>
-      <c r="L108">
-        <v>4.2</v>
-      </c>
-      <c r="M108">
-        <v>5.5</v>
-      </c>
-      <c r="N108">
-        <v>1.5</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
-      <c r="P108">
-        <v>5</v>
-      </c>
-      <c r="Q108">
-        <v>-1</v>
-      </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6843588</v>
+        <v>6843589</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45186.375</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q109">
+        <v>-1</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
+        <v>1.975</v>
+      </c>
+      <c r="W109">
+        <v>0.5</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>0</v>
       </c>
-      <c r="R109">
-        <v>2.075</v>
-      </c>
-      <c r="S109">
-        <v>1.725</v>
-      </c>
-      <c r="T109">
-        <v>2.25</v>
-      </c>
-      <c r="U109">
-        <v>1.9</v>
-      </c>
-      <c r="V109">
-        <v>1.9</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>1.25</v>
-      </c>
-      <c r="Z109">
-        <v>-1</v>
-      </c>
       <c r="AA109">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6843591</v>
+        <v>6843592</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,10 +10335,10 @@
         <v>45191.375</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10347,46 +10347,46 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
         <v>3.3</v>
       </c>
-      <c r="P111">
-        <v>3.2</v>
-      </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.925</v>
       </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
       <c r="W111">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,7 +10395,7 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10404,7 +10404,7 @@
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6843592</v>
+        <v>6843591</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,10 +10424,10 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,46 +10436,46 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
+        <v>3.25</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
         <v>3.3</v>
       </c>
-      <c r="M112">
-        <v>2.8</v>
-      </c>
-      <c r="N112">
-        <v>1.909</v>
-      </c>
-      <c r="O112">
-        <v>3.4</v>
-      </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.925</v>
+      </c>
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,7 +10484,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10513,7 +10513,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>39</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>1.65</v>
@@ -10694,7 +10694,7 @@
         <v>46</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>2.8</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.909</v>
@@ -10958,10 +10958,10 @@
         <v>45194.375</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>1.909</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>1.45</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6843604</v>
+        <v>6843602</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,13 +11225,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11240,61 +11240,61 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="V121">
-        <v>1.85</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>0.4375</v>
+      </c>
+      <c r="AA121">
         <v>-0.5</v>
       </c>
-      <c r="AA121">
-        <v>0.4</v>
-      </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843602</v>
+        <v>6843604</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>40</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,61 +11329,61 @@
         <v>48</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N122">
+        <v>2.2</v>
+      </c>
+      <c r="O122">
+        <v>3.2</v>
+      </c>
+      <c r="P122">
+        <v>2.8</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
         <v>1.8</v>
       </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3.8</v>
-      </c>
-      <c r="Q122">
-        <v>-0.75</v>
-      </c>
-      <c r="R122">
-        <v>1.875</v>
-      </c>
-      <c r="S122">
-        <v>1.925</v>
-      </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11415,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.375</v>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11593,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>2.4</v>
@@ -11673,7 +11673,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11759,10 +11759,10 @@
         <v>45200.375</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.571</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P128">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.75</v>
+      </c>
+      <c r="S128">
+        <v>2.05</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
+        <v>2.4</v>
+      </c>
+      <c r="N129">
+        <v>3.6</v>
+      </c>
+      <c r="O129">
+        <v>3.4</v>
+      </c>
+      <c r="P129">
+        <v>1.85</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.925</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
         <v>2.75</v>
       </c>
-      <c r="N129">
-        <v>2.9</v>
-      </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
-      <c r="P129">
-        <v>2.375</v>
-      </c>
-      <c r="Q129">
-        <v>0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.75</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12026,7 +12026,7 @@
         <v>45205.375</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>38</v>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>1.8</v>
@@ -12118,7 +12118,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12204,10 +12204,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>1.727</v>
@@ -12382,7 +12382,7 @@
         <v>45207.20833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6843615</v>
+        <v>6843616</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45207.375</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N135">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6843616</v>
+        <v>6843615</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K136">
+        <v>2.8</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>2.1</v>
+      </c>
+      <c r="N136">
+        <v>2.75</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
         <v>2.15</v>
       </c>
-      <c r="L136">
-        <v>3.2</v>
-      </c>
-      <c r="M136">
-        <v>3</v>
-      </c>
-      <c r="N136">
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
         <v>1.85</v>
       </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>3.8</v>
-      </c>
-      <c r="Q136">
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.15</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.95</v>
+      </c>
+      <c r="AB136">
+        <v>0.4</v>
+      </c>
+      <c r="AC136">
         <v>-0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>2.25</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>0.875</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>45219.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.533</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,55 +12827,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
         <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
         <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,55 +12916,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,10 +13005,10 @@
         <v>45220.375</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>2.25</v>
@@ -13186,7 +13186,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>1.533</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>3.3</v>
@@ -13628,7 +13628,7 @@
         <v>45227.375</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13640,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
         <v>1.333</v>
@@ -13717,10 +13717,10 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>1.533</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>1.5</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13987,7 +13987,7 @@
         <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14076,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>1.5</v>
@@ -14165,7 +14165,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>2.625</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45232.375</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>48</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>49</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45233.375</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
         <v>36</v>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>2.55</v>
@@ -14785,7 +14785,7 @@
         <v>45234.375</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14963,7 +14963,7 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -14975,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>1.363</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>1.6</v>
@@ -15144,7 +15144,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15233,7 +15233,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>1.666</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45239.375</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>1.444</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.5</v>
+      </c>
+      <c r="Q167">
+        <v>-1.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
         <v>3.25</v>
       </c>
-      <c r="M167">
-        <v>3.75</v>
-      </c>
-      <c r="N167">
-        <v>1.909</v>
-      </c>
-      <c r="O167">
-        <v>3.25</v>
-      </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.875</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X167">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45239.375</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>48</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15586,10 +15586,10 @@
         <v>45242.375</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>2.05</v>
@@ -15764,7 +15764,7 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
         <v>45</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
         <v>1.4</v>
@@ -15853,7 +15853,7 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
         <v>34</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>2.15</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16031,10 +16031,10 @@
         <v>45256.375</v>
       </c>
       <c r="F175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
         <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16298,7 +16298,7 @@
         <v>45257.375</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>30</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>1.571</v>
@@ -16390,7 +16390,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>1.5</v>
@@ -16479,7 +16479,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>3</v>
@@ -16568,7 +16568,7 @@
         <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
         <v>1.909</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6954173</v>
+        <v>6954172</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,40 +16654,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>49</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N182">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16696,34 +16696,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6954172</v>
+        <v>6954173</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,40 +16743,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>48</v>
       </c>
       <c r="K183">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q183">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R183">
         <v>1.975</v>
@@ -16785,34 +16785,34 @@
         <v>1.825</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>1.5</v>
@@ -16933,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>1.4</v>
@@ -17010,10 +17010,10 @@
         <v>45264.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>1.6</v>
@@ -17099,7 +17099,7 @@
         <v>45268.20833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.9</v>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
         <v>2.5</v>
@@ -17277,7 +17277,7 @@
         <v>45268.375</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
         <v>46</v>
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17366,7 +17366,7 @@
         <v>45269.20833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>2.25</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>2.6</v>
@@ -17544,7 +17544,7 @@
         <v>45269.375</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
         <v>37</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>1.6</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>2.15</v>
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6953287</v>
+        <v>6954177</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45270.375</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
         <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P194">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z194">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6954177</v>
+        <v>6953287</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45270.375</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
         <v>4.5</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>45273.33333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17912,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>2</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N197">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>1.533</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6953289</v>
+        <v>6953293</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,46 +18256,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K200">
+        <v>2.875</v>
+      </c>
+      <c r="L200">
+        <v>3.5</v>
+      </c>
+      <c r="M200">
         <v>2.1</v>
       </c>
-      <c r="L200">
-        <v>3.2</v>
-      </c>
-      <c r="M200">
-        <v>3.1</v>
-      </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O200">
         <v>3.5</v>
       </c>
       <c r="P200">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.75</v>
@@ -18310,22 +18310,22 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y200">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.825</v>
-      </c>
-      <c r="AB200">
-        <v>0.4875</v>
-      </c>
-      <c r="AC200">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6953293</v>
+        <v>6953289</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,46 +18345,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N201">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O201">
         <v>3.5</v>
       </c>
       <c r="P201">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
         <v>2.75</v>
@@ -18399,22 +18399,22 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.825</v>
+      </c>
+      <c r="AB201">
+        <v>0.4875</v>
+      </c>
+      <c r="AC201">
         <v>-0.5</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>1.615</v>
@@ -18526,7 +18526,7 @@
         <v>46</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2.2</v>
@@ -18615,7 +18615,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>2.15</v>
@@ -18704,7 +18704,7 @@
         <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2.2</v>
@@ -18790,7 +18790,7 @@
         <v>45321.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
         <v>37</v>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>2.4</v>
@@ -18891,7 +18891,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18968,7 +18968,7 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>30</v>
@@ -18980,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K208">
         <v>1.571</v>
@@ -19057,10 +19057,10 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <v>4</v>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>1.65</v>
@@ -19146,7 +19146,7 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
         <v>46</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>2.15</v>
@@ -19247,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>1.727</v>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6953298</v>
+        <v>6953311</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19514,61 +19514,61 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N214">
+        <v>1.95</v>
+      </c>
+      <c r="O214">
+        <v>3.4</v>
+      </c>
+      <c r="P214">
+        <v>3.3</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
         <v>1.75</v>
       </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>3.75</v>
-      </c>
-      <c r="Q214">
+      <c r="S214">
+        <v>1.95</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
+        <v>1.975</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>2.4</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
         <v>-0.5</v>
       </c>
-      <c r="R214">
-        <v>1.8</v>
-      </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
-      <c r="U214">
-        <v>1.95</v>
-      </c>
-      <c r="V214">
-        <v>1.85</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>2.6</v>
-      </c>
-      <c r="Y214">
-        <v>-1</v>
-      </c>
-      <c r="Z214">
-        <v>-1</v>
-      </c>
       <c r="AA214">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB214">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6953311</v>
+        <v>6953298</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19603,61 +19603,61 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K215">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L215">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N215">
+        <v>1.75</v>
+      </c>
+      <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
+        <v>3.75</v>
+      </c>
+      <c r="Q215">
+        <v>-0.5</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
         <v>1.95</v>
       </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
-      <c r="P215">
-        <v>3.3</v>
-      </c>
-      <c r="Q215">
-        <v>-0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.75</v>
-      </c>
-      <c r="S215">
-        <v>1.95</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>1.825</v>
-      </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19680,7 +19680,7 @@
         <v>45328.375</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
         <v>36</v>
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>1.727</v>
@@ -19861,7 +19861,7 @@
         <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20125,10 +20125,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20137,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
         <v>2.2</v>
@@ -20217,7 +20217,7 @@
         <v>37</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>2.25</v>
@@ -20306,7 +20306,7 @@
         <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>3.75</v>
@@ -20404,7 +20404,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K224">
         <v>2.15</v>
@@ -20481,7 +20481,7 @@
         <v>45346.375</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.2</v>
@@ -20582,7 +20582,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K226">
         <v>3.3</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K227">
         <v>1.4</v>
@@ -20748,7 +20748,7 @@
         <v>45348.375</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G228" t="s">
         <v>46</v>
@@ -20760,7 +20760,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K228">
         <v>1.4</v>
@@ -20840,7 +20840,7 @@
         <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -20849,7 +20849,7 @@
         <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>2.1</v>
@@ -20926,7 +20926,7 @@
         <v>45349.20833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
         <v>34</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>2</v>
@@ -21015,7 +21015,7 @@
         <v>45349.375</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>2.1</v>
@@ -21193,10 +21193,10 @@
         <v>45350.375</v>
       </c>
       <c r="F233" t="s">
+        <v>41</v>
+      </c>
+      <c r="G233" t="s">
         <v>40</v>
-      </c>
-      <c r="G233" t="s">
-        <v>41</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.7</v>
@@ -21294,7 +21294,7 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
         <v>1.6</v>
@@ -21472,7 +21472,7 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>2.5</v>
@@ -21549,10 +21549,10 @@
         <v>45353.20833333334</v>
       </c>
       <c r="F237" t="s">
+        <v>42</v>
+      </c>
+      <c r="G237" t="s">
         <v>43</v>
-      </c>
-      <c r="G237" t="s">
-        <v>42</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H238">
         <v>4</v>
@@ -21650,7 +21650,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K238">
         <v>1.75</v>
@@ -21727,7 +21727,7 @@
         <v>45354.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
         <v>38</v>
@@ -21739,7 +21739,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K239">
         <v>1.75</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K240">
         <v>2.2</v>
@@ -21908,7 +21908,7 @@
         <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -22006,7 +22006,7 @@
         <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
         <v>2.75</v>
@@ -22086,7 +22086,7 @@
         <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
         <v>2.5</v>
@@ -22175,7 +22175,7 @@
         <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>3</v>
@@ -22184,7 +22184,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
         <v>1.615</v>
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K245">
         <v>2.1</v>
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6962324</v>
+        <v>6962323</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22347,64 +22347,79 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45359.20833333334</v>
+        <v>45358.20833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246" t="s">
+        <v>49</v>
       </c>
       <c r="K246">
+        <v>1.4</v>
+      </c>
+      <c r="L246">
+        <v>4.2</v>
+      </c>
+      <c r="M246">
+        <v>6</v>
+      </c>
+      <c r="N246">
         <v>1.533</v>
       </c>
-      <c r="L246">
-        <v>4</v>
-      </c>
-      <c r="M246">
-        <v>4.75</v>
-      </c>
-      <c r="N246">
-        <v>1.55</v>
-      </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P246">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q246">
         <v>-1</v>
       </c>
       <c r="R246">
+        <v>1.85</v>
+      </c>
+      <c r="S246">
         <v>1.95</v>
       </c>
-      <c r="S246">
-        <v>1.85</v>
-      </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
         <v>0</v>
       </c>
       <c r="AA246">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB246">
+        <v>-0.5</v>
+      </c>
+      <c r="AC246">
+        <v>0.4625</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22412,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6962325</v>
+        <v>6962322</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22421,22 +22436,31 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45359.20833333334</v>
+        <v>45358.375</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="s">
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L247">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N247">
         <v>1.533</v>
@@ -22445,7 +22469,7 @@
         <v>3.8</v>
       </c>
       <c r="P247">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q247">
         <v>-1</v>
@@ -22457,28 +22481,34 @@
         <v>1.875</v>
       </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>0</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB247">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC247">
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22486,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6962326</v>
+        <v>6962325</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22495,64 +22525,346 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45359.375</v>
+        <v>45359.20833333334</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248" t="s">
+        <v>49</v>
       </c>
       <c r="K248">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M248">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N248">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O248">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P248">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
         <v>3</v>
       </c>
       <c r="U248">
+        <v>1.95</v>
+      </c>
+      <c r="V248">
         <v>1.85</v>
       </c>
-      <c r="V248">
-        <v>1.95</v>
-      </c>
       <c r="W248">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>0</v>
       </c>
       <c r="AA248">
+        <v>-0</v>
+      </c>
+      <c r="AB248">
+        <v>0.95</v>
+      </c>
+      <c r="AC248">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6962324</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45359.20833333334</v>
+      </c>
+      <c r="F249" t="s">
+        <v>41</v>
+      </c>
+      <c r="G249" t="s">
+        <v>38</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
+      </c>
+      <c r="K249">
+        <v>1.533</v>
+      </c>
+      <c r="L249">
+        <v>4</v>
+      </c>
+      <c r="M249">
+        <v>4.75</v>
+      </c>
+      <c r="N249">
+        <v>1.45</v>
+      </c>
+      <c r="O249">
+        <v>4</v>
+      </c>
+      <c r="P249">
+        <v>5.5</v>
+      </c>
+      <c r="Q249">
+        <v>-1.25</v>
+      </c>
+      <c r="R249">
+        <v>1.95</v>
+      </c>
+      <c r="S249">
+        <v>1.75</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>1.825</v>
+      </c>
+      <c r="V249">
+        <v>1.975</v>
+      </c>
+      <c r="W249">
+        <v>0.45</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>-0.5</v>
+      </c>
+      <c r="AA249">
+        <v>0.375</v>
+      </c>
+      <c r="AB249">
+        <v>0.825</v>
+      </c>
+      <c r="AC249">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6962326</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45359.375</v>
+      </c>
+      <c r="F250" t="s">
+        <v>29</v>
+      </c>
+      <c r="G250" t="s">
+        <v>37</v>
+      </c>
+      <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
         <v>0</v>
+      </c>
+      <c r="J250" t="s">
+        <v>49</v>
+      </c>
+      <c r="K250">
+        <v>1.8</v>
+      </c>
+      <c r="L250">
+        <v>3.75</v>
+      </c>
+      <c r="M250">
+        <v>3.4</v>
+      </c>
+      <c r="N250">
+        <v>1.666</v>
+      </c>
+      <c r="O250">
+        <v>3.8</v>
+      </c>
+      <c r="P250">
+        <v>3.8</v>
+      </c>
+      <c r="Q250">
+        <v>-0.5</v>
+      </c>
+      <c r="R250">
+        <v>1.825</v>
+      </c>
+      <c r="S250">
+        <v>1.975</v>
+      </c>
+      <c r="T250">
+        <v>3</v>
+      </c>
+      <c r="U250">
+        <v>1.9</v>
+      </c>
+      <c r="V250">
+        <v>1.9</v>
+      </c>
+      <c r="W250">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>-1</v>
+      </c>
+      <c r="Z250">
+        <v>0.825</v>
+      </c>
+      <c r="AA250">
+        <v>-1</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6962328</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45360.20833333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>31</v>
+      </c>
+      <c r="G251" t="s">
+        <v>36</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>1.615</v>
+      </c>
+      <c r="L251">
+        <v>3.6</v>
+      </c>
+      <c r="M251">
+        <v>4.5</v>
+      </c>
+      <c r="N251">
+        <v>1.6</v>
+      </c>
+      <c r="O251">
+        <v>3.75</v>
+      </c>
+      <c r="P251">
+        <v>4.5</v>
+      </c>
+      <c r="Q251">
+        <v>-1</v>
+      </c>
+      <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
+        <v>1.825</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>1.975</v>
+      </c>
+      <c r="W251">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>-0</v>
+      </c>
+      <c r="AB251">
+        <v>0.4125</v>
+      </c>
+      <c r="AC251">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -136,16 +136,16 @@
     <t>Arema FC</t>
   </si>
   <si>
+    <t>PSM Makassar</t>
+  </si>
+  <si>
     <t>Persebaya Surabaya</t>
   </si>
   <si>
-    <t>PSM Makassar</t>
+    <t>Borneo FC</t>
   </si>
   <si>
     <t>Persita Tangerang</t>
-  </si>
-  <si>
-    <t>Borneo FC</t>
   </si>
   <si>
     <t>Madura United</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6843493</v>
+        <v>6843492</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6843492</v>
+        <v>6843493</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
         <v>4.333</v>
       </c>
-      <c r="P14">
-        <v>5.25</v>
-      </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y14">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6843494</v>
+        <v>6843495</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1836,13 +1836,13 @@
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,10 +1857,10 @@
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6843495</v>
+        <v>6843494</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1925,13 +1925,13 @@
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1946,10 +1946,10 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,40 +2503,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
         <v>1.775</v>
@@ -2545,34 +2545,34 @@
         <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,40 +2592,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
         <v>1.775</v>
@@ -2634,34 +2634,34 @@
         <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>45122.375</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2696,61 +2696,61 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>3.5</v>
       </c>
       <c r="M25">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
         <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
+        <v>1.8</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.875</v>
-      </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,10 +2770,10 @@
         <v>45122.375</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2785,43 +2785,43 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L26">
         <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2830,16 +2830,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3126,7 +3126,7 @@
         <v>45128.20833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
         <v>3.75</v>
       </c>
-      <c r="M34">
-        <v>4.25</v>
-      </c>
       <c r="N34">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,73 +3571,73 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K35">
+        <v>1.65</v>
+      </c>
+      <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
+        <v>4.25</v>
+      </c>
+      <c r="N35">
+        <v>1.444</v>
+      </c>
+      <c r="O35">
+        <v>4.2</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>1.85</v>
-      </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>3.75</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3.1</v>
-      </c>
-      <c r="P35">
-        <v>3.1</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.9</v>
-      </c>
-      <c r="S35">
-        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3660,7 +3660,7 @@
         <v>45130.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6843519</v>
+        <v>6843518</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,55 +3838,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
       <c r="K38">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N38">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O38">
         <v>3.4</v>
       </c>
       <c r="P38">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3898,16 +3898,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6843518</v>
+        <v>6843519</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="O39">
         <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
+        <v>1.8</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>1.975</v>
+      </c>
+      <c r="V39">
         <v>1.825</v>
-      </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.9</v>
-      </c>
-      <c r="V39">
-        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3987,16 +3987,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6990972</v>
+        <v>6843526</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45137.375</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z45">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
+        <v>0.8</v>
+      </c>
+      <c r="AB45">
+        <v>0.4</v>
+      </c>
+      <c r="AC45">
         <v>-0.5</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6843526</v>
+        <v>6990972</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45137.375</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45141.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45141.375</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N49">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
         <v>1.925</v>
@@ -4951,31 +4951,31 @@
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.875</v>
+      </c>
+      <c r="AB50">
+        <v>0.4375</v>
+      </c>
+      <c r="AC50">
         <v>-0.5</v>
-      </c>
-      <c r="AA50">
-        <v>0.4375</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5040,31 +5040,31 @@
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB51">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6843533</v>
+        <v>6843532</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45142.375</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52">
+        <v>3.4</v>
+      </c>
+      <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
+        <v>1.909</v>
+      </c>
+      <c r="N52">
+        <v>2.875</v>
+      </c>
+      <c r="O52">
+        <v>3.25</v>
+      </c>
+      <c r="P52">
+        <v>2.2</v>
+      </c>
+      <c r="Q52">
+        <v>0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.775</v>
+      </c>
+      <c r="S52">
+        <v>2.025</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>1.8</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
+        <v>1.2</v>
+      </c>
+      <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
+        <v>1.025</v>
+      </c>
+      <c r="AB52">
         <v>1</v>
       </c>
-      <c r="J52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K52">
-        <v>1.3</v>
-      </c>
-      <c r="L52">
-        <v>4.75</v>
-      </c>
-      <c r="M52">
-        <v>7.5</v>
-      </c>
-      <c r="N52">
-        <v>1.5</v>
-      </c>
-      <c r="O52">
-        <v>4.2</v>
-      </c>
-      <c r="P52">
-        <v>5</v>
-      </c>
-      <c r="Q52">
-        <v>-1.25</v>
-      </c>
-      <c r="R52">
-        <v>1.95</v>
-      </c>
-      <c r="S52">
-        <v>1.75</v>
-      </c>
-      <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52">
-        <v>1.925</v>
-      </c>
-      <c r="V52">
-        <v>1.875</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>3.2</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
-      <c r="AA52">
-        <v>0.75</v>
-      </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6843532</v>
+        <v>6843533</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45142.375</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <v>1.3</v>
+      </c>
+      <c r="L53">
+        <v>4.75</v>
+      </c>
+      <c r="M53">
+        <v>7.5</v>
+      </c>
+      <c r="N53">
+        <v>1.5</v>
+      </c>
+      <c r="O53">
+        <v>4.2</v>
+      </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <v>-1.25</v>
+      </c>
+      <c r="R53">
+        <v>1.95</v>
+      </c>
+      <c r="S53">
+        <v>1.75</v>
+      </c>
+      <c r="T53">
         <v>3</v>
       </c>
-      <c r="J53" t="s">
-        <v>47</v>
-      </c>
-      <c r="K53">
-        <v>3.4</v>
-      </c>
-      <c r="L53">
-        <v>3.4</v>
-      </c>
-      <c r="M53">
-        <v>1.909</v>
-      </c>
-      <c r="N53">
-        <v>2.875</v>
-      </c>
-      <c r="O53">
-        <v>3.25</v>
-      </c>
-      <c r="P53">
-        <v>2.2</v>
-      </c>
-      <c r="Q53">
-        <v>0.25</v>
-      </c>
-      <c r="R53">
-        <v>1.775</v>
-      </c>
-      <c r="S53">
-        <v>2.025</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y53">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5440,10 +5440,10 @@
         <v>45145.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6843541</v>
+        <v>6843542</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,49 +5885,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>49</v>
       </c>
       <c r="K61">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5936,7 +5936,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>0.833</v>
+        <v>1.05</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5945,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6843542</v>
+        <v>6843541</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,49 +5974,49 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>49</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>4.2</v>
+      </c>
+      <c r="N62">
+        <v>1.833</v>
+      </c>
+      <c r="O62">
         <v>3.4</v>
       </c>
-      <c r="M62">
-        <v>3.4</v>
-      </c>
-      <c r="N62">
-        <v>2.05</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
         <v>1.925</v>
@@ -6025,7 +6025,7 @@
         <v>1.875</v>
       </c>
       <c r="W62">
-        <v>1.05</v>
+        <v>0.833</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,16 +6034,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45147.375</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
+        <v>2.6</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
         <v>3.25</v>
       </c>
-      <c r="N63">
-        <v>1.833</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,76 +6152,76 @@
         <v>45147.375</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6330,10 +6330,10 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6843549</v>
+        <v>6843548</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,49 +6508,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
         <v>1.8</v>
@@ -6559,25 +6559,25 @@
         <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
         <v>0.8</v>
       </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6843548</v>
+        <v>6843549</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,49 +6597,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
         <v>1.8</v>
@@ -6648,25 +6648,25 @@
         <v>2</v>
       </c>
       <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.2</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.8</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.825</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.8</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>45151.375</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
         <v>45</v>
@@ -7042,10 +7042,10 @@
         <v>45156.20833333334</v>
       </c>
       <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
         <v>40</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s">
         <v>42</v>
       </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N75">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,19 +7188,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O76">
         <v>3.4</v>
       </c>
       <c r="P76">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6843558</v>
+        <v>6843557</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77">
+        <v>2.05</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3.2</v>
+      </c>
+      <c r="N77">
+        <v>2.2</v>
+      </c>
+      <c r="O77">
+        <v>3.4</v>
+      </c>
+      <c r="P77">
         <v>3</v>
       </c>
-      <c r="J77" t="s">
-        <v>47</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77">
-        <v>3.3</v>
-      </c>
-      <c r="M77">
-        <v>2.2</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>2.25</v>
-      </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.975</v>
+      </c>
+      <c r="V77">
         <v>1.825</v>
       </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y77">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.825</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6843557</v>
+        <v>6843558</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
+        <v>1.825</v>
+      </c>
+      <c r="V78">
         <v>1.975</v>
       </c>
-      <c r="V78">
-        <v>1.825</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6843559</v>
+        <v>6843560</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,58 +7487,58 @@
         <v>45157.375</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7547,16 +7547,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6843560</v>
+        <v>6843559</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45157.375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>49</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>49</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>45166.375</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8644,7 +8644,7 @@
         <v>45170.20833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6843572</v>
+        <v>6843578</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
+        <v>2.6</v>
+      </c>
+      <c r="N97">
         <v>2.3</v>
-      </c>
-      <c r="N97">
-        <v>3.4</v>
       </c>
       <c r="O97">
         <v>3.4</v>
       </c>
       <c r="P97">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC97">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6843578</v>
+        <v>6843572</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
+        <v>2.7</v>
+      </c>
+      <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
         <v>2.3</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>2.6</v>
-      </c>
-      <c r="N98">
-        <v>2.3</v>
       </c>
       <c r="O98">
         <v>3.4</v>
       </c>
       <c r="P98">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6843580</v>
+        <v>6843579</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45172.375</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
+        <v>3.6</v>
+      </c>
+      <c r="N99">
+        <v>1.75</v>
+      </c>
+      <c r="O99">
+        <v>3.6</v>
+      </c>
+      <c r="P99">
+        <v>3.8</v>
+      </c>
+      <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.75</v>
+      </c>
+      <c r="S99">
         <v>2.05</v>
       </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>2.375</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6843579</v>
+        <v>6843580</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45172.375</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>2.05</v>
+      </c>
+      <c r="N100">
+        <v>2.625</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>2.375</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K100">
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
       </c>
-      <c r="L100">
-        <v>3.6</v>
-      </c>
-      <c r="M100">
-        <v>3.6</v>
-      </c>
-      <c r="N100">
-        <v>1.75</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>3.8</v>
-      </c>
-      <c r="Q100">
-        <v>-0.75</v>
-      </c>
-      <c r="R100">
-        <v>1.75</v>
-      </c>
-      <c r="S100">
-        <v>2.05</v>
-      </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45184.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9982,7 +9982,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10157,7 +10157,7 @@
         <v>45186.375</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10424,7 +10424,7 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6843593</v>
+        <v>6843594</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,73 +10513,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>3</v>
       </c>
-      <c r="I113">
+      <c r="J113" t="s">
+        <v>47</v>
+      </c>
+      <c r="K113">
+        <v>2.6</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>2.45</v>
+      </c>
+      <c r="N113">
+        <v>2.4</v>
+      </c>
+      <c r="O113">
+        <v>3.1</v>
+      </c>
+      <c r="P113">
+        <v>2.7</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.9</v>
+      </c>
+      <c r="V113">
+        <v>1.9</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.7</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1</v>
       </c>
-      <c r="J113" t="s">
-        <v>49</v>
-      </c>
-      <c r="K113">
-        <v>1.65</v>
-      </c>
-      <c r="L113">
-        <v>3.8</v>
-      </c>
-      <c r="M113">
-        <v>4.2</v>
-      </c>
-      <c r="N113">
-        <v>1.571</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
-      </c>
-      <c r="P113">
-        <v>4.5</v>
-      </c>
-      <c r="Q113">
-        <v>-1</v>
-      </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.95</v>
-      </c>
-      <c r="V113">
-        <v>1.85</v>
-      </c>
-      <c r="W113">
-        <v>0.571</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>0.95</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6843594</v>
+        <v>6843593</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N114">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10958,10 +10958,10 @@
         <v>45194.375</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11228,7 +11228,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843604</v>
+        <v>6843605</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,28 +11314,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N122">
         <v>2.2</v>
@@ -11344,46 +11344,46 @@
         <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
+        <v>1.775</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6843605</v>
+        <v>6843604</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,28 +11403,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N123">
         <v>2.2</v>
@@ -11433,46 +11433,46 @@
         <v>3.2</v>
       </c>
       <c r="P123">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6843606</v>
+        <v>6843607</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45199.375</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6843607</v>
+        <v>6843606</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45199.375</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.775</v>
+      </c>
+      <c r="V125">
         <v>1.925</v>
       </c>
-      <c r="V125">
-        <v>1.875</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.925</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
+        <v>2.4</v>
+      </c>
+      <c r="N128">
+        <v>3.6</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
+        <v>1.85</v>
+      </c>
+      <c r="Q128">
+        <v>0.5</v>
+      </c>
+      <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
         <v>2.75</v>
       </c>
-      <c r="N128">
-        <v>2.9</v>
-      </c>
-      <c r="O128">
-        <v>3.1</v>
-      </c>
-      <c r="P128">
-        <v>2.375</v>
-      </c>
-      <c r="Q128">
-        <v>0.25</v>
-      </c>
-      <c r="R128">
-        <v>1.75</v>
-      </c>
-      <c r="S128">
-        <v>2.05</v>
-      </c>
-      <c r="T128">
-        <v>2.25</v>
-      </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N129">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
+        <v>1.75</v>
+      </c>
+      <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6843611</v>
+        <v>6843610</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45205.375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
+        <v>1.727</v>
+      </c>
+      <c r="N130">
         <v>3.75</v>
       </c>
-      <c r="N130">
-        <v>1.55</v>
-      </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6843610</v>
+        <v>6843611</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45205.375</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12382,7 +12382,7 @@
         <v>45207.20833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6843616</v>
+        <v>6843615</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45207.375</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
+        <v>2.8</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>2.1</v>
+      </c>
+      <c r="N135">
+        <v>2.75</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
         <v>2.15</v>
       </c>
-      <c r="L135">
-        <v>3.2</v>
-      </c>
-      <c r="M135">
-        <v>3</v>
-      </c>
-      <c r="N135">
+      <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
         <v>1.85</v>
       </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>3.8</v>
-      </c>
-      <c r="Q135">
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.8</v>
+      </c>
+      <c r="V135">
+        <v>2</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>1.15</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.95</v>
+      </c>
+      <c r="AB135">
+        <v>0.4</v>
+      </c>
+      <c r="AC135">
         <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.925</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>2.25</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
-      <c r="AA135">
-        <v>0.875</v>
-      </c>
-      <c r="AB135">
-        <v>0.875</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6843615</v>
+        <v>6843616</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>45219.375</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6843621</v>
+        <v>6843620</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,55 +12827,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>48</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L139">
         <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O139">
         <v>3.4</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6843620</v>
+        <v>6843621</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,55 +12916,55 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>45220.375</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
+        <v>1.6</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>4.333</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.3</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>4</v>
-      </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>2.625</v>
+      </c>
+      <c r="N143">
+        <v>2.5</v>
+      </c>
+      <c r="O143">
         <v>3.6</v>
       </c>
-      <c r="M143">
-        <v>4.2</v>
-      </c>
-      <c r="N143">
-        <v>1.6</v>
-      </c>
-      <c r="O143">
-        <v>3.75</v>
-      </c>
       <c r="P143">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6843629</v>
+        <v>6843631</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,13 +13628,13 @@
         <v>45227.375</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -13643,43 +13643,43 @@
         <v>49</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
         <v>4.75</v>
       </c>
-      <c r="M148">
-        <v>6.5</v>
-      </c>
       <c r="N148">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6843631</v>
+        <v>6843629</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
+        <v>6.5</v>
+      </c>
+      <c r="N149">
+        <v>1.363</v>
+      </c>
+      <c r="O149">
         <v>4.75</v>
       </c>
-      <c r="N149">
-        <v>1.65</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13987,7 +13987,7 @@
         <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6954168</v>
+        <v>6953264</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45232.375</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6953264</v>
+        <v>6954168</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N157">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45233.375</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
         <v>36</v>
@@ -14785,7 +14785,7 @@
         <v>45234.375</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P162">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="S162">
-        <v>1.825</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.9</v>
-      </c>
-      <c r="V162">
-        <v>1.9</v>
-      </c>
       <c r="W162">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N163">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O163">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q163">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X163">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15144,7 +15144,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15233,7 +15233,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>49</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O172">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>1.444</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>5.75</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="N173">
-        <v>2.6</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
-      <c r="P173">
-        <v>2.5</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
-      <c r="S173">
-        <v>1.775</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>45257.375</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>30</v>
@@ -16390,7 +16390,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16479,7 +16479,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6953283</v>
+        <v>6954176</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45268.375</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M188">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
         <v>1.95</v>
       </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
       <c r="W188">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.95</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
-      <c r="AC188">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6954176</v>
+        <v>6953283</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45268.375</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N189">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.85</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
         <v>1.825</v>
       </c>
-      <c r="S189">
+      <c r="V189">
         <v>1.975</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>1.95</v>
-      </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X189">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB189">
-        <v>-1</v>
-      </c>
-      <c r="AC189">
-        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>45269.20833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6953285</v>
+        <v>6953286</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,58 +17455,58 @@
         <v>45269.375</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N191">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O191">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P191">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R191">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>1.7</v>
+        <v>0.571</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6953286</v>
+        <v>6953285</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,58 +17544,58 @@
         <v>45269.375</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N192">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P192">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q192">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17604,16 +17604,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6954177</v>
+        <v>6953287</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45270.375</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K194">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
         <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O194">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA194">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6953287</v>
+        <v>6954177</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45270.375</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
         <v>4.5</v>
       </c>
       <c r="N195">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z195">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>45273.33333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K197">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y198">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6953293</v>
+        <v>6953289</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,46 +18256,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L200">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O200">
         <v>3.5</v>
       </c>
       <c r="P200">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T200">
         <v>2.75</v>
@@ -18310,22 +18310,22 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
+        <v>0.825</v>
+      </c>
+      <c r="AB200">
+        <v>0.4875</v>
+      </c>
+      <c r="AC200">
         <v>-0.5</v>
-      </c>
-      <c r="AB200">
-        <v>-1</v>
-      </c>
-      <c r="AC200">
-        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6953289</v>
+        <v>6953293</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,46 +18345,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K201">
+        <v>2.875</v>
+      </c>
+      <c r="L201">
+        <v>3.5</v>
+      </c>
+      <c r="M201">
         <v>2.1</v>
       </c>
-      <c r="L201">
-        <v>3.2</v>
-      </c>
-      <c r="M201">
-        <v>3.1</v>
-      </c>
       <c r="N201">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O201">
         <v>3.5</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T201">
         <v>2.75</v>
@@ -18399,22 +18399,22 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y201">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
+        <v>-0.5</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.825</v>
-      </c>
-      <c r="AB201">
-        <v>0.4875</v>
-      </c>
-      <c r="AC201">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,13 +18434,13 @@
         <v>45277.375</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -18449,43 +18449,43 @@
         <v>49</v>
       </c>
       <c r="K202">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.825</v>
+      </c>
+      <c r="V202">
         <v>1.975</v>
       </c>
-      <c r="S202">
-        <v>1.825</v>
-      </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
       <c r="W202">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18494,16 +18494,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC202">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45277.375</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18538,43 +18538,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
+        <v>4.333</v>
+      </c>
+      <c r="N203">
+        <v>1.727</v>
+      </c>
+      <c r="O203">
+        <v>3.6</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
         <v>2.75</v>
       </c>
-      <c r="N203">
-        <v>2.1</v>
-      </c>
-      <c r="O203">
-        <v>3.4</v>
-      </c>
-      <c r="P203">
-        <v>2.875</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.875</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
       <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
         <v>1.825</v>
       </c>
-      <c r="V203">
-        <v>1.975</v>
-      </c>
       <c r="W203">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,16 +18583,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18790,7 +18790,7 @@
         <v>45321.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
         <v>37</v>
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6953296</v>
+        <v>6953295</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19060,10 +19060,10 @@
         <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -19072,43 +19072,43 @@
         <v>49</v>
       </c>
       <c r="K209">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6953295</v>
+        <v>6953296</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,10 +19149,10 @@
         <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -19161,43 +19161,43 @@
         <v>49</v>
       </c>
       <c r="K210">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N210">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
-      <c r="AB210">
-        <v>-1</v>
-      </c>
       <c r="AC210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>45328.375</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
         <v>36</v>
@@ -19861,7 +19861,7 @@
         <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20125,10 +20125,10 @@
         <v>45345.20833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20481,7 +20481,7 @@
         <v>45346.375</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>
@@ -20748,7 +20748,7 @@
         <v>45348.375</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G228" t="s">
         <v>46</v>
@@ -20840,7 +20840,7 @@
         <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -21193,10 +21193,10 @@
         <v>45350.375</v>
       </c>
       <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
         <v>41</v>
-      </c>
-      <c r="G233" t="s">
-        <v>40</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21549,10 +21549,10 @@
         <v>45353.20833333334</v>
       </c>
       <c r="F237" t="s">
+        <v>43</v>
+      </c>
+      <c r="G237" t="s">
         <v>42</v>
-      </c>
-      <c r="G237" t="s">
-        <v>43</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21727,7 +21727,7 @@
         <v>45354.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
         <v>38</v>
@@ -22086,7 +22086,7 @@
         <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22175,7 +22175,7 @@
         <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H244">
         <v>3</v>
@@ -22439,10 +22439,10 @@
         <v>45358.375</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22617,7 +22617,7 @@
         <v>45359.20833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
         <v>38</v>
@@ -22864,6 +22864,95 @@
         <v>0.4125</v>
       </c>
       <c r="AC251">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6962327</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F252" t="s">
+        <v>30</v>
+      </c>
+      <c r="G252" t="s">
+        <v>33</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.1</v>
+      </c>
+      <c r="N252">
+        <v>1.833</v>
+      </c>
+      <c r="O252">
+        <v>3.5</v>
+      </c>
+      <c r="P252">
+        <v>3.5</v>
+      </c>
+      <c r="Q252">
+        <v>-0.5</v>
+      </c>
+      <c r="R252">
+        <v>1.9</v>
+      </c>
+      <c r="S252">
+        <v>1.9</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>1.975</v>
+      </c>
+      <c r="W252">
+        <v>0.833</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA252">
+        <v>-1</v>
+      </c>
+      <c r="AB252">
+        <v>0.4125</v>
+      </c>
+      <c r="AC252">
         <v>-0.5</v>
       </c>
     </row>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>PS Barito Putera</t>
   </si>
   <si>
-    <t>RANS Nusantara</t>
+    <t>Persik Kediri</t>
   </si>
   <si>
-    <t>Persik Kediri</t>
+    <t>RANS Nusantara</t>
   </si>
   <si>
     <t>Persija Jakarta</t>
@@ -136,10 +136,10 @@
     <t>Arema FC</t>
   </si>
   <si>
-    <t>PSM Makassar</t>
+    <t>Persebaya Surabaya</t>
   </si>
   <si>
-    <t>Persebaya Surabaya</t>
+    <t>PSM Makassar</t>
   </si>
   <si>
     <t>Borneo FC</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC252"/>
+  <dimension ref="A1:AC261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6843488</v>
+        <v>6843487</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6843487</v>
+        <v>6843488</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>1.909</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
         <v>3.25</v>
       </c>
-      <c r="M8">
-        <v>2.4</v>
-      </c>
-      <c r="N8">
-        <v>2.7</v>
-      </c>
-      <c r="O8">
-        <v>3.1</v>
-      </c>
       <c r="P8">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6843492</v>
+        <v>6843493</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O13">
+        <v>3.75</v>
+      </c>
+      <c r="P13">
         <v>4.333</v>
       </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y13">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6843493</v>
+        <v>6843492</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6843500</v>
+        <v>6843499</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.8</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6843499</v>
+        <v>6843500</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
+        <v>1.65</v>
+      </c>
+      <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>1.909</v>
+      </c>
+      <c r="O21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>3.4</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>3.2</v>
+      </c>
+      <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
-      </c>
-      <c r="N21">
-        <v>3.2</v>
-      </c>
-      <c r="O21">
-        <v>3.3</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>0.8</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2592,7 +2592,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6843505</v>
+        <v>6843506</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>45122.375</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2696,43 +2696,43 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
         <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O25">
         <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,16 +2741,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6843506</v>
+        <v>6843505</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,10 +2770,10 @@
         <v>45122.375</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2785,61 +2785,61 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3.5</v>
       </c>
       <c r="M26">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
+        <v>1.8</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.875</v>
-      </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6843514</v>
+        <v>6843515</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>1.65</v>
+      </c>
+      <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>4.25</v>
+      </c>
+      <c r="N34">
+        <v>1.444</v>
+      </c>
+      <c r="O34">
+        <v>4.2</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>-1.25</v>
+      </c>
+      <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
         <v>1.85</v>
-      </c>
-      <c r="L34">
-        <v>3.25</v>
-      </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3.1</v>
-      </c>
-      <c r="P34">
-        <v>3.1</v>
-      </c>
-      <c r="Q34">
-        <v>-0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.9</v>
-      </c>
-      <c r="S34">
-        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6843515</v>
+        <v>6843514</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,73 +3571,73 @@
         <v>45129.375</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
         <v>3.75</v>
       </c>
-      <c r="M35">
-        <v>4.25</v>
-      </c>
       <c r="N35">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3660,10 +3660,10 @@
         <v>45130.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4016,7 +4016,7 @@
         <v>45135.375</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4197,7 +4197,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6990973</v>
+        <v>6843524</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N43">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6843524</v>
+        <v>6990973</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>48</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4639,10 +4639,10 @@
         <v>45141.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6843529</v>
+        <v>6843528</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N48">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y48">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6843528</v>
+        <v>6843529</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45141.375</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5176,7 +5176,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45147.375</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,76 +6152,76 @@
         <v>45147.375</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L64">
         <v>3.25</v>
       </c>
       <c r="M64">
+        <v>2.6</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
         <v>3.25</v>
       </c>
-      <c r="N64">
-        <v>1.833</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
       <c r="P64">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6330,7 +6330,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6419,7 +6419,7 @@
         <v>45150.375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6843548</v>
+        <v>6843549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,49 +6508,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
         <v>1.8</v>
@@ -6559,25 +6559,25 @@
         <v>2</v>
       </c>
       <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>3.2</v>
+      </c>
+      <c r="Y68">
+        <v>-1</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.8</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
-      <c r="Z68">
-        <v>0.825</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>0.8</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6843549</v>
+        <v>6843548</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,49 +6597,49 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.8</v>
@@ -6648,25 +6648,25 @@
         <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.8</v>
       </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>45156.20833333334</v>
       </c>
       <c r="F74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s">
         <v>41</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6843555</v>
+        <v>6843556</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45156.375</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,19 +7188,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6843556</v>
+        <v>6843555</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O76">
         <v>3.4</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6843557</v>
+        <v>6843558</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="V77">
-        <v>1.825</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6843558</v>
+        <v>6843557</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78">
+        <v>2.05</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>3.2</v>
+      </c>
+      <c r="N78">
+        <v>2.2</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
-      <c r="M78">
-        <v>2.2</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
-      <c r="P78">
-        <v>2.25</v>
-      </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.975</v>
+      </c>
+      <c r="V78">
         <v>1.825</v>
       </c>
-      <c r="V78">
-        <v>1.975</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y78">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.825</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6843564</v>
+        <v>6843563</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,61 +7843,61 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N83">
+        <v>1.6</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>-1</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>2.75</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>4</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -7906,13 +7906,13 @@
         <v>-1</v>
       </c>
       <c r="AA83">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6843563</v>
+        <v>6843564</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,62 +7932,62 @@
         <v>45163.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
+        <v>3.75</v>
+      </c>
+      <c r="P84">
         <v>4</v>
       </c>
-      <c r="P84">
-        <v>5</v>
-      </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
-      <c r="T84">
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.75</v>
       </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>3</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
@@ -7995,13 +7995,13 @@
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>49</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>49</v>
       </c>
       <c r="K86">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8555,7 +8555,7 @@
         <v>45166.375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6843575</v>
+        <v>6843576</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8867,31 +8867,31 @@
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6843576</v>
+        <v>6843575</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,40 +8911,40 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.85</v>
@@ -8956,31 +8956,31 @@
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6843579</v>
+        <v>6843580</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45172.375</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>2.05</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.375</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>49</v>
-      </c>
-      <c r="K99">
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
-      <c r="M99">
-        <v>3.6</v>
-      </c>
-      <c r="N99">
-        <v>1.75</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>3.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.75</v>
-      </c>
-      <c r="S99">
-        <v>2.05</v>
-      </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6843580</v>
+        <v>6843579</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45172.375</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
+        <v>3.6</v>
+      </c>
+      <c r="N100">
+        <v>1.75</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
+        <v>3.8</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.75</v>
+      </c>
+      <c r="S100">
         <v>2.05</v>
       </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>2.375</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45184.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6843582</v>
+        <v>6843583</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,28 +9534,28 @@
         <v>45184.375</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N102">
         <v>1.727</v>
@@ -9564,7 +9564,7 @@
         <v>3.75</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
         <v>-0.75</v>
@@ -9576,7 +9576,7 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1.925</v>
@@ -9588,10 +9588,10 @@
         <v>-1</v>
       </c>
       <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>2.75</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6843583</v>
+        <v>6843582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,28 +9623,28 @@
         <v>45184.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N103">
         <v>1.727</v>
@@ -9653,7 +9653,7 @@
         <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
@@ -9665,7 +9665,7 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.925</v>
@@ -9677,10 +9677,10 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W104">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N105">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X105">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9982,7 +9982,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6843588</v>
+        <v>6843589</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45186.375</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N108">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q108">
+        <v>-1</v>
+      </c>
+      <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
+        <v>1.95</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
+        <v>1.975</v>
+      </c>
+      <c r="W108">
+        <v>0.5</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
         <v>0</v>
       </c>
-      <c r="R108">
-        <v>2.075</v>
-      </c>
-      <c r="S108">
-        <v>1.725</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>1.9</v>
-      </c>
-      <c r="V108">
-        <v>1.9</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>1.25</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6843589</v>
+        <v>6843588</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45186.375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
+        <v>2.4</v>
+      </c>
+      <c r="L109">
+        <v>3.4</v>
+      </c>
+      <c r="M109">
+        <v>2.5</v>
+      </c>
+      <c r="N109">
+        <v>2.7</v>
+      </c>
+      <c r="O109">
+        <v>3.25</v>
+      </c>
+      <c r="P109">
+        <v>2.25</v>
+      </c>
+      <c r="Q109">
         <v>0</v>
       </c>
-      <c r="J109" t="s">
-        <v>49</v>
-      </c>
-      <c r="K109">
-        <v>1.444</v>
-      </c>
-      <c r="L109">
-        <v>4.2</v>
-      </c>
-      <c r="M109">
-        <v>5.5</v>
-      </c>
-      <c r="N109">
-        <v>1.5</v>
-      </c>
-      <c r="O109">
-        <v>4.2</v>
-      </c>
-      <c r="P109">
-        <v>5</v>
-      </c>
-      <c r="Q109">
-        <v>-1</v>
-      </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10246,7 +10246,7 @@
         <v>45191.20833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>30</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6843592</v>
+        <v>6843591</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,10 +10335,10 @@
         <v>45191.375</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10350,43 +10350,43 @@
         <v>49</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L111">
+        <v>3.25</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
         <v>3.3</v>
       </c>
-      <c r="M111">
-        <v>2.8</v>
-      </c>
-      <c r="N111">
-        <v>1.909</v>
-      </c>
-      <c r="O111">
-        <v>3.4</v>
-      </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
         <v>1.875</v>
       </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,7 +10395,7 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10404,7 +10404,7 @@
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6843591</v>
+        <v>6843592</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,10 +10424,10 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10439,43 +10439,43 @@
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
         <v>3.3</v>
       </c>
-      <c r="P112">
-        <v>3.2</v>
-      </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.875</v>
+      </c>
+      <c r="V112">
         <v>1.925</v>
       </c>
-      <c r="V112">
-        <v>1.875</v>
-      </c>
       <c r="W112">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,7 +10484,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10602,7 +10602,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
         <v>39</v>
@@ -10961,7 +10961,7 @@
         <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6843602</v>
+        <v>6843605</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,10 +11225,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11240,58 +11240,58 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L121">
+        <v>3.3</v>
+      </c>
+      <c r="M121">
+        <v>2.55</v>
+      </c>
+      <c r="N121">
+        <v>2.2</v>
+      </c>
+      <c r="O121">
         <v>3.2</v>
       </c>
-      <c r="M121">
-        <v>3.1</v>
-      </c>
-      <c r="N121">
-        <v>1.8</v>
-      </c>
-      <c r="O121">
-        <v>3.3</v>
-      </c>
       <c r="P121">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W121">
+        <v>1.2</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>1.025</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.8</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.4375</v>
-      </c>
-      <c r="AA121">
-        <v>-0.5</v>
-      </c>
-      <c r="AB121">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843605</v>
+        <v>6843604</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,28 +11314,28 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N122">
         <v>2.2</v>
@@ -11344,46 +11344,46 @@
         <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6843604</v>
+        <v>6843602</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X123">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
+        <v>0.4375</v>
+      </c>
+      <c r="AA123">
         <v>-0.5</v>
       </c>
-      <c r="AA123">
-        <v>0.4</v>
-      </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6843607</v>
+        <v>6843606</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45199.375</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
+        <v>1.775</v>
+      </c>
+      <c r="V124">
         <v>1.925</v>
       </c>
-      <c r="V124">
-        <v>1.875</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.925</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6843606</v>
+        <v>6843607</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45199.375</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6843608</v>
+        <v>6843609</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P128">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.75</v>
+      </c>
+      <c r="S128">
+        <v>2.05</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6843609</v>
+        <v>6843608</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
+        <v>2.4</v>
+      </c>
+      <c r="N129">
+        <v>3.6</v>
+      </c>
+      <c r="O129">
+        <v>3.4</v>
+      </c>
+      <c r="P129">
+        <v>1.85</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.925</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
         <v>2.75</v>
       </c>
-      <c r="N129">
-        <v>2.9</v>
-      </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
-      <c r="P129">
-        <v>2.375</v>
-      </c>
-      <c r="Q129">
-        <v>0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.75</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12204,7 +12204,7 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12382,7 +12382,7 @@
         <v>45207.20833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6843615</v>
+        <v>6843616</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45207.375</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N135">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6843616</v>
+        <v>6843615</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
+        <v>2.8</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>2.1</v>
+      </c>
+      <c r="N136">
+        <v>2.75</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
         <v>2.15</v>
       </c>
-      <c r="L136">
-        <v>3.2</v>
-      </c>
-      <c r="M136">
-        <v>3</v>
-      </c>
-      <c r="N136">
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
         <v>1.85</v>
       </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>3.8</v>
-      </c>
-      <c r="Q136">
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.15</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.95</v>
+      </c>
+      <c r="AB136">
+        <v>0.4</v>
+      </c>
+      <c r="AC136">
         <v>-0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>2.25</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>0.875</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>45219.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12919,7 +12919,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13275,7 +13275,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13361,10 +13361,10 @@
         <v>45226.20833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13984,10 +13984,10 @@
         <v>45229.20833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14607,7 +14607,7 @@
         <v>45233.375</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
         <v>36</v>
@@ -14699,7 +14699,7 @@
         <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6954169</v>
+        <v>6953267</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N162">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O162">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q162">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X162">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6953267</v>
+        <v>6954169</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M163">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N163">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P163">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
+        <v>1.825</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15144,7 +15144,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15408,7 +15408,7 @@
         <v>45239.375</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
@@ -15589,7 +15589,7 @@
         <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>49</v>
       </c>
       <c r="K172">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>1.444</v>
+      </c>
+      <c r="O172">
+        <v>4.5</v>
+      </c>
+      <c r="P172">
+        <v>5.75</v>
+      </c>
+      <c r="Q172">
+        <v>-1.25</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.925</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="N172">
-        <v>2.6</v>
-      </c>
-      <c r="O172">
-        <v>3.2</v>
-      </c>
-      <c r="P172">
-        <v>2.5</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>2.025</v>
-      </c>
-      <c r="S172">
-        <v>1.775</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16387,10 +16387,10 @@
         <v>45261.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16565,7 +16565,7 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
         <v>32</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6954172</v>
+        <v>6954173</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,40 +16654,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182" t="s">
+        <v>48</v>
+      </c>
+      <c r="K182">
+        <v>2.3</v>
+      </c>
+      <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
+        <v>2.6</v>
+      </c>
+      <c r="N182">
+        <v>2.55</v>
+      </c>
+      <c r="O182">
+        <v>3.5</v>
+      </c>
+      <c r="P182">
+        <v>2.3</v>
+      </c>
+      <c r="Q182">
         <v>0</v>
-      </c>
-      <c r="J182" t="s">
-        <v>49</v>
-      </c>
-      <c r="K182">
-        <v>1.444</v>
-      </c>
-      <c r="L182">
-        <v>4</v>
-      </c>
-      <c r="M182">
-        <v>6</v>
-      </c>
-      <c r="N182">
-        <v>1.363</v>
-      </c>
-      <c r="O182">
-        <v>4.75</v>
-      </c>
-      <c r="P182">
-        <v>6.5</v>
-      </c>
-      <c r="Q182">
-        <v>-1.5</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16696,34 +16696,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6954173</v>
+        <v>6954172</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,40 +16743,40 @@
         <v>45263.20833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N183">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P183">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R183">
         <v>1.975</v>
@@ -16785,34 +16785,34 @@
         <v>1.825</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X183">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17188,7 +17188,7 @@
         <v>45268.375</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
         <v>46</v>
@@ -17280,7 +17280,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17366,7 +17366,7 @@
         <v>45269.20833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6953286</v>
+        <v>6953285</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,58 +17455,58 @@
         <v>45269.375</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N191">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P191">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6953285</v>
+        <v>6953286</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,58 +17544,58 @@
         <v>45269.375</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N192">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>1.7</v>
+        <v>0.571</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17604,16 +17604,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17900,7 +17900,7 @@
         <v>45273.33333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6953292</v>
+        <v>6953290</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N197">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6953290</v>
+        <v>6953292</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45276.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6953289</v>
+        <v>6953293</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,46 +18256,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K200">
+        <v>2.875</v>
+      </c>
+      <c r="L200">
+        <v>3.5</v>
+      </c>
+      <c r="M200">
         <v>2.1</v>
       </c>
-      <c r="L200">
-        <v>3.2</v>
-      </c>
-      <c r="M200">
-        <v>3.1</v>
-      </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O200">
         <v>3.5</v>
       </c>
       <c r="P200">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.75</v>
@@ -18310,22 +18310,22 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y200">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.825</v>
-      </c>
-      <c r="AB200">
-        <v>0.4875</v>
-      </c>
-      <c r="AC200">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6953293</v>
+        <v>6953289</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,46 +18345,46 @@
         <v>45277.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N201">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O201">
         <v>3.5</v>
       </c>
       <c r="P201">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
         <v>2.75</v>
@@ -18399,22 +18399,22 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.825</v>
+      </c>
+      <c r="AB201">
+        <v>0.4875</v>
+      </c>
+      <c r="AC201">
         <v>-0.5</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6953294</v>
+        <v>6953310</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,13 +18434,13 @@
         <v>45277.375</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -18449,43 +18449,43 @@
         <v>49</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
+        <v>4.333</v>
+      </c>
+      <c r="N202">
+        <v>1.727</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>4</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
         <v>2.75</v>
       </c>
-      <c r="N202">
-        <v>2.1</v>
-      </c>
-      <c r="O202">
-        <v>3.4</v>
-      </c>
-      <c r="P202">
-        <v>2.875</v>
-      </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
       <c r="U202">
+        <v>1.975</v>
+      </c>
+      <c r="V202">
         <v>1.825</v>
       </c>
-      <c r="V202">
-        <v>1.975</v>
-      </c>
       <c r="W202">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18494,16 +18494,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.825</v>
-      </c>
-      <c r="AC202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6953310</v>
+        <v>6953294</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45277.375</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18538,43 +18538,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
+        <v>1.925</v>
+      </c>
+      <c r="S203">
+        <v>1.875</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
         <v>1.975</v>
       </c>
-      <c r="S203">
-        <v>1.825</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>1.825</v>
-      </c>
       <c r="W203">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,16 +18583,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18612,10 +18612,10 @@
         <v>45278.20833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18790,7 +18790,7 @@
         <v>45321.20833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
         <v>37</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7782795</v>
+        <v>6953295</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N208">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6953295</v>
+        <v>7782795</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K209">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N209">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
+        <v>1.975</v>
+      </c>
+      <c r="S209">
+        <v>1.825</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
         <v>1.85</v>
       </c>
-      <c r="S209">
+      <c r="V209">
         <v>1.95</v>
       </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
-      <c r="U209">
-        <v>1.9</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
       <c r="W209">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.825</v>
+      </c>
+      <c r="AB209">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>45326.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
         <v>43</v>
@@ -19413,7 +19413,7 @@
         <v>45327.375</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
         <v>29</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6953311</v>
+        <v>6953298</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19517,58 +19517,58 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>3.75</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
         <v>1.95</v>
       </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
-      <c r="P214">
-        <v>3.3</v>
-      </c>
-      <c r="Q214">
-        <v>-0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.75</v>
-      </c>
-      <c r="S214">
-        <v>1.95</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.825</v>
-      </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6953298</v>
+        <v>6953311</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45328.20833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19606,58 +19606,58 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N215">
+        <v>1.95</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>3.3</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
         <v>1.75</v>
       </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>3.75</v>
-      </c>
-      <c r="Q215">
+      <c r="S215">
+        <v>1.95</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
+        <v>1.975</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>2.4</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
         <v>-0.5</v>
       </c>
-      <c r="R215">
-        <v>1.8</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>2.6</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
       <c r="AA215">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB215">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19947,7 +19947,7 @@
         <v>45344.375</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20128,7 +20128,7 @@
         <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20395,7 +20395,7 @@
         <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20481,7 +20481,7 @@
         <v>45346.375</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>5</v>
@@ -21104,7 +21104,7 @@
         <v>45350.20833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
         <v>33</v>
@@ -21193,10 +21193,10 @@
         <v>45350.375</v>
       </c>
       <c r="F233" t="s">
+        <v>41</v>
+      </c>
+      <c r="G233" t="s">
         <v>40</v>
-      </c>
-      <c r="G233" t="s">
-        <v>41</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21727,7 +21727,7 @@
         <v>45354.20833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
         <v>38</v>
@@ -21819,7 +21819,7 @@
         <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21905,7 +21905,7 @@
         <v>45354.375</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
         <v>31</v>
@@ -22086,7 +22086,7 @@
         <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22442,7 +22442,7 @@
         <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22528,10 +22528,10 @@
         <v>45359.20833333334</v>
       </c>
       <c r="F248" t="s">
+        <v>34</v>
+      </c>
+      <c r="G248" t="s">
         <v>35</v>
-      </c>
-      <c r="G248" t="s">
-        <v>34</v>
       </c>
       <c r="H248">
         <v>4</v>
@@ -22617,7 +22617,7 @@
         <v>45359.20833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
         <v>38</v>
@@ -22954,6 +22954,777 @@
       </c>
       <c r="AC252">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6962330</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45364.4375</v>
+      </c>
+      <c r="F253" t="s">
+        <v>43</v>
+      </c>
+      <c r="G253" t="s">
+        <v>39</v>
+      </c>
+      <c r="H253">
+        <v>4</v>
+      </c>
+      <c r="I253">
+        <v>3</v>
+      </c>
+      <c r="J253" t="s">
+        <v>49</v>
+      </c>
+      <c r="K253">
+        <v>1.95</v>
+      </c>
+      <c r="L253">
+        <v>3.4</v>
+      </c>
+      <c r="M253">
+        <v>3.25</v>
+      </c>
+      <c r="N253">
+        <v>2.2</v>
+      </c>
+      <c r="O253">
+        <v>3.4</v>
+      </c>
+      <c r="P253">
+        <v>2.75</v>
+      </c>
+      <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
+        <v>1.75</v>
+      </c>
+      <c r="T253">
+        <v>2.75</v>
+      </c>
+      <c r="U253">
+        <v>1.8</v>
+      </c>
+      <c r="V253">
+        <v>2</v>
+      </c>
+      <c r="W253">
+        <v>1.2</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
+        <v>-1</v>
+      </c>
+      <c r="Z253">
+        <v>0.95</v>
+      </c>
+      <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>0.8</v>
+      </c>
+      <c r="AC253">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>6962329</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45364.4375</v>
+      </c>
+      <c r="F254" t="s">
+        <v>40</v>
+      </c>
+      <c r="G254" t="s">
+        <v>44</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254" t="s">
+        <v>48</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>3.1</v>
+      </c>
+      <c r="N254">
+        <v>2.05</v>
+      </c>
+      <c r="O254">
+        <v>3.4</v>
+      </c>
+      <c r="P254">
+        <v>3</v>
+      </c>
+      <c r="Q254">
+        <v>-0.5</v>
+      </c>
+      <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
+        <v>1.75</v>
+      </c>
+      <c r="T254">
+        <v>2.75</v>
+      </c>
+      <c r="U254">
+        <v>1.925</v>
+      </c>
+      <c r="V254">
+        <v>1.775</v>
+      </c>
+      <c r="W254">
+        <v>-1</v>
+      </c>
+      <c r="X254">
+        <v>2.4</v>
+      </c>
+      <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>-1</v>
+      </c>
+      <c r="AA254">
+        <v>0.75</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>6962332</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45365.4375</v>
+      </c>
+      <c r="F255" t="s">
+        <v>38</v>
+      </c>
+      <c r="G255" t="s">
+        <v>42</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>47</v>
+      </c>
+      <c r="K255">
+        <v>4</v>
+      </c>
+      <c r="L255">
+        <v>3.25</v>
+      </c>
+      <c r="M255">
+        <v>1.8</v>
+      </c>
+      <c r="N255">
+        <v>3.25</v>
+      </c>
+      <c r="O255">
+        <v>3.3</v>
+      </c>
+      <c r="P255">
+        <v>2</v>
+      </c>
+      <c r="Q255">
+        <v>0.5</v>
+      </c>
+      <c r="R255">
+        <v>1.75</v>
+      </c>
+      <c r="S255">
+        <v>1.95</v>
+      </c>
+      <c r="T255">
+        <v>2.75</v>
+      </c>
+      <c r="U255">
+        <v>1.8</v>
+      </c>
+      <c r="V255">
+        <v>2</v>
+      </c>
+      <c r="W255">
+        <v>-1</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
+        <v>1</v>
+      </c>
+      <c r="Z255">
+        <v>-1</v>
+      </c>
+      <c r="AA255">
+        <v>0.95</v>
+      </c>
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>6962334</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45366.4375</v>
+      </c>
+      <c r="F256" t="s">
+        <v>45</v>
+      </c>
+      <c r="G256" t="s">
+        <v>31</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>3</v>
+      </c>
+      <c r="J256" t="s">
+        <v>47</v>
+      </c>
+      <c r="K256">
+        <v>4.333</v>
+      </c>
+      <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>1.615</v>
+      </c>
+      <c r="N256">
+        <v>5.75</v>
+      </c>
+      <c r="O256">
+        <v>4</v>
+      </c>
+      <c r="P256">
+        <v>1.5</v>
+      </c>
+      <c r="Q256">
+        <v>1.25</v>
+      </c>
+      <c r="R256">
+        <v>1.8</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>3</v>
+      </c>
+      <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
+        <v>1.95</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>0.5</v>
+      </c>
+      <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
+        <v>1</v>
+      </c>
+      <c r="AB256">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC256">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>6962333</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45366.4375</v>
+      </c>
+      <c r="F257" t="s">
+        <v>33</v>
+      </c>
+      <c r="G257" t="s">
+        <v>41</v>
+      </c>
+      <c r="H257">
+        <v>3</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>49</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>3.6</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>2.625</v>
+      </c>
+      <c r="O257">
+        <v>3.5</v>
+      </c>
+      <c r="P257">
+        <v>2.3</v>
+      </c>
+      <c r="Q257">
+        <v>0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.725</v>
+      </c>
+      <c r="S257">
+        <v>1.975</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.85</v>
+      </c>
+      <c r="V257">
+        <v>1.95</v>
+      </c>
+      <c r="W257">
+        <v>1.625</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA257">
+        <v>-1</v>
+      </c>
+      <c r="AB257">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC257">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>6962335</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F258" t="s">
+        <v>36</v>
+      </c>
+      <c r="G258" t="s">
+        <v>34</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258">
+        <v>1.909</v>
+      </c>
+      <c r="L258">
+        <v>3.4</v>
+      </c>
+      <c r="M258">
+        <v>3.4</v>
+      </c>
+      <c r="N258">
+        <v>2.1</v>
+      </c>
+      <c r="O258">
+        <v>3.3</v>
+      </c>
+      <c r="P258">
+        <v>3.1</v>
+      </c>
+      <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>1.9</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
+        <v>2.75</v>
+      </c>
+      <c r="U258">
+        <v>1.925</v>
+      </c>
+      <c r="V258">
+        <v>1.875</v>
+      </c>
+      <c r="W258">
+        <v>1.1</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA258">
+        <v>-1</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>6962336</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F259" t="s">
+        <v>46</v>
+      </c>
+      <c r="G259" t="s">
+        <v>32</v>
+      </c>
+      <c r="H259">
+        <v>2</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259" t="s">
+        <v>47</v>
+      </c>
+      <c r="K259">
+        <v>2.3</v>
+      </c>
+      <c r="L259">
+        <v>3.3</v>
+      </c>
+      <c r="M259">
+        <v>2.625</v>
+      </c>
+      <c r="N259">
+        <v>2.375</v>
+      </c>
+      <c r="O259">
+        <v>3.4</v>
+      </c>
+      <c r="P259">
+        <v>2.5</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>1.85</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.825</v>
+      </c>
+      <c r="V259">
+        <v>1.975</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
+        <v>1.5</v>
+      </c>
+      <c r="Z259">
+        <v>-1</v>
+      </c>
+      <c r="AA259">
+        <v>0.95</v>
+      </c>
+      <c r="AB259">
+        <v>0.825</v>
+      </c>
+      <c r="AC259">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7961721</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45368.4375</v>
+      </c>
+      <c r="F260" t="s">
+        <v>37</v>
+      </c>
+      <c r="G260" t="s">
+        <v>30</v>
+      </c>
+      <c r="K260">
+        <v>1.909</v>
+      </c>
+      <c r="L260">
+        <v>3.6</v>
+      </c>
+      <c r="M260">
+        <v>3.2</v>
+      </c>
+      <c r="N260">
+        <v>1.909</v>
+      </c>
+      <c r="O260">
+        <v>3.6</v>
+      </c>
+      <c r="P260">
+        <v>3.2</v>
+      </c>
+      <c r="Q260">
+        <v>-0.5</v>
+      </c>
+      <c r="R260">
+        <v>1.975</v>
+      </c>
+      <c r="S260">
+        <v>1.825</v>
+      </c>
+      <c r="T260">
+        <v>3</v>
+      </c>
+      <c r="U260">
+        <v>1.975</v>
+      </c>
+      <c r="V260">
+        <v>1.825</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>6962337</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45368.4375</v>
+      </c>
+      <c r="F261" t="s">
+        <v>35</v>
+      </c>
+      <c r="G261" t="s">
+        <v>29</v>
+      </c>
+      <c r="K261">
+        <v>3.4</v>
+      </c>
+      <c r="L261">
+        <v>3.4</v>
+      </c>
+      <c r="M261">
+        <v>1.909</v>
+      </c>
+      <c r="N261">
+        <v>3.5</v>
+      </c>
+      <c r="O261">
+        <v>3.5</v>
+      </c>
+      <c r="P261">
+        <v>1.833</v>
+      </c>
+      <c r="Q261">
+        <v>0.5</v>
+      </c>
+      <c r="R261">
+        <v>1.925</v>
+      </c>
+      <c r="S261">
+        <v>1.875</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
+        <v>1.8</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesia Liga 1/Indonesia Liga 1.xlsx
+++ b/Indonesia Liga 1/Indonesia Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Persis Solo</t>
   </si>
   <si>
-    <t>Persib Bandung</t>
+    <t>Dewa United FC</t>
   </si>
   <si>
-    <t>Dewa United FC</t>
+    <t>Persib Bandung</t>
   </si>
   <si>
     <t>PS Barito Putera</t>
@@ -124,10 +124,10 @@
     <t>RANS Nusantara</t>
   </si>
   <si>
-    <t>Persija Jakarta</t>
+    <t>PSIS Semarang</t>
   </si>
   <si>
-    <t>PSIS Semarang</t>
+    <t>Persija Jakarta</t>
   </si>
   <si>
     <t>PSS Sleman</t>
@@ -151,19 +151,19 @@
     <t>Madura United</t>
   </si>
   <si>
-    <t>Persikabo 1973</t>
+    <t>Bhayangkara Surabaya United</t>
   </si>
   <si>
-    <t>Bhayangkara Surabaya United</t>
+    <t>Persikabo 1973</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC261"/>
+  <dimension ref="A1:AC263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6843484</v>
+        <v>6843483</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6843483</v>
+        <v>6843484</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N5">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.95</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.6</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>3.3</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6849109</v>
+        <v>6843489</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,10 +1260,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1272,34 +1272,34 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
         <v>1.925</v>
       </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>1.975</v>
@@ -1308,25 +1308,25 @@
         <v>1.825</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6843489</v>
+        <v>6849109</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,10 +1349,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1361,34 +1361,34 @@
         <v>49</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
         <v>1.875</v>
       </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.975</v>
@@ -1397,25 +1397,25 @@
         <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>3.6</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>2.2</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6843497</v>
+        <v>6843498</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18">
+        <v>1.285</v>
+      </c>
+      <c r="L18">
+        <v>5.25</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1.65</v>
+      </c>
+      <c r="O18">
+        <v>4.2</v>
+      </c>
+      <c r="P18">
+        <v>3.8</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>2.075</v>
+      </c>
+      <c r="S18">
+        <v>1.725</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
+        <v>1.875</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>2.8</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>3.25</v>
-      </c>
-      <c r="L18">
-        <v>3.25</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>3.4</v>
-      </c>
-      <c r="P18">
-        <v>1.727</v>
-      </c>
-      <c r="Q18">
-        <v>0.75</v>
-      </c>
-      <c r="R18">
-        <v>1.75</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.9</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>2.4</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.75</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6843498</v>
+        <v>6843497</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L19">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y19">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>45121.20833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>1.65</v>
@@ -2414,11 +2414,11 @@
         <v>45121.375</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
       <c r="H22">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6843503</v>
+        <v>6843504</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,40 +2503,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
         <v>1.775</v>
@@ -2545,34 +2545,34 @@
         <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6843504</v>
+        <v>6843503</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,40 +2592,40 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
         <v>1.775</v>
@@ -2634,34 +2634,34 @@
         <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>1.833</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2859,7 +2859,7 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2948,10 +2948,10 @@
         <v>45123.375</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.444</v>
@@ -3040,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.666</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6843512</v>
+        <v>6843511</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45128.375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
+        <v>3.5</v>
+      </c>
+      <c r="P31">
+        <v>1.75</v>
+      </c>
+      <c r="Q31">
+        <v>0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="P31">
-        <v>2.625</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1.9</v>
-      </c>
-      <c r="S31">
-        <v>1.9</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6843511</v>
+        <v>6843512</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45128.375</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.975</v>
-      </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>3.5</v>
@@ -3482,10 +3482,10 @@
         <v>45129.375</v>
       </c>
       <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
         <v>46</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3574,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>1.85</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>1.5</v>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3838,7 +3838,7 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3927,7 +3927,7 @@
         <v>45135.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>2.7</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>45136.375</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>2.6</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6843524</v>
+        <v>6990973</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6990973</v>
+        <v>6843524</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45137.20833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N44">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>45137.375</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.615</v>
@@ -4728,7 +4728,7 @@
         <v>45141.375</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>1.909</v>
@@ -4820,7 +4820,7 @@
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6843530</v>
+        <v>6843531</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.925</v>
@@ -4951,31 +4951,31 @@
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y50">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6843531</v>
+        <v>6843530</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45142.20833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5040,31 +5040,31 @@
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.875</v>
+      </c>
+      <c r="AB51">
+        <v>0.4375</v>
+      </c>
+      <c r="AC51">
         <v>-0.5</v>
-      </c>
-      <c r="AA51">
-        <v>0.4375</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6843532</v>
+        <v>6843533</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45142.375</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52">
+        <v>1.3</v>
+      </c>
+      <c r="L52">
+        <v>4.75</v>
+      </c>
+      <c r="M52">
+        <v>7.5</v>
+      </c>
+      <c r="N52">
+        <v>1.5</v>
+      </c>
+      <c r="O52">
+        <v>4.2</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+      <c r="Q52">
+        <v>-1.25</v>
+      </c>
+      <c r="R52">
+        <v>1.95</v>
+      </c>
+      <c r="S52">
+        <v>1.75</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
-        <v>47</v>
-      </c>
-      <c r="K52">
-        <v>3.4</v>
-      </c>
-      <c r="L52">
-        <v>3.4</v>
-      </c>
-      <c r="M52">
-        <v>1.909</v>
-      </c>
-      <c r="N52">
-        <v>2.875</v>
-      </c>
-      <c r="O52">
-        <v>3.25</v>
-      </c>
-      <c r="P52">
-        <v>2.2</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.775</v>
-      </c>
-      <c r="S52">
-        <v>2.025</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6843533</v>
+        <v>6843532</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45142.375</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
+        <v>2.875</v>
+      </c>
+      <c r="O53">
+        <v>3.25</v>
+      </c>
+      <c r="P53">
+        <v>2.2</v>
+      </c>
+      <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>1.8</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>1.2</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>1.025</v>
+      </c>
+      <c r="AB53">
         <v>1</v>
       </c>
-      <c r="J53" t="s">
-        <v>48</v>
-      </c>
-      <c r="K53">
-        <v>1.3</v>
-      </c>
-      <c r="L53">
-        <v>4.75</v>
-      </c>
-      <c r="M53">
-        <v>7.5</v>
-      </c>
-      <c r="N53">
-        <v>1.5</v>
-      </c>
-      <c r="O53">
-        <v>4.2</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
-      <c r="Q53">
-        <v>-1.25</v>
-      </c>
-      <c r="R53">
-        <v>1.95</v>
-      </c>
-      <c r="S53">
-        <v>1.75</v>
-      </c>
-      <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>3.2</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
-      <c r="AA53">
-        <v>0.75</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.833</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6843538</v>
+        <v>7030759</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,13 +5621,13 @@
         <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
@@ -5642,10 +5642,10 @@
         <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7030759</v>
+        <v>6843538</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,13 +5710,13 @@
         <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
@@ -5731,10 +5731,10 @@
         <v>2.9</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5799,7 +5799,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.625</v>
@@ -5888,7 +5888,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>1.909</v>
@@ -5974,7 +5974,7 @@
         <v>45147.20833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>39</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>1.666</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6843543</v>
+        <v>6843544</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,13 +6063,13 @@
         <v>45147.375</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6078,61 +6078,61 @@
         <v>48</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
+        <v>2.6</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
         <v>3.25</v>
       </c>
-      <c r="N63">
-        <v>1.833</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6843544</v>
+        <v>6843543</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,13 +6152,13 @@
         <v>45147.375</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6167,61 +6167,61 @@
         <v>49</v>
       </c>
       <c r="K64">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6253,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>2.3</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>2.1</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6508,7 +6508,7 @@
         <v>45151.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>1.75</v>
@@ -6600,7 +6600,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7055699</v>
+        <v>6843550</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6686,58 @@
         <v>45151.375</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N70">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6746,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6843550</v>
+        <v>7055699</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,58 +6775,58 @@
         <v>45151.375</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6835,16 +6835,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,10 +6864,10 @@
         <v>45152.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.7</v>
@@ -7220,7 +7220,7 @@
         <v>45156.375</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7309,7 +7309,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
         <v>44</v>
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>2.05</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7588,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.625</v>
@@ -7665,7 +7665,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.3</v>
@@ -7754,10 +7754,10 @@
         <v>45158.375</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>1.571</v>
@@ -7935,7 +7935,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843565</v>
+        <v>6843566</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45163.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843566</v>
+        <v>6843565</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45163.375</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>45164.375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>1.615</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>1.727</v>
@@ -8469,7 +8469,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8733,7 +8733,7 @@
         <v>45170.375</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>2.1</v>
@@ -8911,10 +8911,10 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>1.85</v>
@@ -9000,7 +9000,7 @@
         <v>45171.375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2.3</v>
@@ -9178,10 +9178,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.7</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>3</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>1.8</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>1.727</v>
@@ -9623,10 +9623,10 @@
         <v>45184.375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6843585</v>
+        <v>6843584</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,13 +9712,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9727,61 +9727,61 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6843584</v>
+        <v>6843585</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,13 +9801,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9816,61 +9816,61 @@
         <v>49</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.1</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>1.444</v>
@@ -10160,7 +10160,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10338,7 +10338,7 @@
         <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>2.1</v>
@@ -10424,7 +10424,7 @@
         <v>45191.375</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.2</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6843594</v>
+        <v>6843593</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,73 +10513,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N113">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6843593</v>
+        <v>6843594</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>3</v>
       </c>
-      <c r="I114">
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114">
+        <v>2.6</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>2.45</v>
+      </c>
+      <c r="N114">
+        <v>2.4</v>
+      </c>
+      <c r="O114">
+        <v>3.1</v>
+      </c>
+      <c r="P114">
+        <v>2.7</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.9</v>
+      </c>
+      <c r="V114">
+        <v>1.9</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>1.7</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1</v>
       </c>
-      <c r="J114" t="s">
-        <v>49</v>
-      </c>
-      <c r="K114">
-        <v>1.65</v>
-      </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
-      <c r="M114">
-        <v>4.2</v>
-      </c>
-      <c r="N114">
-        <v>1.571</v>
-      </c>
-      <c r="O114">
-        <v>4</v>
-      </c>
-      <c r="P114">
-        <v>4.5</v>
-      </c>
-      <c r="Q114">
-        <v>-1</v>
-      </c>
-      <c r="R114">
-        <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
-      <c r="W114">
-        <v>0.571</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.95</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10691,10 +10691,10 @@
         <v>45192.375</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.8</v>
@@ -10869,7 +10869,7 @@
         <v>45193.375</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>1.909</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>1.909</v>
@@ -11139,7 +11139,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.45</v>
@@ -11237,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.375</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6843604</v>
+        <v>6843602</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11329,61 +11329,61 @@
         <v>48</v>
       </c>
       <c r="K122">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X122">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>0.4375</v>
+      </c>
+      <c r="AA122">
         <v>-0.5</v>
       </c>
-      <c r="AA122">
-        <v>0.4</v>
-      </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6843602</v>
+        <v>6843604</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,13 +11403,13 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11418,61 +11418,61 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N123">
+        <v>2.2</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
+        <v>2.8</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3.8</v>
-      </c>
-      <c r="Q123">
-        <v>-0.75</v>
-      </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
         <v>1.85</v>
       </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11584,7 +11584,7 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11593,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>2.4</v>
@@ -11759,7 +11759,7 @@
         <v>45200.375</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.571</v>
@@ -11851,7 +11851,7 @@
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.25</v>
@@ -11937,7 +11937,7 @@
         <v>45205.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -11949,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
         <v>2.6</v>
@@ -12115,7 +12115,7 @@
         <v>45205.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12127,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>1.8</v>
@@ -12207,7 +12207,7 @@
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>45206.375</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.727</v>
@@ -12483,7 +12483,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>2.15</v>
@@ -12560,7 +12560,7 @@
         <v>45207.375</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12649,10 +12649,10 @@
         <v>45219.20833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>1.533</v>
@@ -12827,7 +12827,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>2.4</v>
@@ -12928,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13008,7 +13008,7 @@
         <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6843623</v>
+        <v>6843624</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>4</v>
-      </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>2.625</v>
+      </c>
+      <c r="N142">
+        <v>2.5</v>
+      </c>
+      <c r="O142">
         <v>3.6</v>
       </c>
-      <c r="M142">
-        <v>4.2</v>
-      </c>
-      <c r="N142">
-        <v>1.6</v>
-      </c>
-      <c r="O142">
-        <v>3.75</v>
-      </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.825</v>
-      </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6843624</v>
+        <v>6843623</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
+        <v>1.6</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.333</v>
+      </c>
+      <c r="Q143">
+        <v>-0.75</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
         <v>2.5</v>
       </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>2.3</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>45221.375</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>1.533</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>3.3</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6843631</v>
+        <v>6843629</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,58 +13628,58 @@
         <v>45227.375</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M148">
+        <v>6.5</v>
+      </c>
+      <c r="N148">
+        <v>1.363</v>
+      </c>
+      <c r="O148">
         <v>4.75</v>
       </c>
-      <c r="N148">
-        <v>1.65</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6843629</v>
+        <v>6843631</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,58 +13717,58 @@
         <v>45227.375</v>
       </c>
       <c r="F149" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" t="s">
         <v>31</v>
       </c>
-      <c r="G149" t="s">
-        <v>38</v>
-      </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
         <v>4.75</v>
       </c>
-      <c r="M149">
-        <v>6.5</v>
-      </c>
       <c r="N149">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13809,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.5</v>
@@ -13895,10 +13895,10 @@
         <v>45228.375</v>
       </c>
       <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
         <v>37</v>
-      </c>
-      <c r="G151" t="s">
-        <v>36</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>1.5</v>
@@ -14165,7 +14165,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>2.625</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K156">
         <v>1.4</v>
@@ -14429,10 +14429,10 @@
         <v>45232.375</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>4</v>
@@ -14610,7 +14610,7 @@
         <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>45234.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>2.55</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14963,7 +14963,7 @@
         <v>45238.20833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -14975,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>1.363</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>1.6</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>45239.20833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>43</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>1.666</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6953271</v>
+        <v>6953272</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45239.375</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>45</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P167">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6953272</v>
+        <v>6953271</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45239.375</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>48</v>
       </c>
       <c r="K168">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.444</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>5.5</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>3.25</v>
       </c>
-      <c r="M168">
-        <v>3.75</v>
-      </c>
-      <c r="N168">
-        <v>1.909</v>
-      </c>
-      <c r="O168">
-        <v>3.25</v>
-      </c>
-      <c r="P168">
-        <v>3.75</v>
-      </c>
-      <c r="Q168">
-        <v>-0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.925</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X168">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>45242.375</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>41</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>2.05</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6954170</v>
+        <v>6953274</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45253.375</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O172">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>1.6</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6953274</v>
+        <v>6954170</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45253.375</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>1.444</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>5.75</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="N173">
-        <v>2.6</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
-      <c r="P173">
-        <v>2.5</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
-      <c r="S173">
-        <v>1.775</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>1.6</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16031,10 +16031,10 @@
         <v>45256.375</v>
       </c>
       <c r="F175" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
         <v>32</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16209,10 +16209,10 @@
         <v>45257.375</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>1.571</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K179">
         <v>1.5</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6953281</v>
+        <v>6954164</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45262.20833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16488,64 +16488,64 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L180">
         <v>3.3</v>
       </c>
       <c r="M180">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>